--- a/catalogo_musical.xlsx
+++ b/catalogo_musical.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9d20daa13162c28c/Documentos/Catalogo Musical/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="13" documentId="8_{44AE8B72-C6C1-4264-BF20-89D79CF84A16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2EDB92F2-8FE9-454E-9D74-369F587B16F6}"/>
+  <xr:revisionPtr revIDLastSave="127" documentId="8_{44AE8B72-C6C1-4264-BF20-89D79CF84A16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{99C33683-ED30-43BA-998D-DC056689D606}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1234" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1392" uniqueCount="318">
   <si>
     <t>Álbum</t>
   </si>
@@ -768,22 +768,220 @@
     <t>Producido por Willie Colón</t>
   </si>
   <si>
-    <t>Producido por Willie Colón &amp; Jerry Masucci</t>
-  </si>
-  <si>
     <t>Producido por Jerry Masucci, Dir. Grabación: Johnny Pacheco</t>
   </si>
   <si>
     <t>SLPCD-399</t>
+  </si>
+  <si>
+    <t>2:45</t>
+  </si>
+  <si>
+    <t>3:47</t>
+  </si>
+  <si>
+    <t>3:31</t>
+  </si>
+  <si>
+    <t>2:50</t>
+  </si>
+  <si>
+    <t>3:54</t>
+  </si>
+  <si>
+    <t>3:44</t>
+  </si>
+  <si>
+    <t>3:20</t>
+  </si>
+  <si>
+    <t>Producido por  Louie Ramirez/ Coro: Adalberto Santiago, Ruben Blades, Yayo el Indio y Carlos Ayala</t>
+  </si>
+  <si>
+    <t>Producido por Joe Cain / Arreglos: Javier Vasquez</t>
+  </si>
+  <si>
+    <t>3:17</t>
+  </si>
+  <si>
+    <t>2:36</t>
+  </si>
+  <si>
+    <t>2:55</t>
+  </si>
+  <si>
+    <t>5:30</t>
+  </si>
+  <si>
+    <t>2:40</t>
+  </si>
+  <si>
+    <t>3:50</t>
+  </si>
+  <si>
+    <t>3:59</t>
+  </si>
+  <si>
+    <t>2:49</t>
+  </si>
+  <si>
+    <t>Producido por Joe Cain, Miguel Estivill, Tito Puente / Arreglos: Javier Vasquez</t>
+  </si>
+  <si>
+    <t>7:10</t>
+  </si>
+  <si>
+    <t>4:08</t>
+  </si>
+  <si>
+    <t>4:20</t>
+  </si>
+  <si>
+    <t>5:36</t>
+  </si>
+  <si>
+    <t>3:10</t>
+  </si>
+  <si>
+    <t>3:32</t>
+  </si>
+  <si>
+    <t>3:27</t>
+  </si>
+  <si>
+    <t>3:40</t>
+  </si>
+  <si>
+    <t>3:14</t>
+  </si>
+  <si>
+    <t>3:06</t>
+  </si>
+  <si>
+    <t>4:10</t>
+  </si>
+  <si>
+    <t>4:00</t>
+  </si>
+  <si>
+    <t>3:45</t>
+  </si>
+  <si>
+    <t>4:45</t>
+  </si>
+  <si>
+    <t>4:01</t>
+  </si>
+  <si>
+    <t>4:17</t>
+  </si>
+  <si>
+    <t>3:25</t>
+  </si>
+  <si>
+    <t>Producido por Joe Cain, Luis Ramirez, Ismael Rivera, Pancho Cristal</t>
+  </si>
+  <si>
+    <t>2:48</t>
+  </si>
+  <si>
+    <t>3:19</t>
+  </si>
+  <si>
+    <t>3:04</t>
+  </si>
+  <si>
+    <t>2:34</t>
+  </si>
+  <si>
+    <t>2:54</t>
+  </si>
+  <si>
+    <t>3:16</t>
+  </si>
+  <si>
+    <t>3:11</t>
+  </si>
+  <si>
+    <t>Producido por Pancho Cristal</t>
+  </si>
+  <si>
+    <t>2:41</t>
+  </si>
+  <si>
+    <t>2:59</t>
+  </si>
+  <si>
+    <t>2:57</t>
+  </si>
+  <si>
+    <t>2:30</t>
+  </si>
+  <si>
+    <t>2:35</t>
+  </si>
+  <si>
+    <t>2:39</t>
+  </si>
+  <si>
+    <t>2:26</t>
+  </si>
+  <si>
+    <t>3:08</t>
+  </si>
+  <si>
+    <t>3:05</t>
+  </si>
+  <si>
+    <t>2:43</t>
+  </si>
+  <si>
+    <t>Con: Ismael Rivera, Rafael Ithier, Roberto Roena, Sammy Ayala, Kito Velez, Hector Santos…</t>
+  </si>
+  <si>
+    <t>10:24</t>
+  </si>
+  <si>
+    <t>6:41</t>
+  </si>
+  <si>
+    <t>6:00</t>
+  </si>
+  <si>
+    <t>4:52</t>
+  </si>
+  <si>
+    <t>2:31</t>
+  </si>
+  <si>
+    <t>3:49</t>
+  </si>
+  <si>
+    <t>5:23</t>
+  </si>
+  <si>
+    <t>4:11</t>
+  </si>
+  <si>
+    <t>4:27</t>
+  </si>
+  <si>
+    <t>2:33</t>
+  </si>
+  <si>
+    <t>8:18</t>
+  </si>
+  <si>
+    <t>6:13</t>
+  </si>
+  <si>
+    <t>Producido por Willie Colón &amp; Jerry Masucci/ Arreglos: Wllie Colon/ Coro: Justo Betancourt, Johnny Pacheco</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="h:mm;@"/>
-  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -841,10 +1039,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -862,6 +1060,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1153,8 +1355,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="N71" sqref="N71"/>
+    <sheetView tabSelected="1" topLeftCell="D105" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="N97" sqref="N97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1168,7 +1370,7 @@
     <col min="10" max="10" width="15.1796875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12.1796875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="9.54296875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="52.26953125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="91.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.35">
@@ -1255,6 +1457,9 @@
       <c r="M2">
         <v>1</v>
       </c>
+      <c r="N2" t="s">
+        <v>258</v>
+      </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
@@ -1296,6 +1501,9 @@
       <c r="M3">
         <v>1</v>
       </c>
+      <c r="N3" t="s">
+        <v>258</v>
+      </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
@@ -1337,6 +1545,9 @@
       <c r="M4">
         <v>1</v>
       </c>
+      <c r="N4" t="s">
+        <v>258</v>
+      </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
@@ -1378,6 +1589,9 @@
       <c r="M5">
         <v>1</v>
       </c>
+      <c r="N5" t="s">
+        <v>258</v>
+      </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
@@ -1419,6 +1633,9 @@
       <c r="M6">
         <v>1</v>
       </c>
+      <c r="N6" t="s">
+        <v>258</v>
+      </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
@@ -1460,6 +1677,9 @@
       <c r="M7">
         <v>1</v>
       </c>
+      <c r="N7" t="s">
+        <v>258</v>
+      </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
@@ -1501,6 +1721,9 @@
       <c r="M8">
         <v>1</v>
       </c>
+      <c r="N8" t="s">
+        <v>258</v>
+      </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
@@ -1542,6 +1765,9 @@
       <c r="M9">
         <v>1</v>
       </c>
+      <c r="N9" t="s">
+        <v>258</v>
+      </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
@@ -1583,6 +1809,9 @@
       <c r="M10">
         <v>1</v>
       </c>
+      <c r="N10" t="s">
+        <v>258</v>
+      </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
@@ -1624,6 +1853,9 @@
       <c r="M11">
         <v>1</v>
       </c>
+      <c r="N11" t="s">
+        <v>258</v>
+      </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
@@ -1635,8 +1867,8 @@
       <c r="C12" t="s">
         <v>37</v>
       </c>
-      <c r="D12" s="3">
-        <v>0.11458333333333333</v>
+      <c r="D12" s="3" t="s">
+        <v>250</v>
       </c>
       <c r="E12" t="s">
         <v>25</v>
@@ -1664,6 +1896,9 @@
       </c>
       <c r="M12">
         <v>2</v>
+      </c>
+      <c r="N12" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.35">
@@ -1676,8 +1911,8 @@
       <c r="C13" t="s">
         <v>38</v>
       </c>
-      <c r="D13" s="3">
-        <v>0.15763888888888888</v>
+      <c r="D13" s="3" t="s">
+        <v>251</v>
       </c>
       <c r="E13" t="s">
         <v>25</v>
@@ -1705,6 +1940,9 @@
       </c>
       <c r="M13">
         <v>2</v>
+      </c>
+      <c r="N13" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.35">
@@ -1717,8 +1955,8 @@
       <c r="C14" t="s">
         <v>39</v>
       </c>
-      <c r="D14" s="3">
-        <v>0.14652777777777778</v>
+      <c r="D14" s="3" t="s">
+        <v>252</v>
       </c>
       <c r="E14" t="s">
         <v>25</v>
@@ -1746,6 +1984,9 @@
       </c>
       <c r="M14">
         <v>2</v>
+      </c>
+      <c r="N14" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.35">
@@ -1758,8 +1999,8 @@
       <c r="C15" t="s">
         <v>40</v>
       </c>
-      <c r="D15" s="3">
-        <v>0.11805555555555555</v>
+      <c r="D15" s="3" t="s">
+        <v>253</v>
       </c>
       <c r="E15" t="s">
         <v>25</v>
@@ -1787,6 +2028,9 @@
       </c>
       <c r="M15">
         <v>2</v>
+      </c>
+      <c r="N15" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.35">
@@ -1799,8 +2043,8 @@
       <c r="C16" t="s">
         <v>41</v>
       </c>
-      <c r="D16" s="3">
-        <v>0.16250000000000001</v>
+      <c r="D16" s="3" t="s">
+        <v>254</v>
       </c>
       <c r="E16" t="s">
         <v>25</v>
@@ -1829,8 +2073,11 @@
       <c r="M16">
         <v>2</v>
       </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N16" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -1840,8 +2087,8 @@
       <c r="C17" t="s">
         <v>42</v>
       </c>
-      <c r="D17" s="3">
-        <v>0.15555555555555556</v>
+      <c r="D17" s="3" t="s">
+        <v>255</v>
       </c>
       <c r="E17" t="s">
         <v>25</v>
@@ -1870,8 +2117,11 @@
       <c r="M17">
         <v>2</v>
       </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N17" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -1881,8 +2131,8 @@
       <c r="C18" t="s">
         <v>43</v>
       </c>
-      <c r="D18" s="3">
-        <v>0.11458333333333333</v>
+      <c r="D18" s="3" t="s">
+        <v>250</v>
       </c>
       <c r="E18" t="s">
         <v>25</v>
@@ -1911,8 +2161,11 @@
       <c r="M18">
         <v>2</v>
       </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N18" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>15</v>
       </c>
@@ -1922,8 +2175,8 @@
       <c r="C19" t="s">
         <v>44</v>
       </c>
-      <c r="D19" s="3">
-        <v>0.1388888888888889</v>
+      <c r="D19" s="3" t="s">
+        <v>256</v>
       </c>
       <c r="E19" t="s">
         <v>25</v>
@@ -1952,8 +2205,11 @@
       <c r="M19">
         <v>2</v>
       </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N19" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>16</v>
       </c>
@@ -1963,8 +2219,8 @@
       <c r="C20" t="s">
         <v>45</v>
       </c>
-      <c r="D20" s="3">
-        <v>0.13680555555555557</v>
+      <c r="D20" s="3" t="s">
+        <v>259</v>
       </c>
       <c r="E20" t="s">
         <v>159</v>
@@ -1993,8 +2249,11 @@
       <c r="M20">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N20" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>16</v>
       </c>
@@ -2004,8 +2263,8 @@
       <c r="C21" t="s">
         <v>46</v>
       </c>
-      <c r="D21" s="3">
-        <v>0.10833333333333334</v>
+      <c r="D21" s="3" t="s">
+        <v>260</v>
       </c>
       <c r="E21" t="s">
         <v>159</v>
@@ -2034,8 +2293,11 @@
       <c r="M21">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N21" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>16</v>
       </c>
@@ -2045,8 +2307,8 @@
       <c r="C22" t="s">
         <v>33</v>
       </c>
-      <c r="D22" s="3">
-        <v>0.12152777777777778</v>
+      <c r="D22" s="3" t="s">
+        <v>261</v>
       </c>
       <c r="E22" t="s">
         <v>159</v>
@@ -2075,8 +2337,11 @@
       <c r="M22">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N22" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>16</v>
       </c>
@@ -2086,8 +2351,8 @@
       <c r="C23" t="s">
         <v>47</v>
       </c>
-      <c r="D23" s="3">
-        <v>0.13680555555555557</v>
+      <c r="D23" s="3" t="s">
+        <v>259</v>
       </c>
       <c r="E23" t="s">
         <v>159</v>
@@ -2116,8 +2381,11 @@
       <c r="M23">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N23" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>16</v>
       </c>
@@ -2127,8 +2395,8 @@
       <c r="C24" t="s">
         <v>48</v>
       </c>
-      <c r="D24" s="3">
-        <v>0.22916666666666666</v>
+      <c r="D24" s="3" t="s">
+        <v>262</v>
       </c>
       <c r="E24" t="s">
         <v>159</v>
@@ -2157,8 +2425,11 @@
       <c r="M24">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N24" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>16</v>
       </c>
@@ -2168,8 +2439,8 @@
       <c r="C25" t="s">
         <v>49</v>
       </c>
-      <c r="D25" s="3">
-        <v>0.14652777777777778</v>
+      <c r="D25" s="3" t="s">
+        <v>252</v>
       </c>
       <c r="E25" t="s">
         <v>159</v>
@@ -2198,8 +2469,11 @@
       <c r="M25">
         <v>3</v>
       </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N25" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>16</v>
       </c>
@@ -2209,8 +2483,8 @@
       <c r="C26" t="s">
         <v>50</v>
       </c>
-      <c r="D26" s="3">
-        <v>0.1111111111111111</v>
+      <c r="D26" s="3" t="s">
+        <v>263</v>
       </c>
       <c r="E26" t="s">
         <v>159</v>
@@ -2239,8 +2513,11 @@
       <c r="M26">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N26" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>16</v>
       </c>
@@ -2250,8 +2527,8 @@
       <c r="C27" t="s">
         <v>51</v>
       </c>
-      <c r="D27" s="3">
-        <v>0.15972222222222221</v>
+      <c r="D27" s="3" t="s">
+        <v>264</v>
       </c>
       <c r="E27" t="s">
         <v>159</v>
@@ -2280,8 +2557,11 @@
       <c r="M27">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N27" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>16</v>
       </c>
@@ -2291,8 +2571,8 @@
       <c r="C28" t="s">
         <v>52</v>
       </c>
-      <c r="D28" s="3">
-        <v>0.16597222222222222</v>
+      <c r="D28" s="3" t="s">
+        <v>265</v>
       </c>
       <c r="E28" t="s">
         <v>159</v>
@@ -2321,8 +2601,11 @@
       <c r="M28">
         <v>3</v>
       </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N28" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>16</v>
       </c>
@@ -2332,8 +2615,8 @@
       <c r="C29" t="s">
         <v>53</v>
       </c>
-      <c r="D29" s="3">
-        <v>0.15486111111111112</v>
+      <c r="D29" s="3" t="s">
+        <v>155</v>
       </c>
       <c r="E29" t="s">
         <v>159</v>
@@ -2362,8 +2645,11 @@
       <c r="M29">
         <v>3</v>
       </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N29" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>16</v>
       </c>
@@ -2373,8 +2659,8 @@
       <c r="C30" t="s">
         <v>54</v>
       </c>
-      <c r="D30" s="3">
-        <v>0.11736111111111111</v>
+      <c r="D30" s="3" t="s">
+        <v>266</v>
       </c>
       <c r="E30" t="s">
         <v>159</v>
@@ -2403,8 +2689,11 @@
       <c r="M30">
         <v>3</v>
       </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N30" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>17</v>
       </c>
@@ -2414,8 +2703,8 @@
       <c r="C31" t="s">
         <v>55</v>
       </c>
-      <c r="D31" s="3">
-        <v>0.2986111111111111</v>
+      <c r="D31" s="3" t="s">
+        <v>268</v>
       </c>
       <c r="E31" t="s">
         <v>159</v>
@@ -2445,7 +2734,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>17</v>
       </c>
@@ -2455,8 +2744,8 @@
       <c r="C32" t="s">
         <v>56</v>
       </c>
-      <c r="D32" s="3">
-        <v>0.17222222222222222</v>
+      <c r="D32" s="3" t="s">
+        <v>269</v>
       </c>
       <c r="E32" t="s">
         <v>159</v>
@@ -2486,7 +2775,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>17</v>
       </c>
@@ -2496,8 +2785,8 @@
       <c r="C33" t="s">
         <v>57</v>
       </c>
-      <c r="D33" s="3">
-        <v>0.14930555555555555</v>
+      <c r="D33" s="3" t="s">
+        <v>153</v>
       </c>
       <c r="E33" t="s">
         <v>159</v>
@@ -2527,7 +2816,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>17</v>
       </c>
@@ -2537,8 +2826,8 @@
       <c r="C34" t="s">
         <v>58</v>
       </c>
-      <c r="D34" s="3">
-        <v>0.18055555555555555</v>
+      <c r="D34" s="3" t="s">
+        <v>270</v>
       </c>
       <c r="E34" t="s">
         <v>159</v>
@@ -2568,7 +2857,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>17</v>
       </c>
@@ -2578,8 +2867,8 @@
       <c r="C35" t="s">
         <v>59</v>
       </c>
-      <c r="D35" s="3">
-        <v>0.16597222222222222</v>
+      <c r="D35" s="3" t="s">
+        <v>265</v>
       </c>
       <c r="E35" t="s">
         <v>159</v>
@@ -2609,7 +2898,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>17</v>
       </c>
@@ -2619,8 +2908,8 @@
       <c r="C36" t="s">
         <v>48</v>
       </c>
-      <c r="D36" s="3">
-        <v>0.23333333333333334</v>
+      <c r="D36" s="3" t="s">
+        <v>271</v>
       </c>
       <c r="E36" t="s">
         <v>159</v>
@@ -2650,7 +2939,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>17</v>
       </c>
@@ -2660,8 +2949,8 @@
       <c r="C37" t="s">
         <v>60</v>
       </c>
-      <c r="D37" s="3">
-        <v>0.13194444444444445</v>
+      <c r="D37" s="3" t="s">
+        <v>272</v>
       </c>
       <c r="E37" t="s">
         <v>159</v>
@@ -2691,7 +2980,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>17</v>
       </c>
@@ -2701,8 +2990,8 @@
       <c r="C38" t="s">
         <v>61</v>
       </c>
-      <c r="D38" s="3">
-        <v>0.14722222222222223</v>
+      <c r="D38" s="3" t="s">
+        <v>273</v>
       </c>
       <c r="E38" t="s">
         <v>159</v>
@@ -2732,7 +3021,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>17</v>
       </c>
@@ -2742,8 +3031,8 @@
       <c r="C39" t="s">
         <v>62</v>
       </c>
-      <c r="D39" s="3">
-        <v>0.14374999999999999</v>
+      <c r="D39" s="3" t="s">
+        <v>274</v>
       </c>
       <c r="E39" t="s">
         <v>159</v>
@@ -2773,7 +3062,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>17</v>
       </c>
@@ -2783,8 +3072,8 @@
       <c r="C40" t="s">
         <v>53</v>
       </c>
-      <c r="D40" s="3">
-        <v>0.15277777777777779</v>
+      <c r="D40" s="3" t="s">
+        <v>275</v>
       </c>
       <c r="E40" t="s">
         <v>159</v>
@@ -2814,7 +3103,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>17</v>
       </c>
@@ -2824,8 +3113,8 @@
       <c r="C41" t="s">
         <v>45</v>
       </c>
-      <c r="D41" s="3">
-        <v>0.13680555555555557</v>
+      <c r="D41" s="3" t="s">
+        <v>259</v>
       </c>
       <c r="E41" t="s">
         <v>159</v>
@@ -2855,7 +3144,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>18</v>
       </c>
@@ -2865,8 +3154,8 @@
       <c r="C42" t="s">
         <v>63</v>
       </c>
-      <c r="D42" s="3">
-        <v>0.13472222222222222</v>
+      <c r="D42" s="3" t="s">
+        <v>276</v>
       </c>
       <c r="E42" t="s">
         <v>159</v>
@@ -2895,8 +3184,11 @@
       <c r="M42">
         <v>5</v>
       </c>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N42" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>18</v>
       </c>
@@ -2906,8 +3198,8 @@
       <c r="C43" t="s">
         <v>64</v>
       </c>
-      <c r="D43" s="3">
-        <v>0.12916666666666668</v>
+      <c r="D43" s="3" t="s">
+        <v>277</v>
       </c>
       <c r="E43" t="s">
         <v>159</v>
@@ -2936,8 +3228,11 @@
       <c r="M43">
         <v>5</v>
       </c>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N43" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>18</v>
       </c>
@@ -2947,8 +3242,8 @@
       <c r="C44" t="s">
         <v>65</v>
       </c>
-      <c r="D44" s="3">
-        <v>0.1736111111111111</v>
+      <c r="D44" s="3" t="s">
+        <v>278</v>
       </c>
       <c r="E44" t="s">
         <v>159</v>
@@ -2977,8 +3272,11 @@
       <c r="M44">
         <v>5</v>
       </c>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N44" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>18</v>
       </c>
@@ -2988,8 +3286,8 @@
       <c r="C45" t="s">
         <v>66</v>
       </c>
-      <c r="D45" s="3">
-        <v>0.16666666666666666</v>
+      <c r="D45" s="3" t="s">
+        <v>279</v>
       </c>
       <c r="E45" t="s">
         <v>159</v>
@@ -3018,8 +3316,11 @@
       <c r="M45">
         <v>5</v>
       </c>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N45" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>18</v>
       </c>
@@ -3029,8 +3330,8 @@
       <c r="C46" t="s">
         <v>67</v>
       </c>
-      <c r="D46" s="3">
-        <v>0.15625</v>
+      <c r="D46" s="3" t="s">
+        <v>280</v>
       </c>
       <c r="E46" t="s">
         <v>159</v>
@@ -3059,8 +3360,11 @@
       <c r="M46">
         <v>5</v>
       </c>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N46" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>18</v>
       </c>
@@ -3070,8 +3374,8 @@
       <c r="C47" t="s">
         <v>68</v>
       </c>
-      <c r="D47" s="3">
-        <v>0.11805555555555555</v>
+      <c r="D47" s="3" t="s">
+        <v>253</v>
       </c>
       <c r="E47" t="s">
         <v>159</v>
@@ -3100,8 +3404,11 @@
       <c r="M47">
         <v>5</v>
       </c>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N47" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>18</v>
       </c>
@@ -3111,8 +3418,8 @@
       <c r="C48" t="s">
         <v>69</v>
       </c>
-      <c r="D48" s="3">
-        <v>0.19791666666666666</v>
+      <c r="D48" s="3" t="s">
+        <v>281</v>
       </c>
       <c r="E48" t="s">
         <v>159</v>
@@ -3141,8 +3448,11 @@
       <c r="M48">
         <v>5</v>
       </c>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N48" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>18</v>
       </c>
@@ -3152,8 +3462,8 @@
       <c r="C49" t="s">
         <v>70</v>
       </c>
-      <c r="D49" s="3">
-        <v>0.1673611111111111</v>
+      <c r="D49" s="3" t="s">
+        <v>282</v>
       </c>
       <c r="E49" t="s">
         <v>159</v>
@@ -3182,8 +3492,11 @@
       <c r="M49">
         <v>5</v>
       </c>
-    </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N49" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>18</v>
       </c>
@@ -3193,8 +3506,8 @@
       <c r="C50" t="s">
         <v>36</v>
       </c>
-      <c r="D50" s="3">
-        <v>0.17847222222222223</v>
+      <c r="D50" s="3" t="s">
+        <v>283</v>
       </c>
       <c r="E50" t="s">
         <v>159</v>
@@ -3223,8 +3536,11 @@
       <c r="M50">
         <v>5</v>
       </c>
-    </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N50" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>18</v>
       </c>
@@ -3234,8 +3550,8 @@
       <c r="C51" t="s">
         <v>34</v>
       </c>
-      <c r="D51" s="3">
-        <v>0.1423611111111111</v>
+      <c r="D51" s="3" t="s">
+        <v>284</v>
       </c>
       <c r="E51" t="s">
         <v>159</v>
@@ -3264,8 +3580,11 @@
       <c r="M51">
         <v>5</v>
       </c>
-    </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N51" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>19</v>
       </c>
@@ -3275,8 +3594,8 @@
       <c r="C52" t="s">
         <v>66</v>
       </c>
-      <c r="D52" s="3">
-        <v>0.11666666666666667</v>
+      <c r="D52" s="3" t="s">
+        <v>286</v>
       </c>
       <c r="E52" t="s">
         <v>159</v>
@@ -3305,8 +3624,11 @@
       <c r="M52">
         <v>6</v>
       </c>
-    </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N52" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>19</v>
       </c>
@@ -3316,8 +3638,8 @@
       <c r="C53" t="s">
         <v>71</v>
       </c>
-      <c r="D53" s="3">
-        <v>0.13472222222222222</v>
+      <c r="D53" s="3" t="s">
+        <v>276</v>
       </c>
       <c r="E53" t="s">
         <v>159</v>
@@ -3346,8 +3668,11 @@
       <c r="M53">
         <v>6</v>
       </c>
-    </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N53" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>19</v>
       </c>
@@ -3357,8 +3682,8 @@
       <c r="C54" t="s">
         <v>72</v>
       </c>
-      <c r="D54" s="3">
-        <v>0.13819444444444445</v>
+      <c r="D54" s="3" t="s">
+        <v>287</v>
       </c>
       <c r="E54" t="s">
         <v>159</v>
@@ -3387,8 +3712,11 @@
       <c r="M54">
         <v>6</v>
       </c>
-    </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N54" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>19</v>
       </c>
@@ -3398,8 +3726,8 @@
       <c r="C55" t="s">
         <v>73</v>
       </c>
-      <c r="D55" s="3">
-        <v>0.12777777777777777</v>
+      <c r="D55" s="3" t="s">
+        <v>288</v>
       </c>
       <c r="E55" t="s">
         <v>159</v>
@@ -3428,8 +3756,11 @@
       <c r="M55">
         <v>6</v>
       </c>
-    </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N55" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>19</v>
       </c>
@@ -3439,8 +3770,8 @@
       <c r="C56" t="s">
         <v>74</v>
       </c>
-      <c r="D56" s="3">
-        <v>0.13958333333333334</v>
+      <c r="D56" s="3" t="s">
+        <v>146</v>
       </c>
       <c r="E56" t="s">
         <v>159</v>
@@ -3469,8 +3800,11 @@
       <c r="M56">
         <v>6</v>
       </c>
-    </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N56" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>19</v>
       </c>
@@ -3480,8 +3814,8 @@
       <c r="C57" t="s">
         <v>75</v>
       </c>
-      <c r="D57" s="3">
-        <v>0.10694444444444444</v>
+      <c r="D57" s="3" t="s">
+        <v>289</v>
       </c>
       <c r="E57" t="s">
         <v>159</v>
@@ -3510,8 +3844,11 @@
       <c r="M57">
         <v>6</v>
       </c>
-    </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N57" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>19</v>
       </c>
@@ -3521,8 +3858,8 @@
       <c r="C58" t="s">
         <v>76</v>
       </c>
-      <c r="D58" s="3">
-        <v>0.12083333333333333</v>
+      <c r="D58" s="3" t="s">
+        <v>290</v>
       </c>
       <c r="E58" t="s">
         <v>159</v>
@@ -3551,8 +3888,11 @@
       <c r="M58">
         <v>6</v>
       </c>
-    </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N58" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>19</v>
       </c>
@@ -3562,8 +3902,8 @@
       <c r="C59" t="s">
         <v>77</v>
       </c>
-      <c r="D59" s="3">
-        <v>0.13819444444444445</v>
+      <c r="D59" s="3" t="s">
+        <v>287</v>
       </c>
       <c r="E59" t="s">
         <v>159</v>
@@ -3592,8 +3932,11 @@
       <c r="M59">
         <v>6</v>
       </c>
-    </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N59" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>19</v>
       </c>
@@ -3603,8 +3946,8 @@
       <c r="C60" t="s">
         <v>78</v>
       </c>
-      <c r="D60" s="3">
-        <v>0.1361111111111111</v>
+      <c r="D60" s="3" t="s">
+        <v>291</v>
       </c>
       <c r="E60" t="s">
         <v>159</v>
@@ -3633,8 +3976,11 @@
       <c r="M60">
         <v>6</v>
       </c>
-    </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N60" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>19</v>
       </c>
@@ -3644,8 +3990,8 @@
       <c r="C61" t="s">
         <v>79</v>
       </c>
-      <c r="D61" s="3">
-        <v>0.13263888888888889</v>
+      <c r="D61" s="3" t="s">
+        <v>292</v>
       </c>
       <c r="E61" t="s">
         <v>159</v>
@@ -3674,8 +4020,11 @@
       <c r="M61">
         <v>6</v>
       </c>
-    </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N61" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>20</v>
       </c>
@@ -3685,8 +4034,8 @@
       <c r="C62" t="s">
         <v>80</v>
       </c>
-      <c r="D62" s="3">
-        <v>0.11805555555555555</v>
+      <c r="D62" s="3" t="s">
+        <v>253</v>
       </c>
       <c r="E62" t="s">
         <v>160</v>
@@ -3715,8 +4064,11 @@
       <c r="M62">
         <v>7</v>
       </c>
-    </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N62" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>20</v>
       </c>
@@ -3726,8 +4078,8 @@
       <c r="C63" t="s">
         <v>81</v>
       </c>
-      <c r="D63" s="3">
-        <v>0.11180555555555556</v>
+      <c r="D63" s="3" t="s">
+        <v>294</v>
       </c>
       <c r="E63" t="s">
         <v>160</v>
@@ -3756,8 +4108,11 @@
       <c r="M63">
         <v>7</v>
       </c>
-    </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N63" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>20</v>
       </c>
@@ -3767,8 +4122,8 @@
       <c r="C64" t="s">
         <v>20</v>
       </c>
-      <c r="D64" s="3">
-        <v>0.12430555555555556</v>
+      <c r="D64" s="3" t="s">
+        <v>295</v>
       </c>
       <c r="E64" t="s">
         <v>160</v>
@@ -3796,6 +4151,9 @@
       </c>
       <c r="M64">
         <v>7</v>
+      </c>
+      <c r="N64" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.35">
@@ -3808,8 +4166,8 @@
       <c r="C65" t="s">
         <v>82</v>
       </c>
-      <c r="D65" s="3">
-        <v>0.12291666666666666</v>
+      <c r="D65" s="3" t="s">
+        <v>296</v>
       </c>
       <c r="E65" t="s">
         <v>160</v>
@@ -3837,6 +4195,9 @@
       </c>
       <c r="M65">
         <v>7</v>
+      </c>
+      <c r="N65" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.35">
@@ -3849,8 +4210,8 @@
       <c r="C66" t="s">
         <v>83</v>
       </c>
-      <c r="D66" s="3">
-        <v>0.10416666666666667</v>
+      <c r="D66" s="3" t="s">
+        <v>297</v>
       </c>
       <c r="E66" t="s">
         <v>160</v>
@@ -3878,6 +4239,9 @@
       </c>
       <c r="M66">
         <v>7</v>
+      </c>
+      <c r="N66" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.35">
@@ -3890,8 +4254,8 @@
       <c r="C67" t="s">
         <v>84</v>
       </c>
-      <c r="D67" s="3">
-        <v>0.1076388888888889</v>
+      <c r="D67" s="3" t="s">
+        <v>298</v>
       </c>
       <c r="E67" t="s">
         <v>160</v>
@@ -3919,6 +4283,9 @@
       </c>
       <c r="M67">
         <v>7</v>
+      </c>
+      <c r="N67" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.35">
@@ -3931,8 +4298,8 @@
       <c r="C68" t="s">
         <v>85</v>
       </c>
-      <c r="D68" s="3">
-        <v>0.11041666666666666</v>
+      <c r="D68" s="3" t="s">
+        <v>299</v>
       </c>
       <c r="E68" t="s">
         <v>160</v>
@@ -3960,6 +4327,9 @@
       </c>
       <c r="M68">
         <v>7</v>
+      </c>
+      <c r="N68" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.35">
@@ -3972,8 +4342,8 @@
       <c r="C69" t="s">
         <v>86</v>
       </c>
-      <c r="D69" s="3">
-        <v>0.11041666666666666</v>
+      <c r="D69" s="3" t="s">
+        <v>299</v>
       </c>
       <c r="E69" t="s">
         <v>160</v>
@@ -4001,6 +4371,9 @@
       </c>
       <c r="M69">
         <v>7</v>
+      </c>
+      <c r="N69" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.35">
@@ -4013,8 +4386,8 @@
       <c r="C70" t="s">
         <v>87</v>
       </c>
-      <c r="D70" s="3">
-        <v>0.1125</v>
+      <c r="D70" s="3" t="s">
+        <v>158</v>
       </c>
       <c r="E70" t="s">
         <v>160</v>
@@ -4042,6 +4415,9 @@
       </c>
       <c r="M70">
         <v>7</v>
+      </c>
+      <c r="N70" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.35">
@@ -4054,8 +4430,8 @@
       <c r="C71" t="s">
         <v>88</v>
       </c>
-      <c r="D71" s="3">
-        <v>0.12222222222222222</v>
+      <c r="D71" s="3" t="s">
+        <v>140</v>
       </c>
       <c r="E71" t="s">
         <v>160</v>
@@ -4083,6 +4459,9 @@
       </c>
       <c r="M71">
         <v>7</v>
+      </c>
+      <c r="N71" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.35">
@@ -4095,8 +4474,8 @@
       <c r="C72" t="s">
         <v>89</v>
       </c>
-      <c r="D72" s="3">
-        <v>0.13194444444444445</v>
+      <c r="D72" s="3" t="s">
+        <v>272</v>
       </c>
       <c r="E72" t="s">
         <v>160</v>
@@ -4124,6 +4503,9 @@
       </c>
       <c r="M72">
         <v>7</v>
+      </c>
+      <c r="N72" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.35">
@@ -4136,8 +4518,8 @@
       <c r="C73" t="s">
         <v>90</v>
       </c>
-      <c r="D73" s="3">
-        <v>0.10138888888888889</v>
+      <c r="D73" s="3" t="s">
+        <v>300</v>
       </c>
       <c r="E73" t="s">
         <v>160</v>
@@ -4165,6 +4547,9 @@
       </c>
       <c r="M73">
         <v>7</v>
+      </c>
+      <c r="N73" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.35">
@@ -4177,8 +4562,8 @@
       <c r="C74" t="s">
         <v>91</v>
       </c>
-      <c r="D74" s="3">
-        <v>0.10416666666666667</v>
+      <c r="D74" s="3" t="s">
+        <v>297</v>
       </c>
       <c r="E74" t="s">
         <v>160</v>
@@ -4206,6 +4591,9 @@
       </c>
       <c r="M74">
         <v>7</v>
+      </c>
+      <c r="N74" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.35">
@@ -4218,8 +4606,8 @@
       <c r="C75" t="s">
         <v>92</v>
       </c>
-      <c r="D75" s="3">
-        <v>0.13055555555555556</v>
+      <c r="D75" s="3" t="s">
+        <v>301</v>
       </c>
       <c r="E75" t="s">
         <v>160</v>
@@ -4247,6 +4635,9 @@
       </c>
       <c r="M75">
         <v>7</v>
+      </c>
+      <c r="N75" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.35">
@@ -4259,8 +4650,8 @@
       <c r="C76" t="s">
         <v>93</v>
       </c>
-      <c r="D76" s="3">
-        <v>0.11180555555555556</v>
+      <c r="D76" s="3" t="s">
+        <v>294</v>
       </c>
       <c r="E76" t="s">
         <v>160</v>
@@ -4288,6 +4679,9 @@
       </c>
       <c r="M76">
         <v>7</v>
+      </c>
+      <c r="N76" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.35">
@@ -4300,8 +4694,8 @@
       <c r="C77" t="s">
         <v>94</v>
       </c>
-      <c r="D77" s="3">
-        <v>0.13194444444444445</v>
+      <c r="D77" s="3" t="s">
+        <v>272</v>
       </c>
       <c r="E77" t="s">
         <v>160</v>
@@ -4329,6 +4723,9 @@
       </c>
       <c r="M77">
         <v>7</v>
+      </c>
+      <c r="N77" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.35">
@@ -4341,8 +4738,8 @@
       <c r="C78" t="s">
         <v>95</v>
       </c>
-      <c r="D78" s="3">
-        <v>0.12847222222222221</v>
+      <c r="D78" s="3" t="s">
+        <v>302</v>
       </c>
       <c r="E78" t="s">
         <v>160</v>
@@ -4370,6 +4767,9 @@
       </c>
       <c r="M78">
         <v>7</v>
+      </c>
+      <c r="N78" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.35">
@@ -4382,8 +4782,8 @@
       <c r="C79" t="s">
         <v>96</v>
       </c>
-      <c r="D79" s="3">
-        <v>0.11319444444444444</v>
+      <c r="D79" s="3" t="s">
+        <v>303</v>
       </c>
       <c r="E79" t="s">
         <v>160</v>
@@ -4411,6 +4811,9 @@
       </c>
       <c r="M79">
         <v>7</v>
+      </c>
+      <c r="N79" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.35">
@@ -4762,7 +5165,7 @@
         <v>8</v>
       </c>
       <c r="N87" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.35">
@@ -4775,8 +5178,8 @@
       <c r="C88" t="s">
         <v>101</v>
       </c>
-      <c r="D88" s="3">
-        <v>0.43333333333333335</v>
+      <c r="D88" s="3" t="s">
+        <v>305</v>
       </c>
       <c r="E88" t="s">
         <v>161</v>
@@ -4816,8 +5219,8 @@
       <c r="C89" t="s">
         <v>105</v>
       </c>
-      <c r="D89" s="3">
-        <v>0.27847222222222223</v>
+      <c r="D89" s="3" t="s">
+        <v>306</v>
       </c>
       <c r="E89" t="s">
         <v>162</v>
@@ -4857,8 +5260,8 @@
       <c r="C90" t="s">
         <v>106</v>
       </c>
-      <c r="D90" s="3">
-        <v>0.25</v>
+      <c r="D90" s="3" t="s">
+        <v>307</v>
       </c>
       <c r="E90" t="s">
         <v>161</v>
@@ -4898,8 +5301,8 @@
       <c r="C91" t="s">
         <v>107</v>
       </c>
-      <c r="D91" s="3">
-        <v>0.15555555555555556</v>
+      <c r="D91" s="3" t="s">
+        <v>255</v>
       </c>
       <c r="E91" t="s">
         <v>163</v>
@@ -4939,8 +5342,8 @@
       <c r="C92" t="s">
         <v>108</v>
       </c>
-      <c r="D92" s="3">
-        <v>0.13194444444444445</v>
+      <c r="D92" s="3" t="s">
+        <v>272</v>
       </c>
       <c r="E92" t="s">
         <v>163</v>
@@ -4980,8 +5383,8 @@
       <c r="C93" t="s">
         <v>109</v>
       </c>
-      <c r="D93" s="3">
-        <v>0.20277777777777778</v>
+      <c r="D93" s="3" t="s">
+        <v>308</v>
       </c>
       <c r="E93" t="s">
         <v>163</v>
@@ -5021,8 +5424,8 @@
       <c r="C94" t="s">
         <v>110</v>
       </c>
-      <c r="D94" s="3">
-        <v>0.10486111111111111</v>
+      <c r="D94" s="3" t="s">
+        <v>309</v>
       </c>
       <c r="E94" t="s">
         <v>163</v>
@@ -5062,8 +5465,8 @@
       <c r="C95" t="s">
         <v>104</v>
       </c>
-      <c r="D95" s="3">
-        <v>0.15902777777777777</v>
+      <c r="D95" s="3" t="s">
+        <v>310</v>
       </c>
       <c r="E95" t="s">
         <v>161</v>
@@ -5103,8 +5506,8 @@
       <c r="C96" t="s">
         <v>111</v>
       </c>
-      <c r="D96" s="3">
-        <v>0.22430555555555556</v>
+      <c r="D96" s="3" t="s">
+        <v>311</v>
       </c>
       <c r="E96" t="s">
         <v>161</v>
@@ -5144,8 +5547,8 @@
       <c r="C97" t="s">
         <v>112</v>
       </c>
-      <c r="D97" s="3">
-        <v>0.17986111111111111</v>
+      <c r="D97" s="3" t="s">
+        <v>149</v>
       </c>
       <c r="E97" t="s">
         <v>161</v>
@@ -5185,8 +5588,8 @@
       <c r="C98" t="s">
         <v>113</v>
       </c>
-      <c r="D98" s="3">
-        <v>0.17430555555555555</v>
+      <c r="D98" s="3" t="s">
+        <v>312</v>
       </c>
       <c r="E98" t="s">
         <v>161</v>
@@ -5226,8 +5629,8 @@
       <c r="C99" t="s">
         <v>114</v>
       </c>
-      <c r="D99" s="3">
-        <v>0.18541666666666667</v>
+      <c r="D99" s="3" t="s">
+        <v>313</v>
       </c>
       <c r="E99" t="s">
         <v>161</v>
@@ -5267,8 +5670,8 @@
       <c r="C100" t="s">
         <v>115</v>
       </c>
-      <c r="D100" s="3">
-        <v>0.10625</v>
+      <c r="D100" s="3" t="s">
+        <v>314</v>
       </c>
       <c r="E100" t="s">
         <v>161</v>
@@ -5308,8 +5711,8 @@
       <c r="C101" t="s">
         <v>116</v>
       </c>
-      <c r="D101" s="3">
-        <v>0.15625</v>
+      <c r="D101" s="3" t="s">
+        <v>280</v>
       </c>
       <c r="E101" t="s">
         <v>161</v>
@@ -5349,8 +5752,8 @@
       <c r="C102" t="s">
         <v>117</v>
       </c>
-      <c r="D102" s="3">
-        <v>0.16666666666666666</v>
+      <c r="D102" s="3" t="s">
+        <v>279</v>
       </c>
       <c r="E102" t="s">
         <v>161</v>
@@ -5390,8 +5793,8 @@
       <c r="C103" t="s">
         <v>118</v>
       </c>
-      <c r="D103" s="3">
-        <v>0.15763888888888888</v>
+      <c r="D103" s="3" t="s">
+        <v>251</v>
       </c>
       <c r="E103" t="s">
         <v>164</v>
@@ -5421,7 +5824,7 @@
         <v>10</v>
       </c>
       <c r="N103" t="s">
-        <v>248</v>
+        <v>317</v>
       </c>
     </row>
     <row r="104" spans="1:14" x14ac:dyDescent="0.35">
@@ -5434,8 +5837,8 @@
       <c r="C104" t="s">
         <v>119</v>
       </c>
-      <c r="D104" s="3">
-        <v>0.21875</v>
+      <c r="D104" s="3" t="s">
+        <v>157</v>
       </c>
       <c r="E104" t="s">
         <v>164</v>
@@ -5465,7 +5868,7 @@
         <v>10</v>
       </c>
       <c r="N104" t="s">
-        <v>248</v>
+        <v>317</v>
       </c>
     </row>
     <row r="105" spans="1:14" x14ac:dyDescent="0.35">
@@ -5478,8 +5881,8 @@
       <c r="C105" t="s">
         <v>120</v>
       </c>
-      <c r="D105" s="3">
-        <v>0.12152777777777778</v>
+      <c r="D105" s="3" t="s">
+        <v>261</v>
       </c>
       <c r="E105" t="s">
         <v>164</v>
@@ -5509,7 +5912,7 @@
         <v>10</v>
       </c>
       <c r="N105" t="s">
-        <v>248</v>
+        <v>317</v>
       </c>
     </row>
     <row r="106" spans="1:14" x14ac:dyDescent="0.35">
@@ -5522,8 +5925,8 @@
       <c r="C106" t="s">
         <v>121</v>
       </c>
-      <c r="D106" s="3">
-        <v>0.34583333333333333</v>
+      <c r="D106" s="3" t="s">
+        <v>315</v>
       </c>
       <c r="E106" t="s">
         <v>164</v>
@@ -5553,7 +5956,7 @@
         <v>10</v>
       </c>
       <c r="N106" t="s">
-        <v>248</v>
+        <v>317</v>
       </c>
     </row>
     <row r="107" spans="1:14" x14ac:dyDescent="0.35">
@@ -5566,8 +5969,8 @@
       <c r="C107" t="s">
         <v>122</v>
       </c>
-      <c r="D107" s="3">
-        <v>0.2590277777777778</v>
+      <c r="D107" s="3" t="s">
+        <v>316</v>
       </c>
       <c r="E107" t="s">
         <v>164</v>
@@ -5597,7 +6000,7 @@
         <v>10</v>
       </c>
       <c r="N107" t="s">
-        <v>248</v>
+        <v>317</v>
       </c>
     </row>
     <row r="108" spans="1:14" x14ac:dyDescent="0.35">
@@ -5610,8 +6013,8 @@
       <c r="C108" t="s">
         <v>123</v>
       </c>
-      <c r="D108" s="3">
-        <v>0.1673611111111111</v>
+      <c r="D108" s="3" t="s">
+        <v>282</v>
       </c>
       <c r="E108" t="s">
         <v>164</v>
@@ -5641,7 +6044,7 @@
         <v>10</v>
       </c>
       <c r="N108" t="s">
-        <v>248</v>
+        <v>317</v>
       </c>
     </row>
     <row r="109" spans="1:14" x14ac:dyDescent="0.35">
@@ -5654,8 +6057,8 @@
       <c r="C109" t="s">
         <v>124</v>
       </c>
-      <c r="D109" s="3">
-        <v>0.13263888888888889</v>
+      <c r="D109" s="3" t="s">
+        <v>292</v>
       </c>
       <c r="E109" t="s">
         <v>164</v>
@@ -5685,7 +6088,7 @@
         <v>10</v>
       </c>
       <c r="N109" t="s">
-        <v>248</v>
+        <v>317</v>
       </c>
     </row>
     <row r="110" spans="1:14" x14ac:dyDescent="0.35">
@@ -5698,8 +6101,8 @@
       <c r="C110" t="s">
         <v>125</v>
       </c>
-      <c r="D110" s="3">
-        <v>0.21875</v>
+      <c r="D110" s="3" t="s">
+        <v>157</v>
       </c>
       <c r="E110" t="s">
         <v>164</v>
@@ -5729,7 +6132,7 @@
         <v>10</v>
       </c>
       <c r="N110" t="s">
-        <v>248</v>
+        <v>317</v>
       </c>
     </row>
     <row r="111" spans="1:14" x14ac:dyDescent="0.35">
@@ -5764,7 +6167,7 @@
         <v>235</v>
       </c>
       <c r="K111" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="L111" t="s">
         <v>246</v>
@@ -5773,7 +6176,7 @@
         <v>11</v>
       </c>
       <c r="N111" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="112" spans="1:14" x14ac:dyDescent="0.35">
@@ -5808,7 +6211,7 @@
         <v>235</v>
       </c>
       <c r="K112" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="L112" t="s">
         <v>246</v>
@@ -5817,7 +6220,7 @@
         <v>11</v>
       </c>
       <c r="N112" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="113" spans="1:14" x14ac:dyDescent="0.35">
@@ -5852,7 +6255,7 @@
         <v>235</v>
       </c>
       <c r="K113" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="L113" t="s">
         <v>246</v>
@@ -5861,7 +6264,7 @@
         <v>11</v>
       </c>
       <c r="N113" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="114" spans="1:14" x14ac:dyDescent="0.35">
@@ -5896,7 +6299,7 @@
         <v>235</v>
       </c>
       <c r="K114" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="L114" t="s">
         <v>246</v>
@@ -5905,7 +6308,7 @@
         <v>11</v>
       </c>
       <c r="N114" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="115" spans="1:14" x14ac:dyDescent="0.35">
@@ -5940,7 +6343,7 @@
         <v>235</v>
       </c>
       <c r="K115" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="L115" t="s">
         <v>246</v>
@@ -5949,7 +6352,7 @@
         <v>11</v>
       </c>
       <c r="N115" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="116" spans="1:14" x14ac:dyDescent="0.35">
@@ -5984,7 +6387,7 @@
         <v>235</v>
       </c>
       <c r="K116" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="L116" t="s">
         <v>246</v>
@@ -5993,7 +6396,7 @@
         <v>11</v>
       </c>
       <c r="N116" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="117" spans="1:14" x14ac:dyDescent="0.35">
@@ -6028,7 +6431,7 @@
         <v>235</v>
       </c>
       <c r="K117" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="L117" t="s">
         <v>246</v>
@@ -6037,7 +6440,7 @@
         <v>11</v>
       </c>
       <c r="N117" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="118" spans="1:14" x14ac:dyDescent="0.35">
@@ -6072,7 +6475,7 @@
         <v>235</v>
       </c>
       <c r="K118" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="L118" t="s">
         <v>246</v>
@@ -6081,7 +6484,7 @@
         <v>11</v>
       </c>
       <c r="N118" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
   </sheetData>

--- a/catalogo_musical.xlsx
+++ b/catalogo_musical.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9d20daa13162c28c/Documentos/Catalogo Musical/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="127" documentId="8_{44AE8B72-C6C1-4264-BF20-89D79CF84A16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{99C33683-ED30-43BA-998D-DC056689D606}"/>
+  <xr:revisionPtr revIDLastSave="136" documentId="8_{44AE8B72-C6C1-4264-BF20-89D79CF84A16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2E60366B-E872-410B-8224-13B6D3E38820}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1392" uniqueCount="318">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1392" uniqueCount="317">
   <si>
     <t>Álbum</t>
   </si>
@@ -529,9 +529,6 @@
     <t>Jacobo Morcillo y Fernando Garcia</t>
   </si>
   <si>
-    <t>All Rights Reserved</t>
-  </si>
-  <si>
     <t>H. Davila Williams</t>
   </si>
   <si>
@@ -605,9 +602,6 @@
   </si>
   <si>
     <t>Ramón Muñiz</t>
-  </si>
-  <si>
-    <t>D.R.</t>
   </si>
   <si>
     <t>Lou Perez</t>
@@ -654,9 +648,6 @@
     <t>Rogelio “Kito” Vélez</t>
   </si>
   <si>
-    <t>D. R.</t>
-  </si>
-  <si>
     <t>José A. Espino</t>
   </si>
   <si>
@@ -976,6 +967,12 @@
   </si>
   <si>
     <t>Producido por Willie Colón &amp; Jerry Masucci/ Arreglos: Wllie Colon/ Coro: Justo Betancourt, Johnny Pacheco</t>
+  </si>
+  <si>
+    <t>Rosendo Ruiz Quevedo</t>
+  </si>
+  <si>
+    <t>D.R. Composición (Derechos Reservados)</t>
   </si>
 </sst>
 </file>
@@ -1355,8 +1352,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D105" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="N97" sqref="N97"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F108" sqref="F108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1437,28 +1434,28 @@
         <v>166</v>
       </c>
       <c r="G2" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="H2">
         <v>1972</v>
       </c>
       <c r="I2" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="J2" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="K2" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="L2" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="M2">
         <v>1</v>
       </c>
       <c r="N2" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.35">
@@ -1481,28 +1478,28 @@
         <v>167</v>
       </c>
       <c r="G3" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="H3">
         <v>1972</v>
       </c>
       <c r="I3" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="J3" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="K3" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="L3" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="M3">
         <v>1</v>
       </c>
       <c r="N3" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.35">
@@ -1525,28 +1522,28 @@
         <v>168</v>
       </c>
       <c r="G4" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="H4">
         <v>1972</v>
       </c>
       <c r="I4" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="J4" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="K4" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="L4" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="M4">
         <v>1</v>
       </c>
       <c r="N4" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.35">
@@ -1566,31 +1563,31 @@
         <v>159</v>
       </c>
       <c r="F5" t="s">
-        <v>169</v>
+        <v>316</v>
       </c>
       <c r="G5" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="H5">
         <v>1972</v>
       </c>
       <c r="I5" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="J5" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="K5" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="L5" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="M5">
         <v>1</v>
       </c>
       <c r="N5" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.35">
@@ -1610,31 +1607,31 @@
         <v>159</v>
       </c>
       <c r="F6" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G6" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="H6">
         <v>1972</v>
       </c>
       <c r="I6" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="J6" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="K6" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="L6" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="M6">
         <v>1</v>
       </c>
       <c r="N6" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.35">
@@ -1654,31 +1651,31 @@
         <v>159</v>
       </c>
       <c r="F7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G7" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="H7">
         <v>1972</v>
       </c>
       <c r="I7" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="J7" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="K7" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="L7" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="M7">
         <v>1</v>
       </c>
       <c r="N7" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.35">
@@ -1698,31 +1695,31 @@
         <v>159</v>
       </c>
       <c r="F8" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G8" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="H8">
         <v>1972</v>
       </c>
       <c r="I8" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="J8" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="K8" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="L8" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="M8">
         <v>1</v>
       </c>
       <c r="N8" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.35">
@@ -1742,31 +1739,31 @@
         <v>159</v>
       </c>
       <c r="F9" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G9" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="H9">
         <v>1972</v>
       </c>
       <c r="I9" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="J9" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="K9" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="L9" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="M9">
         <v>1</v>
       </c>
       <c r="N9" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.35">
@@ -1786,31 +1783,31 @@
         <v>159</v>
       </c>
       <c r="F10" t="s">
-        <v>169</v>
+        <v>315</v>
       </c>
       <c r="G10" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="H10">
         <v>1972</v>
       </c>
       <c r="I10" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="J10" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="K10" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="L10" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="M10">
         <v>1</v>
       </c>
       <c r="N10" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.35">
@@ -1830,31 +1827,31 @@
         <v>159</v>
       </c>
       <c r="F11" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G11" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="H11">
         <v>1972</v>
       </c>
       <c r="I11" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="J11" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="K11" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="L11" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="M11">
         <v>1</v>
       </c>
       <c r="N11" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.35">
@@ -1868,37 +1865,37 @@
         <v>37</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="E12" t="s">
         <v>25</v>
       </c>
       <c r="F12" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G12" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="H12">
         <v>1975</v>
       </c>
       <c r="I12" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="J12" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="K12" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="L12" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="M12">
         <v>2</v>
       </c>
       <c r="N12" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.35">
@@ -1912,37 +1909,37 @@
         <v>38</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="E13" t="s">
         <v>25</v>
       </c>
       <c r="F13" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G13" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="H13">
         <v>1975</v>
       </c>
       <c r="I13" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="J13" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="K13" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="L13" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="M13">
         <v>2</v>
       </c>
       <c r="N13" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.35">
@@ -1956,37 +1953,37 @@
         <v>39</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E14" t="s">
         <v>25</v>
       </c>
       <c r="F14" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G14" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="H14">
         <v>1975</v>
       </c>
       <c r="I14" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="J14" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="K14" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="L14" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="M14">
         <v>2</v>
       </c>
       <c r="N14" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.35">
@@ -2000,37 +1997,37 @@
         <v>40</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="E15" t="s">
         <v>25</v>
       </c>
       <c r="F15" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G15" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="H15">
         <v>1975</v>
       </c>
       <c r="I15" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="J15" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="K15" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="L15" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="M15">
         <v>2</v>
       </c>
       <c r="N15" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.35">
@@ -2044,37 +2041,37 @@
         <v>41</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="E16" t="s">
         <v>25</v>
       </c>
       <c r="F16" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G16" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="H16">
         <v>1975</v>
       </c>
       <c r="I16" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="J16" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="K16" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="L16" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="M16">
         <v>2</v>
       </c>
       <c r="N16" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.35">
@@ -2088,37 +2085,37 @@
         <v>42</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="E17" t="s">
         <v>25</v>
       </c>
       <c r="F17" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G17" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="H17">
         <v>1975</v>
       </c>
       <c r="I17" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="J17" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="K17" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="L17" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="M17">
         <v>2</v>
       </c>
       <c r="N17" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.35">
@@ -2132,37 +2129,37 @@
         <v>43</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="E18" t="s">
         <v>25</v>
       </c>
       <c r="F18" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G18" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="H18">
         <v>1975</v>
       </c>
       <c r="I18" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="J18" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="K18" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="L18" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="M18">
         <v>2</v>
       </c>
       <c r="N18" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.35">
@@ -2176,37 +2173,37 @@
         <v>44</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="E19" t="s">
         <v>25</v>
       </c>
       <c r="F19" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G19" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="H19">
         <v>1975</v>
       </c>
       <c r="I19" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="J19" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="K19" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="L19" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="M19">
         <v>2</v>
       </c>
       <c r="N19" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.35">
@@ -2220,37 +2217,37 @@
         <v>45</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="E20" t="s">
         <v>159</v>
       </c>
       <c r="F20" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G20" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="H20">
         <v>1975</v>
       </c>
       <c r="I20" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="J20" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="K20" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="L20" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="M20">
         <v>3</v>
       </c>
       <c r="N20" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.35">
@@ -2264,7 +2261,7 @@
         <v>46</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="E21" t="s">
         <v>159</v>
@@ -2273,28 +2270,28 @@
         <v>25</v>
       </c>
       <c r="G21" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="H21">
         <v>1975</v>
       </c>
       <c r="I21" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="J21" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="K21" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="L21" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="M21">
         <v>3</v>
       </c>
       <c r="N21" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.35">
@@ -2308,37 +2305,37 @@
         <v>33</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="E22" t="s">
         <v>159</v>
       </c>
       <c r="F22" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G22" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="H22">
         <v>1975</v>
       </c>
       <c r="I22" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="J22" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="K22" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="L22" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="M22">
         <v>3</v>
       </c>
       <c r="N22" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.35">
@@ -2352,37 +2349,37 @@
         <v>47</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="E23" t="s">
         <v>159</v>
       </c>
       <c r="F23" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G23" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="H23">
         <v>1975</v>
       </c>
       <c r="I23" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="J23" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="K23" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="L23" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="M23">
         <v>3</v>
       </c>
       <c r="N23" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.35">
@@ -2396,37 +2393,37 @@
         <v>48</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="E24" t="s">
         <v>159</v>
       </c>
       <c r="F24" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G24" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="H24">
         <v>1975</v>
       </c>
       <c r="I24" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="J24" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="K24" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="L24" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="M24">
         <v>3</v>
       </c>
       <c r="N24" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.35">
@@ -2440,7 +2437,7 @@
         <v>49</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E25" t="s">
         <v>159</v>
@@ -2449,28 +2446,28 @@
         <v>167</v>
       </c>
       <c r="G25" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="H25">
         <v>1975</v>
       </c>
       <c r="I25" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="J25" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="K25" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="L25" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="M25">
         <v>3</v>
       </c>
       <c r="N25" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.35">
@@ -2484,37 +2481,37 @@
         <v>50</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="E26" t="s">
         <v>159</v>
       </c>
       <c r="F26" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G26" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="H26">
         <v>1975</v>
       </c>
       <c r="I26" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="J26" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="K26" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="L26" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="M26">
         <v>3</v>
       </c>
       <c r="N26" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.35">
@@ -2528,37 +2525,37 @@
         <v>51</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="E27" t="s">
         <v>159</v>
       </c>
       <c r="F27" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G27" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="H27">
         <v>1975</v>
       </c>
       <c r="I27" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="J27" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="K27" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="L27" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="M27">
         <v>3</v>
       </c>
       <c r="N27" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.35">
@@ -2572,37 +2569,37 @@
         <v>52</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="E28" t="s">
         <v>159</v>
       </c>
       <c r="F28" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G28" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="H28">
         <v>1975</v>
       </c>
       <c r="I28" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="J28" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="K28" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="L28" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="M28">
         <v>3</v>
       </c>
       <c r="N28" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.35">
@@ -2622,31 +2619,31 @@
         <v>159</v>
       </c>
       <c r="F29" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G29" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="H29">
         <v>1975</v>
       </c>
       <c r="I29" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="J29" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="K29" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="L29" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="M29">
         <v>3</v>
       </c>
       <c r="N29" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.35">
@@ -2660,37 +2657,37 @@
         <v>54</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="E30" t="s">
         <v>159</v>
       </c>
       <c r="F30" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G30" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="H30">
         <v>1976</v>
       </c>
       <c r="I30" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="J30" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="K30" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="L30" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="M30">
         <v>3</v>
       </c>
       <c r="N30" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.35">
@@ -2704,31 +2701,31 @@
         <v>55</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="E31" t="s">
         <v>159</v>
       </c>
       <c r="F31" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G31" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="H31">
         <v>1992</v>
       </c>
       <c r="I31" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="J31" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="K31" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="L31" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="M31">
         <v>4</v>
@@ -2745,31 +2742,31 @@
         <v>56</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="E32" t="s">
         <v>159</v>
       </c>
       <c r="F32" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G32" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="H32">
         <v>1992</v>
       </c>
       <c r="I32" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="J32" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="K32" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="L32" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="M32">
         <v>4</v>
@@ -2792,25 +2789,25 @@
         <v>159</v>
       </c>
       <c r="F33" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G33" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="H33">
         <v>1992</v>
       </c>
       <c r="I33" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="J33" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="K33" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="L33" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="M33">
         <v>4</v>
@@ -2827,31 +2824,31 @@
         <v>58</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E34" t="s">
         <v>159</v>
       </c>
       <c r="F34" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G34" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="H34">
         <v>1992</v>
       </c>
       <c r="I34" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="J34" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="K34" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="L34" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="M34">
         <v>4</v>
@@ -2868,31 +2865,31 @@
         <v>59</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="E35" t="s">
         <v>159</v>
       </c>
       <c r="F35" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G35" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="H35">
         <v>1992</v>
       </c>
       <c r="I35" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="J35" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="K35" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="L35" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="M35">
         <v>4</v>
@@ -2909,31 +2906,31 @@
         <v>48</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="E36" t="s">
         <v>159</v>
       </c>
       <c r="F36" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G36" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="H36">
         <v>1992</v>
       </c>
       <c r="I36" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="J36" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="K36" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="L36" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="M36">
         <v>4</v>
@@ -2950,31 +2947,31 @@
         <v>60</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="E37" t="s">
         <v>159</v>
       </c>
       <c r="F37" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G37" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="H37">
         <v>1992</v>
       </c>
       <c r="I37" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="J37" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="K37" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="L37" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="M37">
         <v>4</v>
@@ -2991,31 +2988,31 @@
         <v>61</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="E38" t="s">
         <v>159</v>
       </c>
       <c r="F38" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G38" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="H38">
         <v>1992</v>
       </c>
       <c r="I38" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="J38" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="K38" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="L38" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="M38">
         <v>4</v>
@@ -3032,31 +3029,31 @@
         <v>62</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="E39" t="s">
         <v>159</v>
       </c>
       <c r="F39" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G39" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="H39">
         <v>1992</v>
       </c>
       <c r="I39" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="J39" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="K39" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="L39" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="M39">
         <v>4</v>
@@ -3073,31 +3070,31 @@
         <v>53</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="E40" t="s">
         <v>159</v>
       </c>
       <c r="F40" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G40" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="H40">
         <v>1992</v>
       </c>
       <c r="I40" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="J40" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="K40" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="L40" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="M40">
         <v>4</v>
@@ -3114,31 +3111,31 @@
         <v>45</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="E41" t="s">
         <v>159</v>
       </c>
       <c r="F41" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G41" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="H41">
         <v>1992</v>
       </c>
       <c r="I41" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="J41" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="K41" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="L41" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="M41">
         <v>4</v>
@@ -3155,37 +3152,37 @@
         <v>63</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E42" t="s">
         <v>159</v>
       </c>
       <c r="F42" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G42" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="H42">
         <v>1979</v>
       </c>
       <c r="I42" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="J42" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="K42" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="L42" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="M42">
         <v>5</v>
       </c>
       <c r="N42" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.35">
@@ -3199,37 +3196,37 @@
         <v>64</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="E43" t="s">
         <v>159</v>
       </c>
       <c r="F43" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G43" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="H43">
         <v>1979</v>
       </c>
       <c r="I43" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="J43" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="K43" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="L43" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="M43">
         <v>5</v>
       </c>
       <c r="N43" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.35">
@@ -3243,37 +3240,37 @@
         <v>65</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="E44" t="s">
         <v>159</v>
       </c>
       <c r="F44" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G44" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="H44">
         <v>1979</v>
       </c>
       <c r="I44" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="J44" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="K44" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="L44" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="M44">
         <v>5</v>
       </c>
       <c r="N44" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.35">
@@ -3287,37 +3284,37 @@
         <v>66</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E45" t="s">
         <v>159</v>
       </c>
       <c r="F45" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G45" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="H45">
         <v>1979</v>
       </c>
       <c r="I45" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="J45" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="K45" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="L45" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="M45">
         <v>5</v>
       </c>
       <c r="N45" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.35">
@@ -3331,37 +3328,37 @@
         <v>67</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E46" t="s">
         <v>159</v>
       </c>
       <c r="F46" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G46" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="H46">
         <v>1979</v>
       </c>
       <c r="I46" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="J46" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="K46" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="L46" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="M46">
         <v>5</v>
       </c>
       <c r="N46" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.35">
@@ -3375,37 +3372,37 @@
         <v>68</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="E47" t="s">
         <v>159</v>
       </c>
       <c r="F47" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G47" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="H47">
         <v>1979</v>
       </c>
       <c r="I47" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="J47" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="K47" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="L47" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="M47">
         <v>5</v>
       </c>
       <c r="N47" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.35">
@@ -3419,37 +3416,37 @@
         <v>69</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="E48" t="s">
         <v>159</v>
       </c>
       <c r="F48" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G48" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="H48">
         <v>1979</v>
       </c>
       <c r="I48" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="J48" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="K48" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="L48" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="M48">
         <v>5</v>
       </c>
       <c r="N48" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.35">
@@ -3463,37 +3460,37 @@
         <v>70</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="E49" t="s">
         <v>159</v>
       </c>
       <c r="F49" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G49" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="H49">
         <v>1979</v>
       </c>
       <c r="I49" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="J49" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="K49" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="L49" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="M49">
         <v>5</v>
       </c>
       <c r="N49" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.35">
@@ -3507,37 +3504,37 @@
         <v>36</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="E50" t="s">
         <v>159</v>
       </c>
       <c r="F50" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G50" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="H50">
         <v>1979</v>
       </c>
       <c r="I50" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="J50" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="K50" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="L50" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="M50">
         <v>5</v>
       </c>
       <c r="N50" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.35">
@@ -3551,37 +3548,37 @@
         <v>34</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="E51" t="s">
         <v>159</v>
       </c>
       <c r="F51" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G51" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="H51">
         <v>1979</v>
       </c>
       <c r="I51" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="J51" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="K51" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="L51" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="M51">
         <v>5</v>
       </c>
       <c r="N51" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.35">
@@ -3595,37 +3592,37 @@
         <v>66</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="E52" t="s">
         <v>159</v>
       </c>
       <c r="F52" t="s">
-        <v>195</v>
+        <v>316</v>
       </c>
       <c r="G52" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="H52">
         <v>1968</v>
       </c>
       <c r="I52" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="J52" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="K52" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="L52" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="M52">
         <v>6</v>
       </c>
       <c r="N52" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.35">
@@ -3639,37 +3636,37 @@
         <v>71</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E53" t="s">
         <v>159</v>
       </c>
       <c r="F53" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="G53" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="H53">
         <v>1968</v>
       </c>
       <c r="I53" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="J53" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="K53" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="L53" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="M53">
         <v>6</v>
       </c>
       <c r="N53" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.35">
@@ -3683,7 +3680,7 @@
         <v>72</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="E54" t="s">
         <v>159</v>
@@ -3692,28 +3689,28 @@
         <v>25</v>
       </c>
       <c r="G54" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="H54">
         <v>1968</v>
       </c>
       <c r="I54" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="J54" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="K54" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="L54" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="M54">
         <v>6</v>
       </c>
       <c r="N54" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.35">
@@ -3727,7 +3724,7 @@
         <v>73</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="E55" t="s">
         <v>159</v>
@@ -3736,28 +3733,28 @@
         <v>25</v>
       </c>
       <c r="G55" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="H55">
         <v>1968</v>
       </c>
       <c r="I55" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="J55" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="K55" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="L55" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="M55">
         <v>6</v>
       </c>
       <c r="N55" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.35">
@@ -3777,31 +3774,31 @@
         <v>159</v>
       </c>
       <c r="F56" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G56" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="H56">
         <v>1968</v>
       </c>
       <c r="I56" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="J56" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="K56" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="L56" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="M56">
         <v>6</v>
       </c>
       <c r="N56" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.35">
@@ -3815,7 +3812,7 @@
         <v>75</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="E57" t="s">
         <v>159</v>
@@ -3824,28 +3821,28 @@
         <v>25</v>
       </c>
       <c r="G57" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="H57">
         <v>1968</v>
       </c>
       <c r="I57" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="J57" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="K57" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="L57" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="M57">
         <v>6</v>
       </c>
       <c r="N57" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.35">
@@ -3859,37 +3856,37 @@
         <v>76</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="E58" t="s">
         <v>159</v>
       </c>
       <c r="F58" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="G58" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="H58">
         <v>1968</v>
       </c>
       <c r="I58" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="J58" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="K58" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="L58" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="M58">
         <v>6</v>
       </c>
       <c r="N58" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.35">
@@ -3903,37 +3900,37 @@
         <v>77</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="E59" t="s">
         <v>159</v>
       </c>
       <c r="F59" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="G59" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="H59">
         <v>1968</v>
       </c>
       <c r="I59" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="J59" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="K59" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="L59" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="M59">
         <v>6</v>
       </c>
       <c r="N59" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.35">
@@ -3947,37 +3944,37 @@
         <v>78</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="E60" t="s">
         <v>159</v>
       </c>
       <c r="F60" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="G60" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="H60">
         <v>1968</v>
       </c>
       <c r="I60" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="J60" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="K60" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="L60" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="M60">
         <v>6</v>
       </c>
       <c r="N60" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.35">
@@ -3991,7 +3988,7 @@
         <v>79</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E61" t="s">
         <v>159</v>
@@ -4000,28 +3997,28 @@
         <v>25</v>
       </c>
       <c r="G61" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="H61">
         <v>1968</v>
       </c>
       <c r="I61" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="J61" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="K61" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="L61" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="M61">
         <v>6</v>
       </c>
       <c r="N61" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.35">
@@ -4035,37 +4032,37 @@
         <v>80</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="E62" t="s">
         <v>160</v>
       </c>
       <c r="F62" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G62" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="H62">
         <v>1999</v>
       </c>
       <c r="I62" t="s">
+        <v>227</v>
+      </c>
+      <c r="J62" t="s">
         <v>230</v>
       </c>
-      <c r="J62" t="s">
-        <v>233</v>
-      </c>
       <c r="K62" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="L62" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="M62">
         <v>7</v>
       </c>
       <c r="N62" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.35">
@@ -4079,37 +4076,37 @@
         <v>81</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="E63" t="s">
         <v>160</v>
       </c>
       <c r="F63" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="G63" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="H63">
         <v>1999</v>
       </c>
       <c r="I63" t="s">
+        <v>227</v>
+      </c>
+      <c r="J63" t="s">
         <v>230</v>
       </c>
-      <c r="J63" t="s">
-        <v>233</v>
-      </c>
       <c r="K63" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="L63" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="M63">
         <v>7</v>
       </c>
       <c r="N63" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.35">
@@ -4123,37 +4120,37 @@
         <v>20</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="E64" t="s">
         <v>160</v>
       </c>
       <c r="F64" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G64" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="H64">
         <v>1999</v>
       </c>
       <c r="I64" t="s">
+        <v>227</v>
+      </c>
+      <c r="J64" t="s">
         <v>230</v>
       </c>
-      <c r="J64" t="s">
-        <v>233</v>
-      </c>
       <c r="K64" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="L64" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="M64">
         <v>7</v>
       </c>
       <c r="N64" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.35">
@@ -4167,37 +4164,37 @@
         <v>82</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="E65" t="s">
         <v>160</v>
       </c>
       <c r="F65" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G65" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="H65">
         <v>1999</v>
       </c>
       <c r="I65" t="s">
+        <v>227</v>
+      </c>
+      <c r="J65" t="s">
         <v>230</v>
       </c>
-      <c r="J65" t="s">
-        <v>233</v>
-      </c>
       <c r="K65" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="L65" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="M65">
         <v>7</v>
       </c>
       <c r="N65" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.35">
@@ -4211,37 +4208,37 @@
         <v>83</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="E66" t="s">
         <v>160</v>
       </c>
       <c r="F66" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="G66" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="H66">
         <v>1999</v>
       </c>
       <c r="I66" t="s">
+        <v>227</v>
+      </c>
+      <c r="J66" t="s">
         <v>230</v>
       </c>
-      <c r="J66" t="s">
-        <v>233</v>
-      </c>
       <c r="K66" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="L66" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="M66">
         <v>7</v>
       </c>
       <c r="N66" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.35">
@@ -4255,37 +4252,37 @@
         <v>84</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="E67" t="s">
         <v>160</v>
       </c>
       <c r="F67" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="G67" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="H67">
         <v>1999</v>
       </c>
       <c r="I67" t="s">
+        <v>227</v>
+      </c>
+      <c r="J67" t="s">
         <v>230</v>
       </c>
-      <c r="J67" t="s">
-        <v>233</v>
-      </c>
       <c r="K67" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="L67" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="M67">
         <v>7</v>
       </c>
       <c r="N67" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.35">
@@ -4299,37 +4296,37 @@
         <v>85</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="E68" t="s">
         <v>160</v>
       </c>
       <c r="F68" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="G68" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="H68">
         <v>1999</v>
       </c>
       <c r="I68" t="s">
+        <v>227</v>
+      </c>
+      <c r="J68" t="s">
         <v>230</v>
       </c>
-      <c r="J68" t="s">
-        <v>233</v>
-      </c>
       <c r="K68" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="L68" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="M68">
         <v>7</v>
       </c>
       <c r="N68" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.35">
@@ -4343,37 +4340,37 @@
         <v>86</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="E69" t="s">
         <v>160</v>
       </c>
       <c r="F69" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G69" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="H69">
         <v>1999</v>
       </c>
       <c r="I69" t="s">
+        <v>227</v>
+      </c>
+      <c r="J69" t="s">
         <v>230</v>
       </c>
-      <c r="J69" t="s">
-        <v>233</v>
-      </c>
       <c r="K69" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="L69" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="M69">
         <v>7</v>
       </c>
       <c r="N69" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.35">
@@ -4396,28 +4393,28 @@
         <v>25</v>
       </c>
       <c r="G70" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="H70">
         <v>1999</v>
       </c>
       <c r="I70" t="s">
+        <v>227</v>
+      </c>
+      <c r="J70" t="s">
         <v>230</v>
       </c>
-      <c r="J70" t="s">
-        <v>233</v>
-      </c>
       <c r="K70" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="L70" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="M70">
         <v>7</v>
       </c>
       <c r="N70" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.35">
@@ -4437,31 +4434,31 @@
         <v>160</v>
       </c>
       <c r="F71" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G71" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="H71">
         <v>1999</v>
       </c>
       <c r="I71" t="s">
+        <v>227</v>
+      </c>
+      <c r="J71" t="s">
         <v>230</v>
       </c>
-      <c r="J71" t="s">
-        <v>233</v>
-      </c>
       <c r="K71" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="L71" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="M71">
         <v>7</v>
       </c>
       <c r="N71" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.35">
@@ -4475,37 +4472,37 @@
         <v>89</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="E72" t="s">
         <v>160</v>
       </c>
       <c r="F72" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G72" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="H72">
         <v>1999</v>
       </c>
       <c r="I72" t="s">
+        <v>227</v>
+      </c>
+      <c r="J72" t="s">
         <v>230</v>
       </c>
-      <c r="J72" t="s">
-        <v>233</v>
-      </c>
       <c r="K72" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="L72" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="M72">
         <v>7</v>
       </c>
       <c r="N72" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.35">
@@ -4519,37 +4516,37 @@
         <v>90</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="E73" t="s">
         <v>160</v>
       </c>
       <c r="F73" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="G73" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="H73">
         <v>1999</v>
       </c>
       <c r="I73" t="s">
+        <v>227</v>
+      </c>
+      <c r="J73" t="s">
         <v>230</v>
       </c>
-      <c r="J73" t="s">
-        <v>233</v>
-      </c>
       <c r="K73" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="L73" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="M73">
         <v>7</v>
       </c>
       <c r="N73" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.35">
@@ -4563,37 +4560,37 @@
         <v>91</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="E74" t="s">
         <v>160</v>
       </c>
       <c r="F74" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="G74" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="H74">
         <v>1999</v>
       </c>
       <c r="I74" t="s">
+        <v>227</v>
+      </c>
+      <c r="J74" t="s">
         <v>230</v>
       </c>
-      <c r="J74" t="s">
-        <v>233</v>
-      </c>
       <c r="K74" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="L74" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="M74">
         <v>7</v>
       </c>
       <c r="N74" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.35">
@@ -4607,37 +4604,37 @@
         <v>92</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="E75" t="s">
         <v>160</v>
       </c>
       <c r="F75" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G75" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="H75">
         <v>1999</v>
       </c>
       <c r="I75" t="s">
+        <v>227</v>
+      </c>
+      <c r="J75" t="s">
         <v>230</v>
       </c>
-      <c r="J75" t="s">
-        <v>233</v>
-      </c>
       <c r="K75" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="L75" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="M75">
         <v>7</v>
       </c>
       <c r="N75" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.35">
@@ -4651,37 +4648,37 @@
         <v>93</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="E76" t="s">
         <v>160</v>
       </c>
       <c r="F76" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="G76" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="H76">
         <v>1999</v>
       </c>
       <c r="I76" t="s">
+        <v>227</v>
+      </c>
+      <c r="J76" t="s">
         <v>230</v>
       </c>
-      <c r="J76" t="s">
-        <v>233</v>
-      </c>
       <c r="K76" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="L76" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="M76">
         <v>7</v>
       </c>
       <c r="N76" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.35">
@@ -4695,37 +4692,37 @@
         <v>94</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="E77" t="s">
         <v>160</v>
       </c>
       <c r="F77" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="G77" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="H77">
         <v>1999</v>
       </c>
       <c r="I77" t="s">
+        <v>227</v>
+      </c>
+      <c r="J77" t="s">
         <v>230</v>
       </c>
-      <c r="J77" t="s">
-        <v>233</v>
-      </c>
       <c r="K77" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="L77" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="M77">
         <v>7</v>
       </c>
       <c r="N77" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.35">
@@ -4739,7 +4736,7 @@
         <v>95</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="E78" t="s">
         <v>160</v>
@@ -4748,28 +4745,28 @@
         <v>25</v>
       </c>
       <c r="G78" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="H78">
         <v>1999</v>
       </c>
       <c r="I78" t="s">
+        <v>227</v>
+      </c>
+      <c r="J78" t="s">
         <v>230</v>
       </c>
-      <c r="J78" t="s">
-        <v>233</v>
-      </c>
       <c r="K78" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="L78" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="M78">
         <v>7</v>
       </c>
       <c r="N78" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.35">
@@ -4783,37 +4780,37 @@
         <v>96</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="E79" t="s">
         <v>160</v>
       </c>
       <c r="F79" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="G79" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="H79">
         <v>1999</v>
       </c>
       <c r="I79" t="s">
+        <v>227</v>
+      </c>
+      <c r="J79" t="s">
         <v>230</v>
       </c>
-      <c r="J79" t="s">
-        <v>233</v>
-      </c>
       <c r="K79" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="L79" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="M79">
         <v>7</v>
       </c>
       <c r="N79" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.35">
@@ -4833,31 +4830,31 @@
         <v>26</v>
       </c>
       <c r="F80" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G80" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="H80">
         <v>1980</v>
       </c>
       <c r="I80" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="J80" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="K80" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="L80" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="M80">
         <v>8</v>
       </c>
       <c r="N80" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.35">
@@ -4877,31 +4874,31 @@
         <v>26</v>
       </c>
       <c r="F81" t="s">
-        <v>210</v>
+        <v>316</v>
       </c>
       <c r="G81" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="H81">
         <v>1980</v>
       </c>
       <c r="I81" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="J81" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="K81" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="L81" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="M81">
         <v>8</v>
       </c>
       <c r="N81" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.35">
@@ -4921,31 +4918,31 @@
         <v>26</v>
       </c>
       <c r="F82" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="G82" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="H82">
         <v>1980</v>
       </c>
       <c r="I82" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="J82" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="K82" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="L82" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="M82">
         <v>8</v>
       </c>
       <c r="N82" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.35">
@@ -4965,31 +4962,31 @@
         <v>26</v>
       </c>
       <c r="F83" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="G83" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="H83">
         <v>1980</v>
       </c>
       <c r="I83" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="J83" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="K83" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="L83" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="M83">
         <v>8</v>
       </c>
       <c r="N83" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.35">
@@ -5009,31 +5006,31 @@
         <v>26</v>
       </c>
       <c r="F84" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="G84" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="H84">
         <v>1980</v>
       </c>
       <c r="I84" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="J84" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="K84" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="L84" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="M84">
         <v>8</v>
       </c>
       <c r="N84" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.35">
@@ -5053,31 +5050,31 @@
         <v>26</v>
       </c>
       <c r="F85" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="G85" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="H85">
         <v>1980</v>
       </c>
       <c r="I85" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="J85" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="K85" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="L85" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="M85">
         <v>8</v>
       </c>
       <c r="N85" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.35">
@@ -5097,31 +5094,31 @@
         <v>26</v>
       </c>
       <c r="F86" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="G86" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="H86">
         <v>1980</v>
       </c>
       <c r="I86" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="J86" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="K86" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="L86" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="M86">
         <v>8</v>
       </c>
       <c r="N86" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.35">
@@ -5141,31 +5138,31 @@
         <v>26</v>
       </c>
       <c r="F87" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="G87" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="H87">
         <v>1980</v>
       </c>
       <c r="I87" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="J87" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="K87" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="L87" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="M87">
         <v>8</v>
       </c>
       <c r="N87" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.35">
@@ -5179,31 +5176,31 @@
         <v>101</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="E88" t="s">
         <v>161</v>
       </c>
       <c r="F88" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="G88" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="H88">
         <v>2000</v>
       </c>
       <c r="I88" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="J88" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="K88" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="L88" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="M88">
         <v>9</v>
@@ -5220,31 +5217,31 @@
         <v>105</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="E89" t="s">
         <v>162</v>
       </c>
       <c r="F89" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="G89" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="H89">
         <v>2000</v>
       </c>
       <c r="I89" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="J89" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="K89" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="L89" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="M89">
         <v>9</v>
@@ -5261,31 +5258,31 @@
         <v>106</v>
       </c>
       <c r="D90" s="3" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="E90" t="s">
         <v>161</v>
       </c>
       <c r="F90" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="G90" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="H90">
         <v>2000</v>
       </c>
       <c r="I90" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="J90" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="K90" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="L90" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="M90">
         <v>9</v>
@@ -5302,31 +5299,31 @@
         <v>107</v>
       </c>
       <c r="D91" s="3" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="E91" t="s">
         <v>163</v>
       </c>
       <c r="F91" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="G91" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="H91">
         <v>2000</v>
       </c>
       <c r="I91" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="J91" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="K91" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="L91" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="M91">
         <v>9</v>
@@ -5343,31 +5340,31 @@
         <v>108</v>
       </c>
       <c r="D92" s="3" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="E92" t="s">
         <v>163</v>
       </c>
       <c r="F92" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="G92" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="H92">
         <v>2000</v>
       </c>
       <c r="I92" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="J92" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="K92" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="L92" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="M92">
         <v>9</v>
@@ -5384,31 +5381,31 @@
         <v>109</v>
       </c>
       <c r="D93" s="3" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="E93" t="s">
         <v>163</v>
       </c>
       <c r="F93" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="G93" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="H93">
         <v>2000</v>
       </c>
       <c r="I93" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="J93" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="K93" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="L93" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="M93">
         <v>9</v>
@@ -5425,31 +5422,31 @@
         <v>110</v>
       </c>
       <c r="D94" s="3" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="E94" t="s">
         <v>163</v>
       </c>
       <c r="F94" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="G94" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="H94">
         <v>2000</v>
       </c>
       <c r="I94" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="J94" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="K94" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="L94" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="M94">
         <v>9</v>
@@ -5466,31 +5463,31 @@
         <v>104</v>
       </c>
       <c r="D95" s="3" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="E95" t="s">
         <v>161</v>
       </c>
       <c r="F95" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="G95" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="H95">
         <v>2000</v>
       </c>
       <c r="I95" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="J95" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="K95" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="L95" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="M95">
         <v>9</v>
@@ -5507,31 +5504,31 @@
         <v>111</v>
       </c>
       <c r="D96" s="3" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="E96" t="s">
         <v>161</v>
       </c>
       <c r="F96" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="G96" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="H96">
         <v>2000</v>
       </c>
       <c r="I96" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="J96" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="K96" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="L96" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="M96">
         <v>9</v>
@@ -5554,25 +5551,25 @@
         <v>161</v>
       </c>
       <c r="F97" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="G97" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="H97">
         <v>2000</v>
       </c>
       <c r="I97" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="J97" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="K97" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="L97" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="M97">
         <v>9</v>
@@ -5589,31 +5586,31 @@
         <v>113</v>
       </c>
       <c r="D98" s="3" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="E98" t="s">
         <v>161</v>
       </c>
       <c r="F98" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="G98" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="H98">
         <v>2000</v>
       </c>
       <c r="I98" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="J98" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="K98" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="L98" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="M98">
         <v>9</v>
@@ -5630,31 +5627,31 @@
         <v>114</v>
       </c>
       <c r="D99" s="3" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="E99" t="s">
         <v>161</v>
       </c>
       <c r="F99" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="G99" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="H99">
         <v>2000</v>
       </c>
       <c r="I99" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="J99" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="K99" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="L99" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="M99">
         <v>9</v>
@@ -5671,31 +5668,31 @@
         <v>115</v>
       </c>
       <c r="D100" s="3" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="E100" t="s">
         <v>161</v>
       </c>
       <c r="F100" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="G100" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="H100">
         <v>2000</v>
       </c>
       <c r="I100" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="J100" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="K100" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="L100" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="M100">
         <v>9</v>
@@ -5712,31 +5709,31 @@
         <v>116</v>
       </c>
       <c r="D101" s="3" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E101" t="s">
         <v>161</v>
       </c>
       <c r="F101" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="G101" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="H101">
         <v>2000</v>
       </c>
       <c r="I101" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="J101" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="K101" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="L101" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="M101">
         <v>9</v>
@@ -5753,31 +5750,31 @@
         <v>117</v>
       </c>
       <c r="D102" s="3" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E102" t="s">
         <v>161</v>
       </c>
       <c r="F102" t="s">
-        <v>195</v>
+        <v>316</v>
       </c>
       <c r="G102" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="H102">
         <v>2000</v>
       </c>
       <c r="I102" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="J102" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="K102" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="L102" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="M102">
         <v>9</v>
@@ -5794,7 +5791,7 @@
         <v>118</v>
       </c>
       <c r="D103" s="3" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="E103" t="s">
         <v>164</v>
@@ -5803,28 +5800,28 @@
         <v>164</v>
       </c>
       <c r="G103" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="H103">
         <v>1972</v>
       </c>
       <c r="I103" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="J103" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="K103" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="L103" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="M103">
         <v>10</v>
       </c>
       <c r="N103" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
     </row>
     <row r="104" spans="1:14" x14ac:dyDescent="0.35">
@@ -5844,31 +5841,31 @@
         <v>164</v>
       </c>
       <c r="F104" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G104" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="H104">
         <v>1972</v>
       </c>
       <c r="I104" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="J104" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="K104" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="L104" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="M104">
         <v>10</v>
       </c>
       <c r="N104" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
     </row>
     <row r="105" spans="1:14" x14ac:dyDescent="0.35">
@@ -5882,37 +5879,37 @@
         <v>120</v>
       </c>
       <c r="D105" s="3" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="E105" t="s">
         <v>164</v>
       </c>
       <c r="F105" t="s">
-        <v>195</v>
+        <v>316</v>
       </c>
       <c r="G105" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="H105">
         <v>1972</v>
       </c>
       <c r="I105" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="J105" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="K105" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="L105" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="M105">
         <v>10</v>
       </c>
       <c r="N105" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
     </row>
     <row r="106" spans="1:14" x14ac:dyDescent="0.35">
@@ -5926,7 +5923,7 @@
         <v>121</v>
       </c>
       <c r="D106" s="3" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="E106" t="s">
         <v>164</v>
@@ -5935,28 +5932,28 @@
         <v>164</v>
       </c>
       <c r="G106" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="H106">
         <v>1972</v>
       </c>
       <c r="I106" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="J106" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="K106" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="L106" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="M106">
         <v>10</v>
       </c>
       <c r="N106" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
     </row>
     <row r="107" spans="1:14" x14ac:dyDescent="0.35">
@@ -5970,37 +5967,37 @@
         <v>122</v>
       </c>
       <c r="D107" s="3" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="E107" t="s">
         <v>164</v>
       </c>
       <c r="F107" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="G107" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="H107">
         <v>1972</v>
       </c>
       <c r="I107" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="J107" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="K107" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="L107" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="M107">
         <v>10</v>
       </c>
       <c r="N107" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
     </row>
     <row r="108" spans="1:14" x14ac:dyDescent="0.35">
@@ -6014,37 +6011,37 @@
         <v>123</v>
       </c>
       <c r="D108" s="3" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="E108" t="s">
         <v>164</v>
       </c>
       <c r="F108" t="s">
-        <v>195</v>
+        <v>316</v>
       </c>
       <c r="G108" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="H108">
         <v>1972</v>
       </c>
       <c r="I108" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="J108" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="K108" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="L108" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="M108">
         <v>10</v>
       </c>
       <c r="N108" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
     </row>
     <row r="109" spans="1:14" x14ac:dyDescent="0.35">
@@ -6058,7 +6055,7 @@
         <v>124</v>
       </c>
       <c r="D109" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E109" t="s">
         <v>164</v>
@@ -6067,28 +6064,28 @@
         <v>164</v>
       </c>
       <c r="G109" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="H109">
         <v>1972</v>
       </c>
       <c r="I109" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="J109" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="K109" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="L109" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="M109">
         <v>10</v>
       </c>
       <c r="N109" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
     </row>
     <row r="110" spans="1:14" x14ac:dyDescent="0.35">
@@ -6111,28 +6108,28 @@
         <v>164</v>
       </c>
       <c r="G110" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="H110">
         <v>1972</v>
       </c>
       <c r="I110" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="J110" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="K110" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="L110" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="M110">
         <v>10</v>
       </c>
       <c r="N110" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
     </row>
     <row r="111" spans="1:14" x14ac:dyDescent="0.35">
@@ -6152,31 +6149,31 @@
         <v>165</v>
       </c>
       <c r="F111" t="s">
-        <v>195</v>
+        <v>316</v>
       </c>
       <c r="G111" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="H111">
         <v>1972</v>
       </c>
       <c r="I111" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="J111" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="K111" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="L111" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="M111">
         <v>11</v>
       </c>
       <c r="N111" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="112" spans="1:14" x14ac:dyDescent="0.35">
@@ -6196,31 +6193,31 @@
         <v>165</v>
       </c>
       <c r="F112" t="s">
-        <v>195</v>
+        <v>316</v>
       </c>
       <c r="G112" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="H112">
         <v>1972</v>
       </c>
       <c r="I112" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="J112" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="K112" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="L112" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="M112">
         <v>11</v>
       </c>
       <c r="N112" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="113" spans="1:14" x14ac:dyDescent="0.35">
@@ -6240,31 +6237,31 @@
         <v>165</v>
       </c>
       <c r="F113" t="s">
-        <v>195</v>
+        <v>316</v>
       </c>
       <c r="G113" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="H113">
         <v>1972</v>
       </c>
       <c r="I113" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="J113" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="K113" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="L113" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="M113">
         <v>11</v>
       </c>
       <c r="N113" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="114" spans="1:14" x14ac:dyDescent="0.35">
@@ -6284,31 +6281,31 @@
         <v>165</v>
       </c>
       <c r="F114" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="G114" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="H114">
         <v>1972</v>
       </c>
       <c r="I114" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="J114" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="K114" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="L114" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="M114">
         <v>11</v>
       </c>
       <c r="N114" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="115" spans="1:14" x14ac:dyDescent="0.35">
@@ -6328,31 +6325,31 @@
         <v>165</v>
       </c>
       <c r="F115" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="G115" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="H115">
         <v>1972</v>
       </c>
       <c r="I115" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="J115" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="K115" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="L115" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="M115">
         <v>11</v>
       </c>
       <c r="N115" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="116" spans="1:14" x14ac:dyDescent="0.35">
@@ -6372,31 +6369,31 @@
         <v>165</v>
       </c>
       <c r="F116" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="G116" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="H116">
         <v>1972</v>
       </c>
       <c r="I116" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="J116" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="K116" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="L116" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="M116">
         <v>11</v>
       </c>
       <c r="N116" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="117" spans="1:14" x14ac:dyDescent="0.35">
@@ -6416,31 +6413,31 @@
         <v>165</v>
       </c>
       <c r="F117" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="G117" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="H117">
         <v>1972</v>
       </c>
       <c r="I117" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="J117" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="K117" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="L117" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="M117">
         <v>11</v>
       </c>
       <c r="N117" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="118" spans="1:14" x14ac:dyDescent="0.35">
@@ -6460,31 +6457,31 @@
         <v>165</v>
       </c>
       <c r="F118" t="s">
-        <v>195</v>
+        <v>316</v>
       </c>
       <c r="G118" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="H118">
         <v>1972</v>
       </c>
       <c r="I118" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="J118" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="K118" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="L118" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="M118">
         <v>11</v>
       </c>
       <c r="N118" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
   </sheetData>

--- a/catalogo_musical.xlsx
+++ b/catalogo_musical.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9d20daa13162c28c/Documentos/Catalogo Musical/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="136" documentId="8_{44AE8B72-C6C1-4264-BF20-89D79CF84A16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2E60366B-E872-410B-8224-13B6D3E38820}"/>
+  <xr:revisionPtr revIDLastSave="137" documentId="8_{44AE8B72-C6C1-4264-BF20-89D79CF84A16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6551A381-484F-4370-9795-68403745EA77}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,9 +34,6 @@
     <t>Duracion</t>
   </si>
   <si>
-    <t>Orquesta / Solista</t>
-  </si>
-  <si>
     <t>Compositor</t>
   </si>
   <si>
@@ -973,6 +970,9 @@
   </si>
   <si>
     <t>D.R. Composición (Derechos Reservados)</t>
+  </si>
+  <si>
+    <t>Orquesta</t>
   </si>
 </sst>
 </file>
@@ -1353,7 +1353,7 @@
   <dimension ref="A1:N118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F108" sqref="F108"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1384,1348 +1384,1348 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H2">
         <v>1972</v>
       </c>
       <c r="I2" t="s">
+        <v>226</v>
+      </c>
+      <c r="J2" t="s">
         <v>227</v>
       </c>
-      <c r="J2" t="s">
-        <v>228</v>
-      </c>
       <c r="K2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="L2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="M2">
         <v>1</v>
       </c>
       <c r="N2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H3">
         <v>1972</v>
       </c>
       <c r="I3" t="s">
+        <v>226</v>
+      </c>
+      <c r="J3" t="s">
         <v>227</v>
       </c>
-      <c r="J3" t="s">
-        <v>228</v>
-      </c>
       <c r="K3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="L3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="M3">
         <v>1</v>
       </c>
       <c r="N3" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H4">
         <v>1972</v>
       </c>
       <c r="I4" t="s">
+        <v>226</v>
+      </c>
+      <c r="J4" t="s">
         <v>227</v>
       </c>
-      <c r="J4" t="s">
-        <v>228</v>
-      </c>
       <c r="K4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="L4" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="M4">
         <v>1</v>
       </c>
       <c r="N4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F5" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="G5" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H5">
         <v>1972</v>
       </c>
       <c r="I5" t="s">
+        <v>226</v>
+      </c>
+      <c r="J5" t="s">
         <v>227</v>
       </c>
-      <c r="J5" t="s">
-        <v>228</v>
-      </c>
       <c r="K5" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="L5" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="M5">
         <v>1</v>
       </c>
       <c r="N5" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E6" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F6" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G6" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H6">
         <v>1972</v>
       </c>
       <c r="I6" t="s">
+        <v>226</v>
+      </c>
+      <c r="J6" t="s">
         <v>227</v>
       </c>
-      <c r="J6" t="s">
-        <v>228</v>
-      </c>
       <c r="K6" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="L6" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="M6">
         <v>1</v>
       </c>
       <c r="N6" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G7" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H7">
         <v>1972</v>
       </c>
       <c r="I7" t="s">
+        <v>226</v>
+      </c>
+      <c r="J7" t="s">
         <v>227</v>
       </c>
-      <c r="J7" t="s">
-        <v>228</v>
-      </c>
       <c r="K7" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="L7" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="M7">
         <v>1</v>
       </c>
       <c r="N7" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F8" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G8" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H8">
         <v>1972</v>
       </c>
       <c r="I8" t="s">
+        <v>226</v>
+      </c>
+      <c r="J8" t="s">
         <v>227</v>
       </c>
-      <c r="J8" t="s">
-        <v>228</v>
-      </c>
       <c r="K8" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="L8" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="M8">
         <v>1</v>
       </c>
       <c r="N8" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E9" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F9" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G9" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H9">
         <v>1972</v>
       </c>
       <c r="I9" t="s">
+        <v>226</v>
+      </c>
+      <c r="J9" t="s">
         <v>227</v>
       </c>
-      <c r="J9" t="s">
-        <v>228</v>
-      </c>
       <c r="K9" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="L9" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="M9">
         <v>1</v>
       </c>
       <c r="N9" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E10" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F10" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G10" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H10">
         <v>1972</v>
       </c>
       <c r="I10" t="s">
+        <v>226</v>
+      </c>
+      <c r="J10" t="s">
         <v>227</v>
       </c>
-      <c r="J10" t="s">
-        <v>228</v>
-      </c>
       <c r="K10" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="L10" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="M10">
         <v>1</v>
       </c>
       <c r="N10" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E11" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F11" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G11" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H11">
         <v>1972</v>
       </c>
       <c r="I11" t="s">
+        <v>226</v>
+      </c>
+      <c r="J11" t="s">
         <v>227</v>
       </c>
-      <c r="J11" t="s">
-        <v>228</v>
-      </c>
       <c r="K11" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="L11" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="M11">
         <v>1</v>
       </c>
       <c r="N11" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F12" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G12" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H12">
         <v>1975</v>
       </c>
       <c r="I12" t="s">
+        <v>226</v>
+      </c>
+      <c r="J12" t="s">
         <v>227</v>
       </c>
-      <c r="J12" t="s">
-        <v>228</v>
-      </c>
       <c r="K12" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="L12" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="M12">
         <v>2</v>
       </c>
       <c r="N12" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F13" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G13" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H13">
         <v>1975</v>
       </c>
       <c r="I13" t="s">
+        <v>226</v>
+      </c>
+      <c r="J13" t="s">
         <v>227</v>
       </c>
-      <c r="J13" t="s">
-        <v>228</v>
-      </c>
       <c r="K13" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="L13" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="M13">
         <v>2</v>
       </c>
       <c r="N13" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F14" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G14" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H14">
         <v>1975</v>
       </c>
       <c r="I14" t="s">
+        <v>226</v>
+      </c>
+      <c r="J14" t="s">
         <v>227</v>
       </c>
-      <c r="J14" t="s">
-        <v>228</v>
-      </c>
       <c r="K14" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="L14" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="M14">
         <v>2</v>
       </c>
       <c r="N14" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F15" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G15" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H15">
         <v>1975</v>
       </c>
       <c r="I15" t="s">
+        <v>226</v>
+      </c>
+      <c r="J15" t="s">
         <v>227</v>
       </c>
-      <c r="J15" t="s">
-        <v>228</v>
-      </c>
       <c r="K15" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="L15" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="M15">
         <v>2</v>
       </c>
       <c r="N15" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F16" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G16" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H16">
         <v>1975</v>
       </c>
       <c r="I16" t="s">
+        <v>226</v>
+      </c>
+      <c r="J16" t="s">
         <v>227</v>
       </c>
-      <c r="J16" t="s">
-        <v>228</v>
-      </c>
       <c r="K16" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="L16" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="M16">
         <v>2</v>
       </c>
       <c r="N16" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F17" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G17" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H17">
         <v>1975</v>
       </c>
       <c r="I17" t="s">
+        <v>226</v>
+      </c>
+      <c r="J17" t="s">
         <v>227</v>
       </c>
-      <c r="J17" t="s">
-        <v>228</v>
-      </c>
       <c r="K17" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="L17" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="M17">
         <v>2</v>
       </c>
       <c r="N17" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F18" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G18" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H18">
         <v>1975</v>
       </c>
       <c r="I18" t="s">
+        <v>226</v>
+      </c>
+      <c r="J18" t="s">
         <v>227</v>
       </c>
-      <c r="J18" t="s">
-        <v>228</v>
-      </c>
       <c r="K18" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="L18" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="M18">
         <v>2</v>
       </c>
       <c r="N18" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F19" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G19" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H19">
         <v>1975</v>
       </c>
       <c r="I19" t="s">
+        <v>226</v>
+      </c>
+      <c r="J19" t="s">
         <v>227</v>
       </c>
-      <c r="J19" t="s">
-        <v>228</v>
-      </c>
       <c r="K19" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="L19" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="M19">
         <v>2</v>
       </c>
       <c r="N19" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E20" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F20" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G20" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H20">
         <v>1975</v>
       </c>
       <c r="I20" t="s">
+        <v>226</v>
+      </c>
+      <c r="J20" t="s">
         <v>227</v>
       </c>
-      <c r="J20" t="s">
-        <v>228</v>
-      </c>
       <c r="K20" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="L20" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="M20">
         <v>3</v>
       </c>
       <c r="N20" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C21" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E21" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G21" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H21">
         <v>1975</v>
       </c>
       <c r="I21" t="s">
+        <v>226</v>
+      </c>
+      <c r="J21" t="s">
         <v>227</v>
       </c>
-      <c r="J21" t="s">
-        <v>228</v>
-      </c>
       <c r="K21" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="L21" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="M21">
         <v>3</v>
       </c>
       <c r="N21" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E22" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F22" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G22" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H22">
         <v>1975</v>
       </c>
       <c r="I22" t="s">
+        <v>226</v>
+      </c>
+      <c r="J22" t="s">
         <v>227</v>
       </c>
-      <c r="J22" t="s">
-        <v>228</v>
-      </c>
       <c r="K22" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="L22" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="M22">
         <v>3</v>
       </c>
       <c r="N22" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E23" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F23" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G23" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H23">
         <v>1975</v>
       </c>
       <c r="I23" t="s">
+        <v>226</v>
+      </c>
+      <c r="J23" t="s">
         <v>227</v>
       </c>
-      <c r="J23" t="s">
-        <v>228</v>
-      </c>
       <c r="K23" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="L23" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="M23">
         <v>3</v>
       </c>
       <c r="N23" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C24" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E24" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F24" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G24" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H24">
         <v>1975</v>
       </c>
       <c r="I24" t="s">
+        <v>226</v>
+      </c>
+      <c r="J24" t="s">
         <v>227</v>
       </c>
-      <c r="J24" t="s">
-        <v>228</v>
-      </c>
       <c r="K24" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="L24" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="M24">
         <v>3</v>
       </c>
       <c r="N24" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C25" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E25" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F25" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G25" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H25">
         <v>1975</v>
       </c>
       <c r="I25" t="s">
+        <v>226</v>
+      </c>
+      <c r="J25" t="s">
         <v>227</v>
       </c>
-      <c r="J25" t="s">
-        <v>228</v>
-      </c>
       <c r="K25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="L25" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="M25">
         <v>3</v>
       </c>
       <c r="N25" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B26" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C26" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E26" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F26" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G26" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H26">
         <v>1975</v>
       </c>
       <c r="I26" t="s">
+        <v>226</v>
+      </c>
+      <c r="J26" t="s">
         <v>227</v>
       </c>
-      <c r="J26" t="s">
-        <v>228</v>
-      </c>
       <c r="K26" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="L26" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="M26">
         <v>3</v>
       </c>
       <c r="N26" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C27" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E27" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F27" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G27" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H27">
         <v>1975</v>
       </c>
       <c r="I27" t="s">
+        <v>226</v>
+      </c>
+      <c r="J27" t="s">
         <v>227</v>
       </c>
-      <c r="J27" t="s">
-        <v>228</v>
-      </c>
       <c r="K27" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="L27" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="M27">
         <v>3</v>
       </c>
       <c r="N27" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B28" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C28" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E28" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F28" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G28" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H28">
         <v>1975</v>
       </c>
       <c r="I28" t="s">
+        <v>226</v>
+      </c>
+      <c r="J28" t="s">
         <v>227</v>
       </c>
-      <c r="J28" t="s">
-        <v>228</v>
-      </c>
       <c r="K28" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="L28" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="M28">
         <v>3</v>
       </c>
       <c r="N28" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B29" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C29" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E29" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F29" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G29" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H29">
         <v>1975</v>
       </c>
       <c r="I29" t="s">
+        <v>226</v>
+      </c>
+      <c r="J29" t="s">
         <v>227</v>
       </c>
-      <c r="J29" t="s">
-        <v>228</v>
-      </c>
       <c r="K29" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="L29" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="M29">
         <v>3</v>
       </c>
       <c r="N29" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B30" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C30" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E30" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F30" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G30" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H30">
         <v>1976</v>
       </c>
       <c r="I30" t="s">
+        <v>226</v>
+      </c>
+      <c r="J30" t="s">
         <v>227</v>
       </c>
-      <c r="J30" t="s">
-        <v>228</v>
-      </c>
       <c r="K30" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="L30" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="M30">
         <v>3</v>
       </c>
       <c r="N30" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B31" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C31" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E31" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F31" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G31" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H31">
         <v>1992</v>
       </c>
       <c r="I31" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="J31" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="K31" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="L31" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="M31">
         <v>4</v>
@@ -2733,40 +2733,40 @@
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B32" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C32" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E32" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F32" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G32" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H32">
         <v>1992</v>
       </c>
       <c r="I32" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="J32" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="K32" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="L32" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="M32">
         <v>4</v>
@@ -2774,40 +2774,40 @@
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B33" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C33" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E33" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F33" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G33" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H33">
         <v>1992</v>
       </c>
       <c r="I33" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="J33" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="K33" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="L33" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="M33">
         <v>4</v>
@@ -2815,40 +2815,40 @@
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B34" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C34" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E34" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F34" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G34" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H34">
         <v>1992</v>
       </c>
       <c r="I34" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="J34" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="K34" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="L34" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="M34">
         <v>4</v>
@@ -2856,40 +2856,40 @@
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B35" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C35" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E35" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F35" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G35" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H35">
         <v>1992</v>
       </c>
       <c r="I35" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="J35" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="K35" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="L35" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="M35">
         <v>4</v>
@@ -2897,40 +2897,40 @@
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B36" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C36" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E36" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F36" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G36" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H36">
         <v>1992</v>
       </c>
       <c r="I36" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="J36" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="K36" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="L36" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="M36">
         <v>4</v>
@@ -2938,40 +2938,40 @@
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B37" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C37" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E37" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F37" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G37" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H37">
         <v>1992</v>
       </c>
       <c r="I37" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="J37" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="K37" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="L37" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="M37">
         <v>4</v>
@@ -2979,40 +2979,40 @@
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B38" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C38" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E38" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F38" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G38" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H38">
         <v>1992</v>
       </c>
       <c r="I38" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="J38" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="K38" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="L38" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="M38">
         <v>4</v>
@@ -3020,40 +3020,40 @@
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B39" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C39" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E39" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F39" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G39" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H39">
         <v>1992</v>
       </c>
       <c r="I39" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="J39" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="K39" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="L39" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="M39">
         <v>4</v>
@@ -3061,40 +3061,40 @@
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B40" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C40" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E40" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F40" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G40" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H40">
         <v>1992</v>
       </c>
       <c r="I40" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="J40" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="K40" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="L40" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="M40">
         <v>4</v>
@@ -3102,40 +3102,40 @@
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B41" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C41" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E41" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F41" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G41" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H41">
         <v>1992</v>
       </c>
       <c r="I41" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="J41" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="K41" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="L41" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="M41">
         <v>4</v>
@@ -3143,2064 +3143,2064 @@
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B42" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C42" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E42" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F42" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G42" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H42">
         <v>1979</v>
       </c>
       <c r="I42" t="s">
+        <v>226</v>
+      </c>
+      <c r="J42" t="s">
         <v>227</v>
       </c>
-      <c r="J42" t="s">
-        <v>228</v>
-      </c>
       <c r="K42" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="L42" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="M42">
         <v>5</v>
       </c>
       <c r="N42" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B43" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C43" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E43" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F43" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G43" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H43">
         <v>1979</v>
       </c>
       <c r="I43" t="s">
+        <v>226</v>
+      </c>
+      <c r="J43" t="s">
         <v>227</v>
       </c>
-      <c r="J43" t="s">
-        <v>228</v>
-      </c>
       <c r="K43" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="L43" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="M43">
         <v>5</v>
       </c>
       <c r="N43" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B44" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C44" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E44" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F44" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G44" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H44">
         <v>1979</v>
       </c>
       <c r="I44" t="s">
+        <v>226</v>
+      </c>
+      <c r="J44" t="s">
         <v>227</v>
       </c>
-      <c r="J44" t="s">
-        <v>228</v>
-      </c>
       <c r="K44" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="L44" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="M44">
         <v>5</v>
       </c>
       <c r="N44" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B45" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C45" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E45" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F45" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G45" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H45">
         <v>1979</v>
       </c>
       <c r="I45" t="s">
+        <v>226</v>
+      </c>
+      <c r="J45" t="s">
         <v>227</v>
       </c>
-      <c r="J45" t="s">
-        <v>228</v>
-      </c>
       <c r="K45" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="L45" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="M45">
         <v>5</v>
       </c>
       <c r="N45" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B46" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C46" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E46" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F46" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G46" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H46">
         <v>1979</v>
       </c>
       <c r="I46" t="s">
+        <v>226</v>
+      </c>
+      <c r="J46" t="s">
         <v>227</v>
       </c>
-      <c r="J46" t="s">
-        <v>228</v>
-      </c>
       <c r="K46" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="L46" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="M46">
         <v>5</v>
       </c>
       <c r="N46" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B47" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C47" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E47" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F47" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G47" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H47">
         <v>1979</v>
       </c>
       <c r="I47" t="s">
+        <v>226</v>
+      </c>
+      <c r="J47" t="s">
         <v>227</v>
       </c>
-      <c r="J47" t="s">
-        <v>228</v>
-      </c>
       <c r="K47" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="L47" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="M47">
         <v>5</v>
       </c>
       <c r="N47" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B48" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C48" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E48" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F48" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G48" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H48">
         <v>1979</v>
       </c>
       <c r="I48" t="s">
+        <v>226</v>
+      </c>
+      <c r="J48" t="s">
         <v>227</v>
       </c>
-      <c r="J48" t="s">
-        <v>228</v>
-      </c>
       <c r="K48" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="L48" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="M48">
         <v>5</v>
       </c>
       <c r="N48" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B49" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C49" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E49" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F49" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G49" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H49">
         <v>1979</v>
       </c>
       <c r="I49" t="s">
+        <v>226</v>
+      </c>
+      <c r="J49" t="s">
         <v>227</v>
       </c>
-      <c r="J49" t="s">
-        <v>228</v>
-      </c>
       <c r="K49" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="L49" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="M49">
         <v>5</v>
       </c>
       <c r="N49" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B50" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C50" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E50" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F50" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G50" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H50">
         <v>1979</v>
       </c>
       <c r="I50" t="s">
+        <v>226</v>
+      </c>
+      <c r="J50" t="s">
         <v>227</v>
       </c>
-      <c r="J50" t="s">
-        <v>228</v>
-      </c>
       <c r="K50" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="L50" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="M50">
         <v>5</v>
       </c>
       <c r="N50" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B51" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C51" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E51" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F51" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G51" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H51">
         <v>1979</v>
       </c>
       <c r="I51" t="s">
+        <v>226</v>
+      </c>
+      <c r="J51" t="s">
         <v>227</v>
       </c>
-      <c r="J51" t="s">
-        <v>228</v>
-      </c>
       <c r="K51" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="L51" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="M51">
         <v>5</v>
       </c>
       <c r="N51" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B52" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C52" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E52" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F52" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="G52" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H52">
         <v>1968</v>
       </c>
       <c r="I52" t="s">
+        <v>226</v>
+      </c>
+      <c r="J52" t="s">
         <v>227</v>
       </c>
-      <c r="J52" t="s">
-        <v>228</v>
-      </c>
       <c r="K52" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="L52" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="M52">
         <v>6</v>
       </c>
       <c r="N52" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B53" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C53" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E53" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F53" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G53" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H53">
         <v>1968</v>
       </c>
       <c r="I53" t="s">
+        <v>226</v>
+      </c>
+      <c r="J53" t="s">
         <v>227</v>
       </c>
-      <c r="J53" t="s">
-        <v>228</v>
-      </c>
       <c r="K53" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="L53" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="M53">
         <v>6</v>
       </c>
       <c r="N53" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B54" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C54" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E54" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F54" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G54" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H54">
         <v>1968</v>
       </c>
       <c r="I54" t="s">
+        <v>226</v>
+      </c>
+      <c r="J54" t="s">
         <v>227</v>
       </c>
-      <c r="J54" t="s">
-        <v>228</v>
-      </c>
       <c r="K54" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="L54" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="M54">
         <v>6</v>
       </c>
       <c r="N54" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B55" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C55" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E55" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F55" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G55" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H55">
         <v>1968</v>
       </c>
       <c r="I55" t="s">
+        <v>226</v>
+      </c>
+      <c r="J55" t="s">
         <v>227</v>
       </c>
-      <c r="J55" t="s">
-        <v>228</v>
-      </c>
       <c r="K55" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="L55" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="M55">
         <v>6</v>
       </c>
       <c r="N55" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B56" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C56" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E56" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F56" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G56" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H56">
         <v>1968</v>
       </c>
       <c r="I56" t="s">
+        <v>226</v>
+      </c>
+      <c r="J56" t="s">
         <v>227</v>
       </c>
-      <c r="J56" t="s">
-        <v>228</v>
-      </c>
       <c r="K56" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="L56" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="M56">
         <v>6</v>
       </c>
       <c r="N56" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B57" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C57" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E57" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F57" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G57" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H57">
         <v>1968</v>
       </c>
       <c r="I57" t="s">
+        <v>226</v>
+      </c>
+      <c r="J57" t="s">
         <v>227</v>
       </c>
-      <c r="J57" t="s">
-        <v>228</v>
-      </c>
       <c r="K57" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="L57" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="M57">
         <v>6</v>
       </c>
       <c r="N57" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B58" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C58" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E58" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F58" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G58" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H58">
         <v>1968</v>
       </c>
       <c r="I58" t="s">
+        <v>226</v>
+      </c>
+      <c r="J58" t="s">
         <v>227</v>
       </c>
-      <c r="J58" t="s">
-        <v>228</v>
-      </c>
       <c r="K58" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="L58" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="M58">
         <v>6</v>
       </c>
       <c r="N58" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B59" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C59" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E59" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F59" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G59" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H59">
         <v>1968</v>
       </c>
       <c r="I59" t="s">
+        <v>226</v>
+      </c>
+      <c r="J59" t="s">
         <v>227</v>
       </c>
-      <c r="J59" t="s">
-        <v>228</v>
-      </c>
       <c r="K59" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="L59" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="M59">
         <v>6</v>
       </c>
       <c r="N59" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B60" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C60" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E60" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F60" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G60" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H60">
         <v>1968</v>
       </c>
       <c r="I60" t="s">
+        <v>226</v>
+      </c>
+      <c r="J60" t="s">
         <v>227</v>
       </c>
-      <c r="J60" t="s">
-        <v>228</v>
-      </c>
       <c r="K60" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="L60" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="M60">
         <v>6</v>
       </c>
       <c r="N60" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B61" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C61" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E61" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F61" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G61" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H61">
         <v>1968</v>
       </c>
       <c r="I61" t="s">
+        <v>226</v>
+      </c>
+      <c r="J61" t="s">
         <v>227</v>
       </c>
-      <c r="J61" t="s">
-        <v>228</v>
-      </c>
       <c r="K61" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="L61" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="M61">
         <v>6</v>
       </c>
       <c r="N61" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B62" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C62" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E62" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F62" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G62" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H62">
         <v>1999</v>
       </c>
       <c r="I62" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="J62" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="K62" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="L62" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="M62">
         <v>7</v>
       </c>
       <c r="N62" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B63" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C63" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E63" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F63" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G63" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H63">
         <v>1999</v>
       </c>
       <c r="I63" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="J63" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="K63" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="L63" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="M63">
         <v>7</v>
       </c>
       <c r="N63" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B64" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C64" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E64" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F64" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G64" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H64">
         <v>1999</v>
       </c>
       <c r="I64" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="J64" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="K64" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="L64" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="M64">
         <v>7</v>
       </c>
       <c r="N64" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B65" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C65" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E65" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F65" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G65" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H65">
         <v>1999</v>
       </c>
       <c r="I65" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="J65" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="K65" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="L65" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="M65">
         <v>7</v>
       </c>
       <c r="N65" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B66" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C66" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E66" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F66" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G66" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H66">
         <v>1999</v>
       </c>
       <c r="I66" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="J66" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="K66" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="L66" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="M66">
         <v>7</v>
       </c>
       <c r="N66" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B67" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C67" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E67" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F67" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G67" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H67">
         <v>1999</v>
       </c>
       <c r="I67" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="J67" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="K67" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="L67" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="M67">
         <v>7</v>
       </c>
       <c r="N67" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B68" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C68" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E68" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F68" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G68" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H68">
         <v>1999</v>
       </c>
       <c r="I68" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="J68" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="K68" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="L68" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="M68">
         <v>7</v>
       </c>
       <c r="N68" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B69" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C69" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E69" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F69" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G69" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H69">
         <v>1999</v>
       </c>
       <c r="I69" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="J69" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="K69" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="L69" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="M69">
         <v>7</v>
       </c>
       <c r="N69" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B70" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C70" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E70" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F70" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G70" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H70">
         <v>1999</v>
       </c>
       <c r="I70" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="J70" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="K70" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="L70" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="M70">
         <v>7</v>
       </c>
       <c r="N70" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B71" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C71" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E71" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F71" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G71" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H71">
         <v>1999</v>
       </c>
       <c r="I71" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="J71" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="K71" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="L71" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="M71">
         <v>7</v>
       </c>
       <c r="N71" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B72" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C72" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E72" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F72" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G72" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H72">
         <v>1999</v>
       </c>
       <c r="I72" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="J72" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="K72" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="L72" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="M72">
         <v>7</v>
       </c>
       <c r="N72" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B73" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C73" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E73" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F73" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G73" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H73">
         <v>1999</v>
       </c>
       <c r="I73" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="J73" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="K73" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="L73" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="M73">
         <v>7</v>
       </c>
       <c r="N73" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B74" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C74" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E74" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F74" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G74" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H74">
         <v>1999</v>
       </c>
       <c r="I74" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="J74" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="K74" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="L74" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="M74">
         <v>7</v>
       </c>
       <c r="N74" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B75" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C75" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E75" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F75" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G75" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H75">
         <v>1999</v>
       </c>
       <c r="I75" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="J75" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="K75" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="L75" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="M75">
         <v>7</v>
       </c>
       <c r="N75" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B76" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C76" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E76" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F76" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G76" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H76">
         <v>1999</v>
       </c>
       <c r="I76" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="J76" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="K76" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="L76" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="M76">
         <v>7</v>
       </c>
       <c r="N76" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B77" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C77" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E77" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F77" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G77" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H77">
         <v>1999</v>
       </c>
       <c r="I77" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="J77" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="K77" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="L77" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="M77">
         <v>7</v>
       </c>
       <c r="N77" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B78" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C78" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E78" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F78" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G78" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H78">
         <v>1999</v>
       </c>
       <c r="I78" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="J78" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="K78" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="L78" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="M78">
         <v>7</v>
       </c>
       <c r="N78" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B79" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C79" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E79" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F79" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G79" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H79">
         <v>1999</v>
       </c>
       <c r="I79" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="J79" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="K79" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="L79" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="M79">
         <v>7</v>
       </c>
       <c r="N79" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B80" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C80" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E80" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F80" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G80" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H80">
         <v>1980</v>
       </c>
       <c r="I80" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="J80" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="K80" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="L80" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="M80">
         <v>8</v>
       </c>
       <c r="N80" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B81" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C81" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E81" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F81" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="G81" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H81">
         <v>1980</v>
       </c>
       <c r="I81" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="J81" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="K81" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="L81" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="M81">
         <v>8</v>
       </c>
       <c r="N81" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B82" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C82" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E82" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F82" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G82" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H82">
         <v>1980</v>
       </c>
       <c r="I82" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="J82" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="K82" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="L82" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="M82">
         <v>8</v>
       </c>
       <c r="N82" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B83" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C83" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E83" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F83" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G83" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H83">
         <v>1980</v>
       </c>
       <c r="I83" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="J83" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="K83" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="L83" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="M83">
         <v>8</v>
       </c>
       <c r="N83" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B84" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C84" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E84" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F84" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G84" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H84">
         <v>1980</v>
       </c>
       <c r="I84" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="J84" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="K84" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="L84" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="M84">
         <v>8</v>
       </c>
       <c r="N84" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B85" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C85" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E85" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F85" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G85" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H85">
         <v>1980</v>
       </c>
       <c r="I85" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="J85" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="K85" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="L85" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="M85">
         <v>8</v>
       </c>
       <c r="N85" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B86" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C86" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E86" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F86" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G86" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H86">
         <v>1980</v>
       </c>
       <c r="I86" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="J86" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="K86" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="L86" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="M86">
         <v>8</v>
       </c>
       <c r="N86" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B87" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C87" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E87" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F87" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G87" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H87">
         <v>1980</v>
       </c>
       <c r="I87" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="J87" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="K87" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="L87" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="M87">
         <v>8</v>
       </c>
       <c r="N87" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B88" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C88" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E88" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F88" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G88" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H88">
         <v>2000</v>
       </c>
       <c r="I88" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="J88" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="K88" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="L88" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="M88">
         <v>9</v>
@@ -5208,40 +5208,40 @@
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B89" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C89" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E89" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F89" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G89" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H89">
         <v>2000</v>
       </c>
       <c r="I89" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="J89" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="K89" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="L89" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="M89">
         <v>9</v>
@@ -5249,40 +5249,40 @@
     </row>
     <row r="90" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B90" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C90" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D90" s="3" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E90" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F90" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G90" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H90">
         <v>2000</v>
       </c>
       <c r="I90" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="J90" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="K90" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="L90" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="M90">
         <v>9</v>
@@ -5290,40 +5290,40 @@
     </row>
     <row r="91" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B91" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C91" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D91" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E91" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F91" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G91" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H91">
         <v>2000</v>
       </c>
       <c r="I91" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="J91" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="K91" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="L91" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="M91">
         <v>9</v>
@@ -5331,40 +5331,40 @@
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B92" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C92" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D92" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E92" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F92" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G92" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H92">
         <v>2000</v>
       </c>
       <c r="I92" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="J92" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="K92" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="L92" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="M92">
         <v>9</v>
@@ -5372,40 +5372,40 @@
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B93" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C93" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D93" s="3" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E93" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F93" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G93" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H93">
         <v>2000</v>
       </c>
       <c r="I93" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="J93" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="K93" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="L93" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="M93">
         <v>9</v>
@@ -5413,40 +5413,40 @@
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B94" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C94" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D94" s="3" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E94" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F94" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G94" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H94">
         <v>2000</v>
       </c>
       <c r="I94" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="J94" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="K94" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="L94" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="M94">
         <v>9</v>
@@ -5454,40 +5454,40 @@
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B95" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C95" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D95" s="3" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E95" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F95" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G95" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H95">
         <v>2000</v>
       </c>
       <c r="I95" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="J95" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="K95" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="L95" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="M95">
         <v>9</v>
@@ -5495,40 +5495,40 @@
     </row>
     <row r="96" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B96" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C96" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D96" s="3" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E96" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F96" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G96" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H96">
         <v>2000</v>
       </c>
       <c r="I96" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="J96" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="K96" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="L96" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="M96">
         <v>9</v>
@@ -5536,40 +5536,40 @@
     </row>
     <row r="97" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B97" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C97" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D97" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E97" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F97" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G97" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H97">
         <v>2000</v>
       </c>
       <c r="I97" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="J97" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="K97" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="L97" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="M97">
         <v>9</v>
@@ -5577,40 +5577,40 @@
     </row>
     <row r="98" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B98" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C98" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D98" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E98" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F98" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="G98" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H98">
         <v>2000</v>
       </c>
       <c r="I98" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="J98" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="K98" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="L98" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="M98">
         <v>9</v>
@@ -5618,40 +5618,40 @@
     </row>
     <row r="99" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B99" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C99" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D99" s="3" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E99" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F99" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G99" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H99">
         <v>2000</v>
       </c>
       <c r="I99" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="J99" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="K99" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="L99" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="M99">
         <v>9</v>
@@ -5659,40 +5659,40 @@
     </row>
     <row r="100" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B100" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C100" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D100" s="3" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E100" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F100" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G100" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H100">
         <v>2000</v>
       </c>
       <c r="I100" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="J100" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="K100" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="L100" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="M100">
         <v>9</v>
@@ -5700,40 +5700,40 @@
     </row>
     <row r="101" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B101" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C101" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D101" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E101" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F101" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G101" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H101">
         <v>2000</v>
       </c>
       <c r="I101" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="J101" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="K101" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="L101" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="M101">
         <v>9</v>
@@ -5741,40 +5741,40 @@
     </row>
     <row r="102" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B102" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C102" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D102" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E102" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F102" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="G102" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H102">
         <v>2000</v>
       </c>
       <c r="I102" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="J102" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="K102" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="L102" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="M102">
         <v>9</v>
@@ -5782,706 +5782,706 @@
     </row>
     <row r="103" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B103" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C103" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D103" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E103" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F103" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G103" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H103">
         <v>1972</v>
       </c>
       <c r="I103" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="J103" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="K103" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="L103" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="M103">
         <v>10</v>
       </c>
       <c r="N103" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="104" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B104" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C104" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D104" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E104" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F104" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G104" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H104">
         <v>1972</v>
       </c>
       <c r="I104" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="J104" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="K104" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="L104" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="M104">
         <v>10</v>
       </c>
       <c r="N104" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="105" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B105" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C105" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D105" s="3" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E105" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F105" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="G105" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H105">
         <v>1972</v>
       </c>
       <c r="I105" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="J105" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="K105" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="L105" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="M105">
         <v>10</v>
       </c>
       <c r="N105" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="106" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B106" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C106" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D106" s="3" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E106" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F106" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G106" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H106">
         <v>1972</v>
       </c>
       <c r="I106" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="J106" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="K106" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="L106" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="M106">
         <v>10</v>
       </c>
       <c r="N106" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="107" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B107" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C107" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D107" s="3" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E107" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F107" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G107" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H107">
         <v>1972</v>
       </c>
       <c r="I107" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="J107" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="K107" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="L107" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="M107">
         <v>10</v>
       </c>
       <c r="N107" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="108" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B108" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C108" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D108" s="3" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E108" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F108" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="G108" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H108">
         <v>1972</v>
       </c>
       <c r="I108" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="J108" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="K108" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="L108" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="M108">
         <v>10</v>
       </c>
       <c r="N108" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="109" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B109" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C109" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D109" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E109" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F109" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G109" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H109">
         <v>1972</v>
       </c>
       <c r="I109" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="J109" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="K109" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="L109" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="M109">
         <v>10</v>
       </c>
       <c r="N109" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="110" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B110" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C110" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D110" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E110" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F110" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G110" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H110">
         <v>1972</v>
       </c>
       <c r="I110" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="J110" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="K110" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="L110" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="M110">
         <v>10</v>
       </c>
       <c r="N110" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="111" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B111" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C111" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D111" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E111" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F111" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="G111" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H111">
         <v>1972</v>
       </c>
       <c r="I111" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="J111" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="K111" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="L111" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="M111">
         <v>11</v>
       </c>
       <c r="N111" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="112" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B112" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C112" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D112" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E112" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F112" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="G112" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H112">
         <v>1972</v>
       </c>
       <c r="I112" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="J112" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="K112" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="L112" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="M112">
         <v>11</v>
       </c>
       <c r="N112" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="113" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B113" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C113" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D113" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E113" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F113" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="G113" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H113">
         <v>1972</v>
       </c>
       <c r="I113" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="J113" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="K113" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="L113" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="M113">
         <v>11</v>
       </c>
       <c r="N113" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="114" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B114" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C114" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D114" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E114" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F114" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G114" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H114">
         <v>1972</v>
       </c>
       <c r="I114" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="J114" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="K114" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="L114" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="M114">
         <v>11</v>
       </c>
       <c r="N114" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="115" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B115" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C115" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D115" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E115" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F115" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G115" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H115">
         <v>1972</v>
       </c>
       <c r="I115" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="J115" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="K115" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="L115" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="M115">
         <v>11</v>
       </c>
       <c r="N115" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="116" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B116" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C116" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D116" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E116" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F116" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G116" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H116">
         <v>1972</v>
       </c>
       <c r="I116" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="J116" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="K116" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="L116" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="M116">
         <v>11</v>
       </c>
       <c r="N116" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="117" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B117" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C117" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D117" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E117" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F117" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G117" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H117">
         <v>1972</v>
       </c>
       <c r="I117" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="J117" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="K117" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="L117" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="M117">
         <v>11</v>
       </c>
       <c r="N117" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="118" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B118" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C118" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D118" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E118" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F118" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="G118" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H118">
         <v>1972</v>
       </c>
       <c r="I118" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="J118" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="K118" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="L118" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="M118">
         <v>11</v>
       </c>
       <c r="N118" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
   </sheetData>

--- a/catalogo_musical.xlsx
+++ b/catalogo_musical.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9d20daa13162c28c/Documentos/Catalogo Musical/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="137" documentId="8_{44AE8B72-C6C1-4264-BF20-89D79CF84A16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6551A381-484F-4370-9795-68403745EA77}"/>
+  <xr:revisionPtr revIDLastSave="138" documentId="8_{44AE8B72-C6C1-4264-BF20-89D79CF84A16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BA21E7DA-ED79-4727-B2D4-8E8C7670E097}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -972,7 +972,7 @@
     <t>D.R. Composición (Derechos Reservados)</t>
   </si>
   <si>
-    <t>Orquesta</t>
+    <t>Orquesta/Solista</t>
   </si>
 </sst>
 </file>
@@ -1353,7 +1353,7 @@
   <dimension ref="A1:N118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/catalogo_musical.xlsx
+++ b/catalogo_musical.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9d20daa13162c28c/Documentos/Catalogo Musical/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9D20DAA13162C28C/Documentos/Catalogo Musical/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="138" documentId="8_{44AE8B72-C6C1-4264-BF20-89D79CF84A16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BA21E7DA-ED79-4727-B2D4-8E8C7670E097}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="14_{CE13B5D7-EE44-4315-9635-51EC6F027BD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1392" uniqueCount="317">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2004" uniqueCount="433">
   <si>
     <t>Álbum</t>
   </si>
@@ -973,13 +973,363 @@
   </si>
   <si>
     <t>Orquesta/Solista</t>
+  </si>
+  <si>
+    <t>Todo tiene su final</t>
+  </si>
+  <si>
+    <t>5:00</t>
+  </si>
+  <si>
+    <t>Guajira ven</t>
+  </si>
+  <si>
+    <t>La Maria</t>
+  </si>
+  <si>
+    <t>3:30</t>
+  </si>
+  <si>
+    <t>Señora Lola</t>
+  </si>
+  <si>
+    <t>El día de suerte</t>
+  </si>
+  <si>
+    <t>5:28</t>
+  </si>
+  <si>
+    <t>Vo so</t>
+  </si>
+  <si>
+    <t>4:25</t>
+  </si>
+  <si>
+    <t>Junio '73</t>
+  </si>
+  <si>
+    <t>7:13</t>
+  </si>
+  <si>
+    <t>Lo Mato</t>
+  </si>
+  <si>
+    <t>Willie Colón/Héctor Lavoe</t>
+  </si>
+  <si>
+    <t>Emil "Chino" de Padron</t>
+  </si>
+  <si>
+    <t>SLP-00444</t>
+  </si>
+  <si>
+    <t>Producido por Wllie Colon &amp; Jerry Masucci, Director: Johnny Pacheco</t>
+  </si>
+  <si>
+    <t>Asalto Navideño - Vol. II</t>
+  </si>
+  <si>
+    <t>Pescao (Potpourri Sambao)</t>
+  </si>
+  <si>
+    <t>5:37</t>
+  </si>
+  <si>
+    <t>Recomendacion</t>
+  </si>
+  <si>
+    <t>3:51</t>
+  </si>
+  <si>
+    <t>La Banda</t>
+  </si>
+  <si>
+    <t>Doña Santos</t>
+  </si>
+  <si>
+    <t>Cantemos</t>
+  </si>
+  <si>
+    <t>Pa' Los Pueblos</t>
+  </si>
+  <si>
+    <t>Arbolito</t>
+  </si>
+  <si>
+    <t>Tranquilidad</t>
+  </si>
+  <si>
+    <t>6:07</t>
+  </si>
+  <si>
+    <t>5:05</t>
+  </si>
+  <si>
+    <t>4:44</t>
+  </si>
+  <si>
+    <t>SLP449</t>
+  </si>
+  <si>
+    <t>Willie Colón/Héctor Lavoe/J. Pacheco</t>
+  </si>
+  <si>
+    <t>Willie Colón/J. Pacheco</t>
+  </si>
+  <si>
+    <t>Producido por Willie Colón/ Arreglos: Willie Colon/ Coro: Willie Colon, Johnny Pacheco, Adalberto Santiago</t>
+  </si>
+  <si>
+    <t>The Good - The Bad - The Ugly</t>
+  </si>
+  <si>
+    <t>Toma</t>
+  </si>
+  <si>
+    <t>2:17</t>
+  </si>
+  <si>
+    <t>Potpourri III</t>
+  </si>
+  <si>
+    <t>Cua Cua Ra, Cua Cua</t>
+  </si>
+  <si>
+    <t>Doña Toña</t>
+  </si>
+  <si>
+    <t>MC2 (Theme Realidades)</t>
+  </si>
+  <si>
+    <t>El Cazanguero</t>
+  </si>
+  <si>
+    <t>Guaracha</t>
+  </si>
+  <si>
+    <t>I Feel Campesino</t>
+  </si>
+  <si>
+    <t>3:29</t>
+  </si>
+  <si>
+    <t>Que bien te ves</t>
+  </si>
+  <si>
+    <t>Baden Powell</t>
+  </si>
+  <si>
+    <t>SLP 484</t>
+  </si>
+  <si>
+    <t>Producido por Willie Colón/Coro: Ada Chabrier, Jose Mangual, Ruben Blades, Willie Colon, Ernie Agosto</t>
+  </si>
+  <si>
+    <t>Pena de amor</t>
+  </si>
+  <si>
+    <t>4:28</t>
+  </si>
+  <si>
+    <t>Baila mi bomba</t>
+  </si>
+  <si>
+    <t>Mosaico #1</t>
+  </si>
+  <si>
+    <t>2:37</t>
+  </si>
+  <si>
+    <t>La humanidad</t>
+  </si>
+  <si>
+    <t>Ya llego</t>
+  </si>
+  <si>
+    <t>Se te quema la casa</t>
+  </si>
+  <si>
+    <t>Tinguilikitin</t>
+  </si>
+  <si>
+    <t>2:18</t>
+  </si>
+  <si>
+    <t>Julia Lee</t>
+  </si>
+  <si>
+    <t>Si te vas</t>
+  </si>
+  <si>
+    <t>Mosaico #2</t>
+  </si>
+  <si>
+    <t>There goes the neighborhood
+(Se chavó el vecindario)</t>
+  </si>
+  <si>
+    <t>Ray Gonzalez</t>
+  </si>
+  <si>
+    <t>Ramón Jimenez</t>
+  </si>
+  <si>
+    <t>Ramón Rivera Alers</t>
+  </si>
+  <si>
+    <t>Felito Felix</t>
+  </si>
+  <si>
+    <t>Efrain Rivera Castillo</t>
+  </si>
+  <si>
+    <t>Mon Rivera</t>
+  </si>
+  <si>
+    <t>Vaya Records Inc</t>
+  </si>
+  <si>
+    <t>VS-42</t>
+  </si>
+  <si>
+    <t>Producido por Willie Colón/Coro: Ruben Blades, Willie Colon, Hector Lavoe, Fe Ortiz</t>
+  </si>
+  <si>
+    <t>Willie Colón Presents Ruben Blades
+Metiendo Mano</t>
+  </si>
+  <si>
+    <t>Pablo pueblo</t>
+  </si>
+  <si>
+    <t>5:09</t>
+  </si>
+  <si>
+    <t>Segun el color</t>
+  </si>
+  <si>
+    <t>La maleta</t>
+  </si>
+  <si>
+    <t>4:41</t>
+  </si>
+  <si>
+    <t>Me recordaras</t>
+  </si>
+  <si>
+    <t>3:42</t>
+  </si>
+  <si>
+    <t>5:50</t>
+  </si>
+  <si>
+    <t>La Mora</t>
+  </si>
+  <si>
+    <t>6:10</t>
+  </si>
+  <si>
+    <t>Lluvia de tu cielo</t>
+  </si>
+  <si>
+    <t>Pueblo</t>
+  </si>
+  <si>
+    <t>7:05</t>
+  </si>
+  <si>
+    <t>Plantación adentro</t>
+  </si>
+  <si>
+    <t>Fue varón</t>
+  </si>
+  <si>
+    <t>Felix Hernandez</t>
+  </si>
+  <si>
+    <t>Frank Dominguez</t>
+  </si>
+  <si>
+    <t>Eliseo Grenet</t>
+  </si>
+  <si>
+    <t>Johnny Ortiz</t>
+  </si>
+  <si>
+    <t>SLPCD-00500</t>
+  </si>
+  <si>
+    <t>Producido por Willie Colón/Arreglos: Willie Colon</t>
+  </si>
+  <si>
+    <t>Producido por Willie Colón/Arreglos: Louie Cruz</t>
+  </si>
+  <si>
+    <t>Producido por Willie Colón/Arreglos: Louie Ramirez</t>
+  </si>
+  <si>
+    <t>Producido por Willie Colón/Arreglos: Louie Ortiz</t>
+  </si>
+  <si>
+    <t>Siembra</t>
+  </si>
+  <si>
+    <t>Plastico</t>
+  </si>
+  <si>
+    <t>6:37</t>
+  </si>
+  <si>
+    <t>Buscando Guayaba</t>
+  </si>
+  <si>
+    <t>5:43</t>
+  </si>
+  <si>
+    <t>Pedro Navaja</t>
+  </si>
+  <si>
+    <t>7:21</t>
+  </si>
+  <si>
+    <t>Maria Lionza</t>
+  </si>
+  <si>
+    <t>5:27</t>
+  </si>
+  <si>
+    <t>Ojos</t>
+  </si>
+  <si>
+    <t>4:50</t>
+  </si>
+  <si>
+    <t>6:59</t>
+  </si>
+  <si>
+    <t>5:21</t>
+  </si>
+  <si>
+    <t>Dime</t>
+  </si>
+  <si>
+    <t>JMCD-537</t>
+  </si>
+  <si>
+    <t>Producido por Willie Colón/Coros: Willie Colon, Ruben Blades, Jose Mangual Jr., Adalberto Santiago</t>
+  </si>
+  <si>
+    <t>Instrumental</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Héctor Lavoe &amp; Willie Colón </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -991,6 +1341,12 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1031,7 +1387,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1041,6 +1397,15 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1350,20 +1715,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N118"/>
+  <dimension ref="A1:N169"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" topLeftCell="A159" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C140" sqref="C140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="26.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.36328125" customWidth="1"/>
     <col min="2" max="2" width="29.26953125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="30.1796875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.7265625" style="3"/>
     <col min="5" max="5" width="33.36328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="33.7265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="35.1796875" customWidth="1"/>
     <col min="10" max="10" width="15.1796875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12.1796875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="9.54296875" bestFit="1" customWidth="1"/>
@@ -6484,7 +6849,2253 @@
         <v>244</v>
       </c>
     </row>
+    <row r="119" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A119" t="s">
+        <v>329</v>
+      </c>
+      <c r="B119" t="s">
+        <v>25</v>
+      </c>
+      <c r="C119" t="s">
+        <v>106</v>
+      </c>
+      <c r="D119" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="E119" t="s">
+        <v>163</v>
+      </c>
+      <c r="F119" t="s">
+        <v>163</v>
+      </c>
+      <c r="G119" t="s">
+        <v>225</v>
+      </c>
+      <c r="H119">
+        <v>1973</v>
+      </c>
+      <c r="I119" t="s">
+        <v>226</v>
+      </c>
+      <c r="J119" t="s">
+        <v>231</v>
+      </c>
+      <c r="K119" t="s">
+        <v>332</v>
+      </c>
+      <c r="L119" t="s">
+        <v>242</v>
+      </c>
+      <c r="M119">
+        <v>12</v>
+      </c>
+      <c r="N119" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="120" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A120" t="s">
+        <v>329</v>
+      </c>
+      <c r="B120" t="s">
+        <v>25</v>
+      </c>
+      <c r="C120" t="s">
+        <v>317</v>
+      </c>
+      <c r="D120" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="E120" t="s">
+        <v>163</v>
+      </c>
+      <c r="F120" t="s">
+        <v>163</v>
+      </c>
+      <c r="G120" t="s">
+        <v>225</v>
+      </c>
+      <c r="H120">
+        <v>1973</v>
+      </c>
+      <c r="I120" t="s">
+        <v>226</v>
+      </c>
+      <c r="J120" t="s">
+        <v>231</v>
+      </c>
+      <c r="K120" t="s">
+        <v>332</v>
+      </c>
+      <c r="L120" t="s">
+        <v>242</v>
+      </c>
+      <c r="M120">
+        <v>12</v>
+      </c>
+      <c r="N120" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="121" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A121" t="s">
+        <v>329</v>
+      </c>
+      <c r="B121" t="s">
+        <v>25</v>
+      </c>
+      <c r="C121" t="s">
+        <v>319</v>
+      </c>
+      <c r="D121" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="E121" t="s">
+        <v>163</v>
+      </c>
+      <c r="F121" t="s">
+        <v>315</v>
+      </c>
+      <c r="G121" t="s">
+        <v>225</v>
+      </c>
+      <c r="H121">
+        <v>1973</v>
+      </c>
+      <c r="I121" t="s">
+        <v>226</v>
+      </c>
+      <c r="J121" t="s">
+        <v>231</v>
+      </c>
+      <c r="K121" t="s">
+        <v>332</v>
+      </c>
+      <c r="L121" t="s">
+        <v>242</v>
+      </c>
+      <c r="M121">
+        <v>12</v>
+      </c>
+      <c r="N121" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="122" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A122" t="s">
+        <v>329</v>
+      </c>
+      <c r="B122" t="s">
+        <v>25</v>
+      </c>
+      <c r="C122" t="s">
+        <v>320</v>
+      </c>
+      <c r="D122" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="E122" t="s">
+        <v>163</v>
+      </c>
+      <c r="F122" t="s">
+        <v>172</v>
+      </c>
+      <c r="G122" t="s">
+        <v>225</v>
+      </c>
+      <c r="H122">
+        <v>1973</v>
+      </c>
+      <c r="I122" t="s">
+        <v>226</v>
+      </c>
+      <c r="J122" t="s">
+        <v>231</v>
+      </c>
+      <c r="K122" t="s">
+        <v>332</v>
+      </c>
+      <c r="L122" t="s">
+        <v>242</v>
+      </c>
+      <c r="M122">
+        <v>12</v>
+      </c>
+      <c r="N122" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="123" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A123" t="s">
+        <v>329</v>
+      </c>
+      <c r="B123" t="s">
+        <v>25</v>
+      </c>
+      <c r="C123" t="s">
+        <v>322</v>
+      </c>
+      <c r="D123" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="E123" t="s">
+        <v>163</v>
+      </c>
+      <c r="F123" t="s">
+        <v>331</v>
+      </c>
+      <c r="G123" t="s">
+        <v>225</v>
+      </c>
+      <c r="H123">
+        <v>1973</v>
+      </c>
+      <c r="I123" t="s">
+        <v>226</v>
+      </c>
+      <c r="J123" t="s">
+        <v>231</v>
+      </c>
+      <c r="K123" t="s">
+        <v>332</v>
+      </c>
+      <c r="L123" t="s">
+        <v>242</v>
+      </c>
+      <c r="M123">
+        <v>12</v>
+      </c>
+      <c r="N123" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="124" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A124" t="s">
+        <v>329</v>
+      </c>
+      <c r="B124" t="s">
+        <v>25</v>
+      </c>
+      <c r="C124" t="s">
+        <v>323</v>
+      </c>
+      <c r="D124" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="E124" t="s">
+        <v>163</v>
+      </c>
+      <c r="F124" t="s">
+        <v>330</v>
+      </c>
+      <c r="G124" t="s">
+        <v>225</v>
+      </c>
+      <c r="H124">
+        <v>1973</v>
+      </c>
+      <c r="I124" t="s">
+        <v>226</v>
+      </c>
+      <c r="J124" t="s">
+        <v>231</v>
+      </c>
+      <c r="K124" t="s">
+        <v>332</v>
+      </c>
+      <c r="L124" t="s">
+        <v>242</v>
+      </c>
+      <c r="M124">
+        <v>12</v>
+      </c>
+      <c r="N124" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="125" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A125" t="s">
+        <v>329</v>
+      </c>
+      <c r="B125" t="s">
+        <v>25</v>
+      </c>
+      <c r="C125" t="s">
+        <v>325</v>
+      </c>
+      <c r="D125" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="E125" t="s">
+        <v>163</v>
+      </c>
+      <c r="F125" t="s">
+        <v>163</v>
+      </c>
+      <c r="G125" t="s">
+        <v>225</v>
+      </c>
+      <c r="H125">
+        <v>1973</v>
+      </c>
+      <c r="I125" t="s">
+        <v>226</v>
+      </c>
+      <c r="J125" t="s">
+        <v>231</v>
+      </c>
+      <c r="K125" t="s">
+        <v>332</v>
+      </c>
+      <c r="L125" t="s">
+        <v>242</v>
+      </c>
+      <c r="M125">
+        <v>12</v>
+      </c>
+      <c r="N125" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="126" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A126" t="s">
+        <v>329</v>
+      </c>
+      <c r="B126" t="s">
+        <v>25</v>
+      </c>
+      <c r="C126" t="s">
+        <v>327</v>
+      </c>
+      <c r="D126" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="E126" t="s">
+        <v>163</v>
+      </c>
+      <c r="F126" t="s">
+        <v>163</v>
+      </c>
+      <c r="G126" t="s">
+        <v>225</v>
+      </c>
+      <c r="H126">
+        <v>1973</v>
+      </c>
+      <c r="I126" t="s">
+        <v>226</v>
+      </c>
+      <c r="J126" t="s">
+        <v>231</v>
+      </c>
+      <c r="K126" t="s">
+        <v>332</v>
+      </c>
+      <c r="L126" t="s">
+        <v>242</v>
+      </c>
+      <c r="M126">
+        <v>12</v>
+      </c>
+      <c r="N126" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="127" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A127" t="s">
+        <v>334</v>
+      </c>
+      <c r="B127" t="s">
+        <v>25</v>
+      </c>
+      <c r="C127" t="s">
+        <v>335</v>
+      </c>
+      <c r="D127" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="E127" t="s">
+        <v>163</v>
+      </c>
+      <c r="F127" t="s">
+        <v>315</v>
+      </c>
+      <c r="G127" t="s">
+        <v>225</v>
+      </c>
+      <c r="H127">
+        <v>1973</v>
+      </c>
+      <c r="I127" t="s">
+        <v>226</v>
+      </c>
+      <c r="J127" t="s">
+        <v>231</v>
+      </c>
+      <c r="K127" t="s">
+        <v>348</v>
+      </c>
+      <c r="L127" t="s">
+        <v>242</v>
+      </c>
+      <c r="M127">
+        <v>13</v>
+      </c>
+      <c r="N127" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="128" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A128" t="s">
+        <v>334</v>
+      </c>
+      <c r="B128" t="s">
+        <v>25</v>
+      </c>
+      <c r="C128" t="s">
+        <v>337</v>
+      </c>
+      <c r="D128" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="E128" t="s">
+        <v>163</v>
+      </c>
+      <c r="F128" t="s">
+        <v>25</v>
+      </c>
+      <c r="G128" t="s">
+        <v>225</v>
+      </c>
+      <c r="H128">
+        <v>1973</v>
+      </c>
+      <c r="I128" t="s">
+        <v>226</v>
+      </c>
+      <c r="J128" t="s">
+        <v>231</v>
+      </c>
+      <c r="K128" t="s">
+        <v>348</v>
+      </c>
+      <c r="L128" t="s">
+        <v>242</v>
+      </c>
+      <c r="M128">
+        <v>13</v>
+      </c>
+      <c r="N128" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="129" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A129" t="s">
+        <v>334</v>
+      </c>
+      <c r="B129" t="s">
+        <v>25</v>
+      </c>
+      <c r="C129" t="s">
+        <v>339</v>
+      </c>
+      <c r="D129" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="E129" t="s">
+        <v>163</v>
+      </c>
+      <c r="F129" t="s">
+        <v>163</v>
+      </c>
+      <c r="G129" t="s">
+        <v>225</v>
+      </c>
+      <c r="H129">
+        <v>1973</v>
+      </c>
+      <c r="I129" t="s">
+        <v>226</v>
+      </c>
+      <c r="J129" t="s">
+        <v>231</v>
+      </c>
+      <c r="K129" t="s">
+        <v>348</v>
+      </c>
+      <c r="L129" t="s">
+        <v>242</v>
+      </c>
+      <c r="M129">
+        <v>13</v>
+      </c>
+      <c r="N129" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="130" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A130" t="s">
+        <v>334</v>
+      </c>
+      <c r="B130" t="s">
+        <v>25</v>
+      </c>
+      <c r="C130" t="s">
+        <v>340</v>
+      </c>
+      <c r="D130" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="E130" t="s">
+        <v>163</v>
+      </c>
+      <c r="F130" t="s">
+        <v>224</v>
+      </c>
+      <c r="G130" t="s">
+        <v>225</v>
+      </c>
+      <c r="H130">
+        <v>1973</v>
+      </c>
+      <c r="I130" t="s">
+        <v>226</v>
+      </c>
+      <c r="J130" t="s">
+        <v>231</v>
+      </c>
+      <c r="K130" t="s">
+        <v>348</v>
+      </c>
+      <c r="L130" t="s">
+        <v>242</v>
+      </c>
+      <c r="M130">
+        <v>13</v>
+      </c>
+      <c r="N130" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="131" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A131" t="s">
+        <v>334</v>
+      </c>
+      <c r="B131" t="s">
+        <v>25</v>
+      </c>
+      <c r="C131" t="s">
+        <v>341</v>
+      </c>
+      <c r="D131" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="E131" t="s">
+        <v>163</v>
+      </c>
+      <c r="F131" t="s">
+        <v>224</v>
+      </c>
+      <c r="G131" t="s">
+        <v>225</v>
+      </c>
+      <c r="H131">
+        <v>1973</v>
+      </c>
+      <c r="I131" t="s">
+        <v>226</v>
+      </c>
+      <c r="J131" t="s">
+        <v>231</v>
+      </c>
+      <c r="K131" t="s">
+        <v>348</v>
+      </c>
+      <c r="L131" t="s">
+        <v>242</v>
+      </c>
+      <c r="M131">
+        <v>13</v>
+      </c>
+      <c r="N131" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="132" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A132" t="s">
+        <v>334</v>
+      </c>
+      <c r="B132" t="s">
+        <v>25</v>
+      </c>
+      <c r="C132" t="s">
+        <v>342</v>
+      </c>
+      <c r="D132" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="E132" t="s">
+        <v>163</v>
+      </c>
+      <c r="F132" t="s">
+        <v>349</v>
+      </c>
+      <c r="G132" t="s">
+        <v>225</v>
+      </c>
+      <c r="H132">
+        <v>1973</v>
+      </c>
+      <c r="I132" t="s">
+        <v>226</v>
+      </c>
+      <c r="J132" t="s">
+        <v>231</v>
+      </c>
+      <c r="K132" t="s">
+        <v>348</v>
+      </c>
+      <c r="L132" t="s">
+        <v>242</v>
+      </c>
+      <c r="M132">
+        <v>13</v>
+      </c>
+      <c r="N132" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="133" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A133" t="s">
+        <v>334</v>
+      </c>
+      <c r="B133" t="s">
+        <v>25</v>
+      </c>
+      <c r="C133" t="s">
+        <v>343</v>
+      </c>
+      <c r="D133" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="E133" t="s">
+        <v>163</v>
+      </c>
+      <c r="F133" t="s">
+        <v>315</v>
+      </c>
+      <c r="G133" t="s">
+        <v>225</v>
+      </c>
+      <c r="H133">
+        <v>1973</v>
+      </c>
+      <c r="I133" t="s">
+        <v>226</v>
+      </c>
+      <c r="J133" t="s">
+        <v>231</v>
+      </c>
+      <c r="K133" t="s">
+        <v>348</v>
+      </c>
+      <c r="L133" t="s">
+        <v>242</v>
+      </c>
+      <c r="M133">
+        <v>13</v>
+      </c>
+      <c r="N133" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="134" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A134" t="s">
+        <v>334</v>
+      </c>
+      <c r="B134" t="s">
+        <v>25</v>
+      </c>
+      <c r="C134" t="s">
+        <v>344</v>
+      </c>
+      <c r="D134" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="E134" t="s">
+        <v>163</v>
+      </c>
+      <c r="F134" t="s">
+        <v>350</v>
+      </c>
+      <c r="G134" t="s">
+        <v>225</v>
+      </c>
+      <c r="H134">
+        <v>1973</v>
+      </c>
+      <c r="I134" t="s">
+        <v>226</v>
+      </c>
+      <c r="J134" t="s">
+        <v>231</v>
+      </c>
+      <c r="K134" t="s">
+        <v>348</v>
+      </c>
+      <c r="L134" t="s">
+        <v>242</v>
+      </c>
+      <c r="M134">
+        <v>13</v>
+      </c>
+      <c r="N134" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="135" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A135" t="s">
+        <v>352</v>
+      </c>
+      <c r="B135" t="s">
+        <v>432</v>
+      </c>
+      <c r="C135" t="s">
+        <v>353</v>
+      </c>
+      <c r="D135" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="E135" t="s">
+        <v>163</v>
+      </c>
+      <c r="F135" t="s">
+        <v>315</v>
+      </c>
+      <c r="G135" t="s">
+        <v>225</v>
+      </c>
+      <c r="H135">
+        <v>1975</v>
+      </c>
+      <c r="I135" t="s">
+        <v>226</v>
+      </c>
+      <c r="J135" t="s">
+        <v>231</v>
+      </c>
+      <c r="K135" t="s">
+        <v>365</v>
+      </c>
+      <c r="L135" t="s">
+        <v>242</v>
+      </c>
+      <c r="M135">
+        <v>14</v>
+      </c>
+      <c r="N135" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="136" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A136" t="s">
+        <v>352</v>
+      </c>
+      <c r="B136" t="s">
+        <v>25</v>
+      </c>
+      <c r="C136" t="s">
+        <v>355</v>
+      </c>
+      <c r="D136" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="E136" t="s">
+        <v>163</v>
+      </c>
+      <c r="F136" t="s">
+        <v>315</v>
+      </c>
+      <c r="G136" t="s">
+        <v>225</v>
+      </c>
+      <c r="H136">
+        <v>1975</v>
+      </c>
+      <c r="I136" t="s">
+        <v>226</v>
+      </c>
+      <c r="J136" t="s">
+        <v>231</v>
+      </c>
+      <c r="K136" t="s">
+        <v>365</v>
+      </c>
+      <c r="L136" t="s">
+        <v>242</v>
+      </c>
+      <c r="M136">
+        <v>14</v>
+      </c>
+      <c r="N136" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="137" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A137" t="s">
+        <v>352</v>
+      </c>
+      <c r="B137" t="s">
+        <v>163</v>
+      </c>
+      <c r="C137" t="s">
+        <v>356</v>
+      </c>
+      <c r="D137" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="E137" t="s">
+        <v>163</v>
+      </c>
+      <c r="F137" t="s">
+        <v>364</v>
+      </c>
+      <c r="G137" t="s">
+        <v>225</v>
+      </c>
+      <c r="H137">
+        <v>1975</v>
+      </c>
+      <c r="I137" t="s">
+        <v>226</v>
+      </c>
+      <c r="J137" t="s">
+        <v>231</v>
+      </c>
+      <c r="K137" t="s">
+        <v>365</v>
+      </c>
+      <c r="L137" t="s">
+        <v>242</v>
+      </c>
+      <c r="M137">
+        <v>14</v>
+      </c>
+      <c r="N137" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="138" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A138" t="s">
+        <v>352</v>
+      </c>
+      <c r="B138" t="s">
+        <v>431</v>
+      </c>
+      <c r="C138" t="s">
+        <v>357</v>
+      </c>
+      <c r="D138" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="E138" t="s">
+        <v>163</v>
+      </c>
+      <c r="F138" t="s">
+        <v>163</v>
+      </c>
+      <c r="G138" t="s">
+        <v>225</v>
+      </c>
+      <c r="H138">
+        <v>1975</v>
+      </c>
+      <c r="I138" t="s">
+        <v>226</v>
+      </c>
+      <c r="J138" t="s">
+        <v>231</v>
+      </c>
+      <c r="K138" t="s">
+        <v>365</v>
+      </c>
+      <c r="L138" t="s">
+        <v>242</v>
+      </c>
+      <c r="M138">
+        <v>14</v>
+      </c>
+      <c r="N138" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="139" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A139" t="s">
+        <v>352</v>
+      </c>
+      <c r="B139" t="s">
+        <v>431</v>
+      </c>
+      <c r="C139" t="s">
+        <v>358</v>
+      </c>
+      <c r="D139" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="E139" t="s">
+        <v>163</v>
+      </c>
+      <c r="F139" t="s">
+        <v>163</v>
+      </c>
+      <c r="G139" t="s">
+        <v>225</v>
+      </c>
+      <c r="H139">
+        <v>1975</v>
+      </c>
+      <c r="I139" t="s">
+        <v>226</v>
+      </c>
+      <c r="J139" t="s">
+        <v>231</v>
+      </c>
+      <c r="K139" t="s">
+        <v>365</v>
+      </c>
+      <c r="L139" t="s">
+        <v>242</v>
+      </c>
+      <c r="M139">
+        <v>14</v>
+      </c>
+      <c r="N139" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="140" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A140" t="s">
+        <v>352</v>
+      </c>
+      <c r="B140" t="s">
+        <v>213</v>
+      </c>
+      <c r="C140" t="s">
+        <v>359</v>
+      </c>
+      <c r="D140" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="E140" t="s">
+        <v>163</v>
+      </c>
+      <c r="F140" t="s">
+        <v>213</v>
+      </c>
+      <c r="G140" t="s">
+        <v>225</v>
+      </c>
+      <c r="H140">
+        <v>1975</v>
+      </c>
+      <c r="I140" t="s">
+        <v>226</v>
+      </c>
+      <c r="J140" t="s">
+        <v>231</v>
+      </c>
+      <c r="K140" t="s">
+        <v>365</v>
+      </c>
+      <c r="L140" t="s">
+        <v>242</v>
+      </c>
+      <c r="M140">
+        <v>14</v>
+      </c>
+      <c r="N140" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="141" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A141" t="s">
+        <v>352</v>
+      </c>
+      <c r="B141" t="s">
+        <v>163</v>
+      </c>
+      <c r="C141" t="s">
+        <v>360</v>
+      </c>
+      <c r="D141" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="E141" t="s">
+        <v>163</v>
+      </c>
+      <c r="F141" t="s">
+        <v>163</v>
+      </c>
+      <c r="G141" t="s">
+        <v>225</v>
+      </c>
+      <c r="H141">
+        <v>1975</v>
+      </c>
+      <c r="I141" t="s">
+        <v>226</v>
+      </c>
+      <c r="J141" t="s">
+        <v>231</v>
+      </c>
+      <c r="K141" t="s">
+        <v>365</v>
+      </c>
+      <c r="L141" t="s">
+        <v>242</v>
+      </c>
+      <c r="M141">
+        <v>14</v>
+      </c>
+      <c r="N141" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="142" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A142" t="s">
+        <v>352</v>
+      </c>
+      <c r="B142" t="s">
+        <v>431</v>
+      </c>
+      <c r="C142" t="s">
+        <v>361</v>
+      </c>
+      <c r="D142" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="E142" t="s">
+        <v>163</v>
+      </c>
+      <c r="F142" t="s">
+        <v>163</v>
+      </c>
+      <c r="G142" t="s">
+        <v>225</v>
+      </c>
+      <c r="H142">
+        <v>1975</v>
+      </c>
+      <c r="I142" t="s">
+        <v>226</v>
+      </c>
+      <c r="J142" t="s">
+        <v>231</v>
+      </c>
+      <c r="K142" t="s">
+        <v>365</v>
+      </c>
+      <c r="L142" t="s">
+        <v>242</v>
+      </c>
+      <c r="M142">
+        <v>14</v>
+      </c>
+      <c r="N142" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="143" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A143" t="s">
+        <v>352</v>
+      </c>
+      <c r="B143" t="s">
+        <v>25</v>
+      </c>
+      <c r="C143" t="s">
+        <v>363</v>
+      </c>
+      <c r="D143" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="E143" t="s">
+        <v>163</v>
+      </c>
+      <c r="F143" t="s">
+        <v>163</v>
+      </c>
+      <c r="G143" t="s">
+        <v>225</v>
+      </c>
+      <c r="H143">
+        <v>1975</v>
+      </c>
+      <c r="I143" t="s">
+        <v>226</v>
+      </c>
+      <c r="J143" t="s">
+        <v>231</v>
+      </c>
+      <c r="K143" t="s">
+        <v>365</v>
+      </c>
+      <c r="L143" t="s">
+        <v>242</v>
+      </c>
+      <c r="M143">
+        <v>14</v>
+      </c>
+      <c r="N143" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="144" spans="1:14" s="5" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A144" s="4" t="s">
+        <v>380</v>
+      </c>
+      <c r="B144" s="5" t="s">
+        <v>386</v>
+      </c>
+      <c r="C144" s="5" t="s">
+        <v>367</v>
+      </c>
+      <c r="D144" s="6" t="s">
+        <v>368</v>
+      </c>
+      <c r="E144" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="F144" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="G144" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="H144" s="5">
+        <v>1975</v>
+      </c>
+      <c r="I144" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="J144" s="5" t="s">
+        <v>387</v>
+      </c>
+      <c r="K144" s="5" t="s">
+        <v>388</v>
+      </c>
+      <c r="L144" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="M144" s="5">
+        <v>15</v>
+      </c>
+      <c r="N144" s="5" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="145" spans="1:14" s="5" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A145" s="4" t="s">
+        <v>380</v>
+      </c>
+      <c r="B145" s="5" t="s">
+        <v>386</v>
+      </c>
+      <c r="C145" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="D145" s="6" t="s">
+        <v>287</v>
+      </c>
+      <c r="E145" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="F145" s="5" t="s">
+        <v>381</v>
+      </c>
+      <c r="G145" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="H145" s="5">
+        <v>1975</v>
+      </c>
+      <c r="I145" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="J145" s="5" t="s">
+        <v>387</v>
+      </c>
+      <c r="K145" s="5" t="s">
+        <v>388</v>
+      </c>
+      <c r="L145" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="M145" s="5">
+        <v>15</v>
+      </c>
+      <c r="N145" s="5" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="146" spans="1:14" s="5" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A146" s="4" t="s">
+        <v>380</v>
+      </c>
+      <c r="B146" s="5" t="s">
+        <v>386</v>
+      </c>
+      <c r="C146" s="5" t="s">
+        <v>370</v>
+      </c>
+      <c r="D146" s="6" t="s">
+        <v>268</v>
+      </c>
+      <c r="E146" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="F146" s="5" t="s">
+        <v>383</v>
+      </c>
+      <c r="G146" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="H146" s="5">
+        <v>1975</v>
+      </c>
+      <c r="I146" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="J146" s="5" t="s">
+        <v>387</v>
+      </c>
+      <c r="K146" s="5" t="s">
+        <v>388</v>
+      </c>
+      <c r="L146" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="M146" s="5">
+        <v>15</v>
+      </c>
+      <c r="N146" s="5" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="147" spans="1:14" s="5" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A147" s="4" t="s">
+        <v>380</v>
+      </c>
+      <c r="B147" s="5" t="s">
+        <v>386</v>
+      </c>
+      <c r="C147" s="5" t="s">
+        <v>374</v>
+      </c>
+      <c r="D147" s="6" t="s">
+        <v>371</v>
+      </c>
+      <c r="E147" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="F147" s="5" t="s">
+        <v>382</v>
+      </c>
+      <c r="G147" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="H147" s="5">
+        <v>1975</v>
+      </c>
+      <c r="I147" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="J147" s="5" t="s">
+        <v>387</v>
+      </c>
+      <c r="K147" s="5" t="s">
+        <v>388</v>
+      </c>
+      <c r="L147" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="M147" s="5">
+        <v>15</v>
+      </c>
+      <c r="N147" s="5" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="148" spans="1:14" s="5" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A148" s="4" t="s">
+        <v>380</v>
+      </c>
+      <c r="B148" s="5" t="s">
+        <v>386</v>
+      </c>
+      <c r="C148" s="5" t="s">
+        <v>372</v>
+      </c>
+      <c r="D148" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="E148" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="F148" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="G148" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="H148" s="5">
+        <v>1975</v>
+      </c>
+      <c r="I148" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="J148" s="5" t="s">
+        <v>387</v>
+      </c>
+      <c r="K148" s="5" t="s">
+        <v>388</v>
+      </c>
+      <c r="L148" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="M148" s="5">
+        <v>15</v>
+      </c>
+      <c r="N148" s="5" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="149" spans="1:14" s="5" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A149" s="4" t="s">
+        <v>380</v>
+      </c>
+      <c r="B149" s="5" t="s">
+        <v>386</v>
+      </c>
+      <c r="C149" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="D149" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="E149" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="F149" s="5" t="s">
+        <v>384</v>
+      </c>
+      <c r="G149" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="H149" s="5">
+        <v>1975</v>
+      </c>
+      <c r="I149" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="J149" s="5" t="s">
+        <v>387</v>
+      </c>
+      <c r="K149" s="5" t="s">
+        <v>388</v>
+      </c>
+      <c r="L149" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="M149" s="5">
+        <v>15</v>
+      </c>
+      <c r="N149" s="5" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="150" spans="1:14" s="5" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A150" s="4" t="s">
+        <v>380</v>
+      </c>
+      <c r="B150" s="5" t="s">
+        <v>386</v>
+      </c>
+      <c r="C150" s="5" t="s">
+        <v>375</v>
+      </c>
+      <c r="D150" s="6" t="s">
+        <v>269</v>
+      </c>
+      <c r="E150" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="F150" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="G150" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="H150" s="5">
+        <v>1975</v>
+      </c>
+      <c r="I150" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="J150" s="5" t="s">
+        <v>387</v>
+      </c>
+      <c r="K150" s="5" t="s">
+        <v>388</v>
+      </c>
+      <c r="L150" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="M150" s="5">
+        <v>15</v>
+      </c>
+      <c r="N150" s="5" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="151" spans="1:14" s="5" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A151" s="4" t="s">
+        <v>380</v>
+      </c>
+      <c r="B151" s="5" t="s">
+        <v>386</v>
+      </c>
+      <c r="C151" s="5" t="s">
+        <v>379</v>
+      </c>
+      <c r="D151" s="6" t="s">
+        <v>376</v>
+      </c>
+      <c r="E151" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="F151" s="5" t="s">
+        <v>383</v>
+      </c>
+      <c r="G151" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="H151" s="5">
+        <v>1975</v>
+      </c>
+      <c r="I151" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="J151" s="5" t="s">
+        <v>387</v>
+      </c>
+      <c r="K151" s="5" t="s">
+        <v>388</v>
+      </c>
+      <c r="L151" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="M151" s="5">
+        <v>15</v>
+      </c>
+      <c r="N151" s="5" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="152" spans="1:14" s="5" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A152" s="4" t="s">
+        <v>380</v>
+      </c>
+      <c r="B152" s="5" t="s">
+        <v>386</v>
+      </c>
+      <c r="C152" s="5" t="s">
+        <v>377</v>
+      </c>
+      <c r="D152" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="E152" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="F152" s="5" t="s">
+        <v>385</v>
+      </c>
+      <c r="G152" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="H152" s="5">
+        <v>1975</v>
+      </c>
+      <c r="I152" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="J152" s="5" t="s">
+        <v>387</v>
+      </c>
+      <c r="K152" s="5" t="s">
+        <v>388</v>
+      </c>
+      <c r="L152" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="M152" s="5">
+        <v>15</v>
+      </c>
+      <c r="N152" s="5" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="153" spans="1:14" s="5" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A153" s="4" t="s">
+        <v>380</v>
+      </c>
+      <c r="B153" s="5" t="s">
+        <v>386</v>
+      </c>
+      <c r="C153" s="5" t="s">
+        <v>378</v>
+      </c>
+      <c r="D153" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="E153" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="F153" s="5" t="s">
+        <v>385</v>
+      </c>
+      <c r="G153" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="H153" s="5">
+        <v>1975</v>
+      </c>
+      <c r="I153" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="J153" s="5" t="s">
+        <v>387</v>
+      </c>
+      <c r="K153" s="5" t="s">
+        <v>388</v>
+      </c>
+      <c r="L153" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="M153" s="5">
+        <v>15</v>
+      </c>
+      <c r="N153" s="5" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="154" spans="1:14" ht="32.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A154" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="B154" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="C154" s="5" t="s">
+        <v>391</v>
+      </c>
+      <c r="D154" s="6" t="s">
+        <v>392</v>
+      </c>
+      <c r="E154" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="F154" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="G154" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="H154" s="5">
+        <v>1977</v>
+      </c>
+      <c r="I154" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="J154" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="K154" s="5" t="s">
+        <v>410</v>
+      </c>
+      <c r="L154" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="M154" s="5">
+        <v>16</v>
+      </c>
+      <c r="N154" s="5" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="155" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A155" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="B155" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="C155" s="5" t="s">
+        <v>393</v>
+      </c>
+      <c r="D155" s="6" t="s">
+        <v>303</v>
+      </c>
+      <c r="E155" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="F155" s="5" t="s">
+        <v>406</v>
+      </c>
+      <c r="G155" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="H155" s="5">
+        <v>1977</v>
+      </c>
+      <c r="I155" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="J155" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="K155" s="5" t="s">
+        <v>410</v>
+      </c>
+      <c r="L155" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="M155" s="5">
+        <v>16</v>
+      </c>
+      <c r="N155" s="5" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="156" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A156" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="B156" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="C156" s="5" t="s">
+        <v>394</v>
+      </c>
+      <c r="D156" s="6" t="s">
+        <v>395</v>
+      </c>
+      <c r="E156" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="F156" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="G156" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="H156" s="5">
+        <v>1977</v>
+      </c>
+      <c r="I156" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="J156" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="K156" s="5" t="s">
+        <v>410</v>
+      </c>
+      <c r="L156" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="M156" s="5">
+        <v>16</v>
+      </c>
+      <c r="N156" s="5" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="157" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A157" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="B157" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="C157" s="5" t="s">
+        <v>396</v>
+      </c>
+      <c r="D157" s="6" t="s">
+        <v>397</v>
+      </c>
+      <c r="E157" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="F157" s="5" t="s">
+        <v>407</v>
+      </c>
+      <c r="G157" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="H157" s="5">
+        <v>1977</v>
+      </c>
+      <c r="I157" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="J157" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="K157" s="5" t="s">
+        <v>410</v>
+      </c>
+      <c r="L157" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="M157" s="5">
+        <v>16</v>
+      </c>
+      <c r="N157" s="5" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="158" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A158" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="B158" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="C158" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="D158" s="6" t="s">
+        <v>398</v>
+      </c>
+      <c r="E158" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="F158" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="G158" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="H158" s="5">
+        <v>1977</v>
+      </c>
+      <c r="I158" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="J158" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="K158" s="5" t="s">
+        <v>410</v>
+      </c>
+      <c r="L158" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="M158" s="5">
+        <v>16</v>
+      </c>
+      <c r="N158" s="5" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="159" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A159" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="B159" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="C159" s="5" t="s">
+        <v>399</v>
+      </c>
+      <c r="D159" s="6" t="s">
+        <v>400</v>
+      </c>
+      <c r="E159" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="F159" s="5" t="s">
+        <v>408</v>
+      </c>
+      <c r="G159" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="H159" s="5">
+        <v>1977</v>
+      </c>
+      <c r="I159" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="J159" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="K159" s="5" t="s">
+        <v>410</v>
+      </c>
+      <c r="L159" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="M159" s="5">
+        <v>16</v>
+      </c>
+      <c r="N159" s="5" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="160" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A160" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="B160" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="C160" s="5" t="s">
+        <v>401</v>
+      </c>
+      <c r="D160" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="E160" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="F160" s="5" t="s">
+        <v>409</v>
+      </c>
+      <c r="G160" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="H160" s="5">
+        <v>1977</v>
+      </c>
+      <c r="I160" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="J160" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="K160" s="5" t="s">
+        <v>410</v>
+      </c>
+      <c r="L160" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="M160" s="5">
+        <v>16</v>
+      </c>
+      <c r="N160" s="5" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="161" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A161" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="B161" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="C161" s="5" t="s">
+        <v>405</v>
+      </c>
+      <c r="D161" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="E161" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="F161" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="G161" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="H161" s="5">
+        <v>1977</v>
+      </c>
+      <c r="I161" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="J161" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="K161" s="5" t="s">
+        <v>410</v>
+      </c>
+      <c r="L161" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="M161" s="5">
+        <v>16</v>
+      </c>
+      <c r="N161" s="5" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="162" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A162" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="B162" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="C162" s="5" t="s">
+        <v>402</v>
+      </c>
+      <c r="D162" s="6" t="s">
+        <v>403</v>
+      </c>
+      <c r="E162" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="F162" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="G162" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="H162" s="5">
+        <v>1977</v>
+      </c>
+      <c r="I162" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="J162" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="K162" s="5" t="s">
+        <v>410</v>
+      </c>
+      <c r="L162" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="M162" s="5">
+        <v>16</v>
+      </c>
+      <c r="N162" s="5" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="163" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A163" s="4" t="s">
+        <v>415</v>
+      </c>
+      <c r="B163" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="C163" s="5" t="s">
+        <v>416</v>
+      </c>
+      <c r="D163" s="3" t="s">
+        <v>417</v>
+      </c>
+      <c r="E163" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="F163" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="G163" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="H163" s="5">
+        <v>1978</v>
+      </c>
+      <c r="I163" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="J163" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="K163" s="5" t="s">
+        <v>429</v>
+      </c>
+      <c r="L163" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="M163" s="5">
+        <v>17</v>
+      </c>
+      <c r="N163" s="5" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="164" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A164" s="4" t="s">
+        <v>415</v>
+      </c>
+      <c r="B164" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="C164" s="5" t="s">
+        <v>418</v>
+      </c>
+      <c r="D164" s="3" t="s">
+        <v>419</v>
+      </c>
+      <c r="E164" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="F164" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="G164" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="H164" s="5">
+        <v>1978</v>
+      </c>
+      <c r="I164" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="J164" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="K164" s="5" t="s">
+        <v>429</v>
+      </c>
+      <c r="L164" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="M164" s="5">
+        <v>17</v>
+      </c>
+      <c r="N164" s="5" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="165" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A165" s="4" t="s">
+        <v>415</v>
+      </c>
+      <c r="B165" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="C165" s="5" t="s">
+        <v>420</v>
+      </c>
+      <c r="D165" s="3" t="s">
+        <v>421</v>
+      </c>
+      <c r="E165" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="F165" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="G165" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="H165" s="5">
+        <v>1978</v>
+      </c>
+      <c r="I165" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="J165" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="K165" s="5" t="s">
+        <v>429</v>
+      </c>
+      <c r="L165" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="M165" s="5">
+        <v>17</v>
+      </c>
+      <c r="N165" s="5" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="166" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A166" s="4" t="s">
+        <v>415</v>
+      </c>
+      <c r="B166" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="C166" s="5" t="s">
+        <v>422</v>
+      </c>
+      <c r="D166" s="3" t="s">
+        <v>423</v>
+      </c>
+      <c r="E166" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="F166" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="G166" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="H166" s="5">
+        <v>1978</v>
+      </c>
+      <c r="I166" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="J166" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="K166" s="5" t="s">
+        <v>429</v>
+      </c>
+      <c r="L166" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="M166" s="5">
+        <v>17</v>
+      </c>
+      <c r="N166" s="5" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="167" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A167" s="4" t="s">
+        <v>415</v>
+      </c>
+      <c r="B167" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="C167" s="5" t="s">
+        <v>424</v>
+      </c>
+      <c r="D167" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="E167" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="F167" s="5" t="s">
+        <v>409</v>
+      </c>
+      <c r="G167" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="H167" s="5">
+        <v>1978</v>
+      </c>
+      <c r="I167" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="J167" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="K167" s="5" t="s">
+        <v>429</v>
+      </c>
+      <c r="L167" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="M167" s="5">
+        <v>17</v>
+      </c>
+      <c r="N167" s="5" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="168" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A168" s="4" t="s">
+        <v>415</v>
+      </c>
+      <c r="B168" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="C168" s="5" t="s">
+        <v>428</v>
+      </c>
+      <c r="D168" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="E168" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="F168" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="G168" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="H168" s="5">
+        <v>1978</v>
+      </c>
+      <c r="I168" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="J168" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="K168" s="5" t="s">
+        <v>429</v>
+      </c>
+      <c r="L168" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="M168" s="5">
+        <v>17</v>
+      </c>
+      <c r="N168" s="5" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="169" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A169" s="4" t="s">
+        <v>415</v>
+      </c>
+      <c r="B169" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="C169" s="5" t="s">
+        <v>415</v>
+      </c>
+      <c r="D169" s="3" t="s">
+        <v>427</v>
+      </c>
+      <c r="E169" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="F169" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="G169" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="H169" s="5">
+        <v>1978</v>
+      </c>
+      <c r="I169" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="J169" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="K169" s="5" t="s">
+        <v>429</v>
+      </c>
+      <c r="L169" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="M169" s="5">
+        <v>17</v>
+      </c>
+      <c r="N169" s="5" t="s">
+        <v>430</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/catalogo_musical.xlsx
+++ b/catalogo_musical.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9D20DAA13162C28C/Documentos/Catalogo Musical/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9d20daa13162c28c/Documentos/Catalogo Musical/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="14_{CE13B5D7-EE44-4315-9635-51EC6F027BD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="619" documentId="14_{CE13B5D7-EE44-4315-9635-51EC6F027BD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{81D3CADA-CDCE-46DE-AF5E-A4E044CB22C8}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2004" uniqueCount="433">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3357" uniqueCount="646">
   <si>
     <t>Álbum</t>
   </si>
@@ -1323,6 +1323,646 @@
   </si>
   <si>
     <t xml:space="preserve">Héctor Lavoe &amp; Willie Colón </t>
+  </si>
+  <si>
+    <t>6:50</t>
+  </si>
+  <si>
+    <t>3:28</t>
+  </si>
+  <si>
+    <t>No me digan que es muy tarde</t>
+  </si>
+  <si>
+    <t>Sin poderte hablar</t>
+  </si>
+  <si>
+    <t>5:20</t>
+  </si>
+  <si>
+    <t>Amor verdadero</t>
+  </si>
+  <si>
+    <t>Gitana</t>
+  </si>
+  <si>
+    <t>The Best - Willie Colon</t>
+  </si>
+  <si>
+    <t>Omar Alfano</t>
+  </si>
+  <si>
+    <t>José Nogueras</t>
+  </si>
+  <si>
+    <t>Eddie Grant</t>
+  </si>
+  <si>
+    <t>Willie Colón &amp; Héctor Lavoe</t>
+  </si>
+  <si>
+    <t>Manzanita</t>
+  </si>
+  <si>
+    <t>CDZ-80747</t>
+  </si>
+  <si>
+    <t>Ismael Miranda</t>
+  </si>
+  <si>
+    <t>Celia Cruz</t>
+  </si>
+  <si>
+    <t>Globo Records</t>
+  </si>
+  <si>
+    <t>Manufacturado y distribuido por SONY DISCOS INC.</t>
+  </si>
+  <si>
+    <t>La Experiencia - Willie Colon</t>
+  </si>
+  <si>
+    <t>Oh que sera?</t>
+  </si>
+  <si>
+    <t>Usted abusó</t>
+  </si>
+  <si>
+    <t>Ah Ah o no!</t>
+  </si>
+  <si>
+    <t>El gran varón</t>
+  </si>
+  <si>
+    <t>Casanova</t>
+  </si>
+  <si>
+    <t>A Papa</t>
+  </si>
+  <si>
+    <t>Che Che Colé</t>
+  </si>
+  <si>
+    <t>Cartas marcadas</t>
+  </si>
+  <si>
+    <t>6:08</t>
+  </si>
+  <si>
+    <t>4:14</t>
+  </si>
+  <si>
+    <t>Chico Buarque</t>
+  </si>
+  <si>
+    <t>Antonio Carlos/Jose Figueredo</t>
+  </si>
+  <si>
+    <t>Jose Ortega</t>
+  </si>
+  <si>
+    <t>S. Krief</t>
+  </si>
+  <si>
+    <t>6:47</t>
+  </si>
+  <si>
+    <t>3:41</t>
+  </si>
+  <si>
+    <t>6:51</t>
+  </si>
+  <si>
+    <t>4:06</t>
+  </si>
+  <si>
+    <t>6:14</t>
+  </si>
+  <si>
+    <t>VS-23</t>
+  </si>
+  <si>
+    <t>Me la gozo entera</t>
+  </si>
+  <si>
+    <t>Comadrita</t>
+  </si>
+  <si>
+    <t>Felicidades</t>
+  </si>
+  <si>
+    <t>Aleluya de los campos</t>
+  </si>
+  <si>
+    <t>La Fiesta</t>
+  </si>
+  <si>
+    <t>El Parrandero</t>
+  </si>
+  <si>
+    <t>A las alegres campanas</t>
+  </si>
+  <si>
+    <t>Mañana Boricua</t>
+  </si>
+  <si>
+    <t>Pa la gente Panameña</t>
+  </si>
+  <si>
+    <t>Cheo Feliciano</t>
+  </si>
+  <si>
+    <t>Producido por C. Curet Alonso &amp; Jerry Masucci, Director de grabación: Jonny Pacheco</t>
+  </si>
+  <si>
+    <t>Producido por Willie Colón/Coordinador y supervisor de producción: Victor Gallo</t>
+  </si>
+  <si>
+    <t>Wito Gonzalez</t>
+  </si>
+  <si>
+    <t>Raul Marrero</t>
+  </si>
+  <si>
+    <t>5:01</t>
+  </si>
+  <si>
+    <t>3:56</t>
+  </si>
+  <si>
+    <t>4:13</t>
+  </si>
+  <si>
+    <t>5:06</t>
+  </si>
+  <si>
+    <t>3:01</t>
+  </si>
+  <si>
+    <t>2:22</t>
+  </si>
+  <si>
+    <t>5:03</t>
+  </si>
+  <si>
+    <t>CDZ-81186</t>
+  </si>
+  <si>
+    <t>The Best</t>
+  </si>
+  <si>
+    <t>Juguete</t>
+  </si>
+  <si>
+    <t>Nabori</t>
+  </si>
+  <si>
+    <t>Delirio</t>
+  </si>
+  <si>
+    <t>Salome</t>
+  </si>
+  <si>
+    <t>Si por mi llueve</t>
+  </si>
+  <si>
+    <t>Anacaona</t>
+  </si>
+  <si>
+    <t>Trizas</t>
+  </si>
+  <si>
+    <t>Sali porque Sali</t>
+  </si>
+  <si>
+    <t>Contigo en la distancia</t>
+  </si>
+  <si>
+    <t>Castillos de arena</t>
+  </si>
+  <si>
+    <t>Nuestras vidas</t>
+  </si>
+  <si>
+    <t>Los entierros</t>
+  </si>
+  <si>
+    <t>Amada mia</t>
+  </si>
+  <si>
+    <t>Sobre una tumba humilde</t>
+  </si>
+  <si>
+    <t>4:18</t>
+  </si>
+  <si>
+    <t>3:52</t>
+  </si>
+  <si>
+    <t>4:36</t>
+  </si>
+  <si>
+    <t>3:18</t>
+  </si>
+  <si>
+    <t>6:24</t>
+  </si>
+  <si>
+    <t>4:53</t>
+  </si>
+  <si>
+    <t>4:43</t>
+  </si>
+  <si>
+    <t>Portillo de la luz</t>
+  </si>
+  <si>
+    <t>Orlando De La Rosa</t>
+  </si>
+  <si>
+    <t>Oportunidad</t>
+  </si>
+  <si>
+    <t>Sin ti</t>
+  </si>
+  <si>
+    <t>El Ratón</t>
+  </si>
+  <si>
+    <t>Señor Sereno</t>
+  </si>
+  <si>
+    <t>Todo de mi</t>
+  </si>
+  <si>
+    <t>Palo monte</t>
+  </si>
+  <si>
+    <t>Las mujeres son</t>
+  </si>
+  <si>
+    <t>Estoy solo</t>
+  </si>
+  <si>
+    <t>Yambu pa' gozar</t>
+  </si>
+  <si>
+    <t>Confidencia</t>
+  </si>
+  <si>
+    <t>La oportunidad</t>
+  </si>
+  <si>
+    <t>SLP 00419</t>
+  </si>
+  <si>
+    <t>Producido por: Larry Harlow</t>
+  </si>
+  <si>
+    <t>4:29</t>
+  </si>
+  <si>
+    <t>Vicentico Valdés</t>
+  </si>
+  <si>
+    <t>Entre este mundo y Dios</t>
+  </si>
+  <si>
+    <t>Plazos traicioneros</t>
+  </si>
+  <si>
+    <t>Eres feliz</t>
+  </si>
+  <si>
+    <t>Qué sabes tu?</t>
+  </si>
+  <si>
+    <t>Ha surgido un amor</t>
+  </si>
+  <si>
+    <t>Te compro mi libertad</t>
+  </si>
+  <si>
+    <t>Fidelidad</t>
+  </si>
+  <si>
+    <t>Conversación en tiempo de bolero</t>
+  </si>
+  <si>
+    <t>Derroche de felicidad</t>
+  </si>
+  <si>
+    <t>Todo eso y más</t>
+  </si>
+  <si>
+    <t>Mapeyé</t>
+  </si>
+  <si>
+    <t>Vicentico Valdés y la Orquesta Bobby Valentín</t>
+  </si>
+  <si>
+    <t>Bobby Valentín</t>
+  </si>
+  <si>
+    <t>Bronco Records</t>
+  </si>
+  <si>
+    <t>Bronco 121</t>
+  </si>
+  <si>
+    <t>3:37</t>
+  </si>
+  <si>
+    <t>2:52</t>
+  </si>
+  <si>
+    <t>3:03</t>
+  </si>
+  <si>
+    <t>3:48</t>
+  </si>
+  <si>
+    <t>René Touzet</t>
+  </si>
+  <si>
+    <t>Luis Marquetti</t>
+  </si>
+  <si>
+    <t>Myrta Silva</t>
+  </si>
+  <si>
+    <t>Carmelina Lopez</t>
+  </si>
+  <si>
+    <t>Chiquitin Garcia</t>
+  </si>
+  <si>
+    <t>Polito y Vera</t>
+  </si>
+  <si>
+    <t>Jorge Zamora</t>
+  </si>
+  <si>
+    <t>Rudy Calzado</t>
+  </si>
+  <si>
+    <t>La boda de ella</t>
+  </si>
+  <si>
+    <t>Massa - Massa</t>
+  </si>
+  <si>
+    <t>Ingratitudes</t>
+  </si>
+  <si>
+    <t>Libro de amor</t>
+  </si>
+  <si>
+    <t>Muneco de la ciudad</t>
+  </si>
+  <si>
+    <t>Post data</t>
+  </si>
+  <si>
+    <t>Canta mi gallo</t>
+  </si>
+  <si>
+    <t>Más bajo</t>
+  </si>
+  <si>
+    <t>Tito Puente</t>
+  </si>
+  <si>
+    <t>Roberto Angleró</t>
+  </si>
+  <si>
+    <t>Israel Pérez</t>
+  </si>
+  <si>
+    <t>Adrian Pérez</t>
+  </si>
+  <si>
+    <t>Bronco 107</t>
+  </si>
+  <si>
+    <t>Producido por: Bobby Valentín / Arreglos: Bobby Valentín y Ray Santos</t>
+  </si>
+  <si>
+    <t>5:40</t>
+  </si>
+  <si>
+    <t>4:54</t>
+  </si>
+  <si>
+    <t>Bobby Valentín - La boda de ella</t>
+  </si>
+  <si>
+    <t>Carlos (Cano) Estremera</t>
+  </si>
+  <si>
+    <t>Johnny Vasquez</t>
+  </si>
+  <si>
+    <t>5:42</t>
+  </si>
+  <si>
+    <t>6:02</t>
+  </si>
+  <si>
+    <t>6:46</t>
+  </si>
+  <si>
+    <t>5:24</t>
+  </si>
+  <si>
+    <t>Indestructible</t>
+  </si>
+  <si>
+    <t>5:19</t>
+  </si>
+  <si>
+    <t>Si las vacas volaran</t>
+  </si>
+  <si>
+    <t>4:33</t>
+  </si>
+  <si>
+    <t>No me quieras tanto</t>
+  </si>
+  <si>
+    <t>3:02</t>
+  </si>
+  <si>
+    <t>La espinita</t>
+  </si>
+  <si>
+    <t>5:55</t>
+  </si>
+  <si>
+    <t>Manuel Garcia</t>
+  </si>
+  <si>
+    <t>6:55</t>
+  </si>
+  <si>
+    <t>Delirio de grandeza</t>
+  </si>
+  <si>
+    <t>Ayer te vi con otro</t>
+  </si>
+  <si>
+    <t>Cayó el telón</t>
+  </si>
+  <si>
+    <t>Callate corazón</t>
+  </si>
+  <si>
+    <t>Bronco 111</t>
+  </si>
+  <si>
+    <t>Fernandez-Raina</t>
+  </si>
+  <si>
+    <t>Chucho Valdez, Luis Yanez</t>
+  </si>
+  <si>
+    <t>Chapuseaux</t>
+  </si>
+  <si>
+    <t>Henry Arana</t>
+  </si>
+  <si>
+    <t>Ñico Jimenez</t>
+  </si>
+  <si>
+    <t>Si me caso mejoro</t>
+  </si>
+  <si>
+    <t>4:59</t>
+  </si>
+  <si>
+    <t>Quiero darte mi amor</t>
+  </si>
+  <si>
+    <t>4:35</t>
+  </si>
+  <si>
+    <t>Mi amistad pa' el bailador</t>
+  </si>
+  <si>
+    <t>Ya lo puedes decir</t>
+  </si>
+  <si>
+    <t>El Gato</t>
+  </si>
+  <si>
+    <t>4:39</t>
+  </si>
+  <si>
+    <t>No quiero morirme todavia</t>
+  </si>
+  <si>
+    <t>La mujer y la primavera</t>
+  </si>
+  <si>
+    <t>5:07</t>
+  </si>
+  <si>
+    <t>Hasta cuando amigo mio</t>
+  </si>
+  <si>
+    <t>5:13</t>
+  </si>
+  <si>
+    <t>Asi Asi</t>
+  </si>
+  <si>
+    <t>Bobby Valentín - El Gato</t>
+  </si>
+  <si>
+    <t>Bronco 114</t>
+  </si>
+  <si>
+    <t>Zulma Angélica</t>
+  </si>
+  <si>
+    <t>Julio Cuevas</t>
+  </si>
+  <si>
+    <t>Raquel Velazquez</t>
+  </si>
+  <si>
+    <t>Rafael Warner</t>
+  </si>
+  <si>
+    <t>Cuando uno se enamora</t>
+  </si>
+  <si>
+    <t>Tu rica boca</t>
+  </si>
+  <si>
+    <t>La Tinajita</t>
+  </si>
+  <si>
+    <t>El prendedor</t>
+  </si>
+  <si>
+    <t>Donde ira?</t>
+  </si>
+  <si>
+    <t>No me conoces</t>
+  </si>
+  <si>
+    <t>La Gitana</t>
+  </si>
+  <si>
+    <t>Los celos de Maria</t>
+  </si>
+  <si>
+    <t>4:48</t>
+  </si>
+  <si>
+    <t>6:11</t>
+  </si>
+  <si>
+    <t>Bronco 120</t>
+  </si>
+  <si>
+    <t>Bobby Valentín - Siempre en forma</t>
+  </si>
+  <si>
+    <t>Angel Santiago</t>
+  </si>
+  <si>
+    <t>Bobby Valentín &amp; Cano Estremera
+"Unico en su clase"</t>
+  </si>
+  <si>
+    <t>Awilda</t>
+  </si>
+  <si>
+    <t>El compromiso</t>
+  </si>
+  <si>
+    <t>El caiman</t>
+  </si>
+  <si>
+    <t>El muneco de la ciudad</t>
+  </si>
+  <si>
+    <t>Que te pasó?</t>
+  </si>
+  <si>
+    <t>Bronco 167</t>
+  </si>
+  <si>
+    <t>Simón Diaz</t>
+  </si>
+  <si>
+    <t>Benjamin Muñiz</t>
+  </si>
+  <si>
+    <t>Tito Rodriguez &amp; J. Ramirez</t>
   </si>
 </sst>
 </file>
@@ -1387,7 +2027,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1406,6 +2046,9 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1715,15 +2358,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N169"/>
+  <dimension ref="A1:N288"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A159" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C140" sqref="C140"/>
+    <sheetView tabSelected="1" topLeftCell="A135" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B147" sqref="B147"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="30.36328125" customWidth="1"/>
+    <col min="1" max="1" width="39.90625" customWidth="1"/>
     <col min="2" max="2" width="29.26953125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="30.1796875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.7265625" style="3"/>
@@ -9093,6 +9736,5060 @@
         <v>430</v>
       </c>
     </row>
+    <row r="170" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A170" s="4" t="s">
+        <v>440</v>
+      </c>
+      <c r="B170" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="C170" s="5" t="s">
+        <v>455</v>
+      </c>
+      <c r="D170" s="3" t="s">
+        <v>433</v>
+      </c>
+      <c r="E170" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="F170" s="5" t="s">
+        <v>441</v>
+      </c>
+      <c r="G170" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="H170" s="5">
+        <v>1992</v>
+      </c>
+      <c r="I170" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="J170" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="K170" s="5" t="s">
+        <v>446</v>
+      </c>
+      <c r="L170" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="M170" s="5">
+        <v>18</v>
+      </c>
+      <c r="N170" s="5" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="171" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A171" s="4" t="s">
+        <v>440</v>
+      </c>
+      <c r="B171" t="s">
+        <v>25</v>
+      </c>
+      <c r="C171" s="5" t="s">
+        <v>458</v>
+      </c>
+      <c r="D171" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="E171" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="F171" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="G171" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="H171" s="5">
+        <v>1992</v>
+      </c>
+      <c r="I171" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="J171" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="K171" s="5" t="s">
+        <v>446</v>
+      </c>
+      <c r="L171" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="M171" s="5">
+        <v>18</v>
+      </c>
+      <c r="N171" s="5" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="172" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A172" s="4" t="s">
+        <v>440</v>
+      </c>
+      <c r="B172" s="5" t="s">
+        <v>447</v>
+      </c>
+      <c r="C172" s="5" t="s">
+        <v>435</v>
+      </c>
+      <c r="D172" s="3" t="s">
+        <v>433</v>
+      </c>
+      <c r="E172" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="F172" s="5" t="s">
+        <v>442</v>
+      </c>
+      <c r="G172" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="H172" s="5">
+        <v>1992</v>
+      </c>
+      <c r="I172" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="J172" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="K172" s="5" t="s">
+        <v>446</v>
+      </c>
+      <c r="L172" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="M172" s="5">
+        <v>18</v>
+      </c>
+      <c r="N172" s="5" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="173" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A173" s="4" t="s">
+        <v>440</v>
+      </c>
+      <c r="B173" t="s">
+        <v>25</v>
+      </c>
+      <c r="C173" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="D173" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="E173" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="F173" t="s">
+        <v>25</v>
+      </c>
+      <c r="G173" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="H173" s="5">
+        <v>1992</v>
+      </c>
+      <c r="I173" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="J173" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="K173" s="5" t="s">
+        <v>446</v>
+      </c>
+      <c r="L173" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="M173" s="5">
+        <v>18</v>
+      </c>
+      <c r="N173" s="5" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="174" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A174" s="4" t="s">
+        <v>440</v>
+      </c>
+      <c r="B174" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="C174" s="5" t="s">
+        <v>452</v>
+      </c>
+      <c r="D174" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="E174" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="F174" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="G174" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="H174" s="5">
+        <v>1992</v>
+      </c>
+      <c r="I174" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="J174" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="K174" s="5" t="s">
+        <v>446</v>
+      </c>
+      <c r="L174" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="M174" s="5">
+        <v>18</v>
+      </c>
+      <c r="N174" s="5" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="175" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A175" s="4" t="s">
+        <v>440</v>
+      </c>
+      <c r="B175" t="s">
+        <v>25</v>
+      </c>
+      <c r="C175" s="5" t="s">
+        <v>454</v>
+      </c>
+      <c r="D175" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="E175" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="F175" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="G175" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="H175" s="5">
+        <v>1992</v>
+      </c>
+      <c r="I175" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="J175" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="K175" s="5" t="s">
+        <v>446</v>
+      </c>
+      <c r="L175" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="M175" s="5">
+        <v>18</v>
+      </c>
+      <c r="N175" s="5" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="176" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A176" s="4" t="s">
+        <v>440</v>
+      </c>
+      <c r="B176" s="5" t="s">
+        <v>448</v>
+      </c>
+      <c r="C176" s="5" t="s">
+        <v>453</v>
+      </c>
+      <c r="D176" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="E176" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="F176" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="G176" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="H176" s="5">
+        <v>1992</v>
+      </c>
+      <c r="I176" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="J176" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="K176" s="5" t="s">
+        <v>446</v>
+      </c>
+      <c r="L176" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="M176" s="5">
+        <v>18</v>
+      </c>
+      <c r="N176" s="5" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="177" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A177" s="4" t="s">
+        <v>440</v>
+      </c>
+      <c r="B177" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="C177" s="5" t="s">
+        <v>436</v>
+      </c>
+      <c r="D177" s="3" t="s">
+        <v>437</v>
+      </c>
+      <c r="E177" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="F177" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="G177" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="H177" s="5">
+        <v>1992</v>
+      </c>
+      <c r="I177" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="J177" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="K177" s="5" t="s">
+        <v>446</v>
+      </c>
+      <c r="L177" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="M177" s="5">
+        <v>18</v>
+      </c>
+      <c r="N177" s="5" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="178" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A178" s="4" t="s">
+        <v>440</v>
+      </c>
+      <c r="B178" t="s">
+        <v>25</v>
+      </c>
+      <c r="C178" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="D178" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="E178" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="F178" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="G178" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="H178" s="5">
+        <v>1992</v>
+      </c>
+      <c r="I178" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="J178" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="K178" s="5" t="s">
+        <v>446</v>
+      </c>
+      <c r="L178" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="M178" s="5">
+        <v>18</v>
+      </c>
+      <c r="N178" s="5" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="179" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A179" s="4" t="s">
+        <v>440</v>
+      </c>
+      <c r="B179" t="s">
+        <v>25</v>
+      </c>
+      <c r="C179" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="D179" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="E179" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="F179" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="G179" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="H179" s="5">
+        <v>1992</v>
+      </c>
+      <c r="I179" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="J179" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="K179" s="5" t="s">
+        <v>446</v>
+      </c>
+      <c r="L179" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="M179" s="5">
+        <v>18</v>
+      </c>
+      <c r="N179" s="5" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="180" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A180" s="4" t="s">
+        <v>440</v>
+      </c>
+      <c r="B180" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="C180" s="5" t="s">
+        <v>438</v>
+      </c>
+      <c r="D180" s="3" t="s">
+        <v>437</v>
+      </c>
+      <c r="E180" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="F180" s="5" t="s">
+        <v>443</v>
+      </c>
+      <c r="G180" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="H180" s="5">
+        <v>1992</v>
+      </c>
+      <c r="I180" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="J180" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="K180" s="5" t="s">
+        <v>446</v>
+      </c>
+      <c r="L180" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="M180" s="5">
+        <v>18</v>
+      </c>
+      <c r="N180" s="5" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="181" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A181" s="4" t="s">
+        <v>440</v>
+      </c>
+      <c r="B181" t="s">
+        <v>25</v>
+      </c>
+      <c r="C181" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="D181" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="E181" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="F181" s="5" t="s">
+        <v>444</v>
+      </c>
+      <c r="G181" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="H181" s="5">
+        <v>1992</v>
+      </c>
+      <c r="I181" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="J181" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="K181" s="5" t="s">
+        <v>446</v>
+      </c>
+      <c r="L181" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="M181" s="5">
+        <v>18</v>
+      </c>
+      <c r="N181" s="5" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="182" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A182" s="4" t="s">
+        <v>440</v>
+      </c>
+      <c r="B182" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="C182" s="5" t="s">
+        <v>439</v>
+      </c>
+      <c r="D182" s="3" t="s">
+        <v>433</v>
+      </c>
+      <c r="E182" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="F182" s="5" t="s">
+        <v>445</v>
+      </c>
+      <c r="G182" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="H182" s="5">
+        <v>1992</v>
+      </c>
+      <c r="I182" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="J182" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="K182" s="5" t="s">
+        <v>446</v>
+      </c>
+      <c r="L182" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="M182" s="5">
+        <v>18</v>
+      </c>
+      <c r="N182" s="5" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="183" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A183" s="4" t="s">
+        <v>440</v>
+      </c>
+      <c r="B183" t="s">
+        <v>25</v>
+      </c>
+      <c r="C183" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="D183" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="E183" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="F183" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="G183" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="H183" s="5">
+        <v>1992</v>
+      </c>
+      <c r="I183" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="J183" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="K183" s="5" t="s">
+        <v>446</v>
+      </c>
+      <c r="L183" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="M183" s="5">
+        <v>18</v>
+      </c>
+      <c r="N183" s="5" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="184" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A184" s="4" t="s">
+        <v>451</v>
+      </c>
+      <c r="B184" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="C184" s="5" t="s">
+        <v>438</v>
+      </c>
+      <c r="D184" s="3" t="s">
+        <v>421</v>
+      </c>
+      <c r="E184" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="F184" s="5" t="s">
+        <v>443</v>
+      </c>
+      <c r="G184" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="H184" s="5">
+        <v>2003</v>
+      </c>
+      <c r="I184" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="J184" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="K184" s="7">
+        <v>782</v>
+      </c>
+      <c r="L184" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="M184" s="5">
+        <v>19</v>
+      </c>
+      <c r="N184" s="5" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="185" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A185" s="4" t="s">
+        <v>451</v>
+      </c>
+      <c r="B185" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="C185" s="5" t="s">
+        <v>436</v>
+      </c>
+      <c r="D185" s="3" t="s">
+        <v>427</v>
+      </c>
+      <c r="E185" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="F185" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="G185" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="H185" s="5">
+        <v>2003</v>
+      </c>
+      <c r="I185" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="J185" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="K185" s="7">
+        <v>782</v>
+      </c>
+      <c r="L185" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="M185" s="5">
+        <v>19</v>
+      </c>
+      <c r="N185" s="5" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="186" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A186" s="4" t="s">
+        <v>451</v>
+      </c>
+      <c r="B186" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="C186" s="5" t="s">
+        <v>452</v>
+      </c>
+      <c r="D186" s="3" t="s">
+        <v>460</v>
+      </c>
+      <c r="E186" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="F186" s="5" t="s">
+        <v>462</v>
+      </c>
+      <c r="G186" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="H186" s="5">
+        <v>2003</v>
+      </c>
+      <c r="I186" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="J186" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="K186" s="7">
+        <v>782</v>
+      </c>
+      <c r="L186" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="M186" s="5">
+        <v>19</v>
+      </c>
+      <c r="N186" s="5" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="187" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A187" s="4" t="s">
+        <v>451</v>
+      </c>
+      <c r="B187" s="5" t="s">
+        <v>448</v>
+      </c>
+      <c r="C187" s="5" t="s">
+        <v>453</v>
+      </c>
+      <c r="D187" s="3" t="s">
+        <v>461</v>
+      </c>
+      <c r="E187" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="F187" s="5" t="s">
+        <v>463</v>
+      </c>
+      <c r="G187" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="H187" s="5">
+        <v>2003</v>
+      </c>
+      <c r="I187" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="J187" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="K187" s="7">
+        <v>782</v>
+      </c>
+      <c r="L187" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="M187" s="5">
+        <v>19</v>
+      </c>
+      <c r="N187" s="5" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="188" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A188" s="4" t="s">
+        <v>451</v>
+      </c>
+      <c r="B188" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="C188" s="5" t="s">
+        <v>439</v>
+      </c>
+      <c r="D188" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="E188" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="F188" s="5" t="s">
+        <v>464</v>
+      </c>
+      <c r="G188" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="H188" s="5">
+        <v>2003</v>
+      </c>
+      <c r="I188" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="J188" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="K188" s="7">
+        <v>782</v>
+      </c>
+      <c r="L188" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="M188" s="5">
+        <v>19</v>
+      </c>
+      <c r="N188" s="5" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="189" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A189" s="4" t="s">
+        <v>451</v>
+      </c>
+      <c r="B189" t="s">
+        <v>25</v>
+      </c>
+      <c r="C189" s="5" t="s">
+        <v>454</v>
+      </c>
+      <c r="D189" s="3" t="s">
+        <v>467</v>
+      </c>
+      <c r="E189" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="F189" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="G189" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="H189" s="5">
+        <v>2003</v>
+      </c>
+      <c r="I189" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="J189" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="K189" s="7">
+        <v>782</v>
+      </c>
+      <c r="L189" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="M189" s="5">
+        <v>19</v>
+      </c>
+      <c r="N189" s="5" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="190" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A190" s="4" t="s">
+        <v>451</v>
+      </c>
+      <c r="B190" s="5" t="s">
+        <v>447</v>
+      </c>
+      <c r="C190" s="5" t="s">
+        <v>435</v>
+      </c>
+      <c r="D190" s="3" t="s">
+        <v>468</v>
+      </c>
+      <c r="E190" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="F190" s="5" t="s">
+        <v>442</v>
+      </c>
+      <c r="G190" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="H190" s="5">
+        <v>2003</v>
+      </c>
+      <c r="I190" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="J190" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="K190" s="7">
+        <v>782</v>
+      </c>
+      <c r="L190" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="M190" s="5">
+        <v>19</v>
+      </c>
+      <c r="N190" s="5" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="191" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A191" s="4" t="s">
+        <v>451</v>
+      </c>
+      <c r="B191" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="C191" s="5" t="s">
+        <v>455</v>
+      </c>
+      <c r="D191" s="3" t="s">
+        <v>468</v>
+      </c>
+      <c r="E191" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="F191" s="5" t="s">
+        <v>441</v>
+      </c>
+      <c r="G191" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="H191" s="5">
+        <v>2003</v>
+      </c>
+      <c r="I191" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="J191" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="K191" s="7">
+        <v>782</v>
+      </c>
+      <c r="L191" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="M191" s="5">
+        <v>19</v>
+      </c>
+      <c r="N191" s="5" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="192" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A192" s="4" t="s">
+        <v>451</v>
+      </c>
+      <c r="B192" t="s">
+        <v>25</v>
+      </c>
+      <c r="C192" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="D192" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="E192" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="F192" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="G192" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="H192" s="5">
+        <v>2003</v>
+      </c>
+      <c r="I192" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="J192" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="K192" s="7">
+        <v>782</v>
+      </c>
+      <c r="L192" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="M192" s="5">
+        <v>19</v>
+      </c>
+      <c r="N192" s="5" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="193" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A193" s="4" t="s">
+        <v>451</v>
+      </c>
+      <c r="B193" t="s">
+        <v>25</v>
+      </c>
+      <c r="C193" s="5" t="s">
+        <v>458</v>
+      </c>
+      <c r="D193" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="E193" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="F193" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="G193" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="H193" s="5">
+        <v>2003</v>
+      </c>
+      <c r="I193" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="J193" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="K193" s="7">
+        <v>782</v>
+      </c>
+      <c r="L193" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="M193" s="5">
+        <v>19</v>
+      </c>
+      <c r="N193" s="5" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="194" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A194" s="4" t="s">
+        <v>451</v>
+      </c>
+      <c r="B194" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="C194" s="5" t="s">
+        <v>456</v>
+      </c>
+      <c r="D194" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="E194" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="F194" s="5" t="s">
+        <v>465</v>
+      </c>
+      <c r="G194" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="H194" s="5">
+        <v>2003</v>
+      </c>
+      <c r="I194" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="J194" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="K194" s="7">
+        <v>782</v>
+      </c>
+      <c r="L194" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="M194" s="5">
+        <v>19</v>
+      </c>
+      <c r="N194" s="5" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="195" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A195" s="4" t="s">
+        <v>451</v>
+      </c>
+      <c r="C195" s="5" t="s">
+        <v>367</v>
+      </c>
+      <c r="D195" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="E195" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="F195" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="G195" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="H195" s="5">
+        <v>2003</v>
+      </c>
+      <c r="I195" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="J195" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="K195" s="7">
+        <v>782</v>
+      </c>
+      <c r="L195" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="M195" s="5">
+        <v>19</v>
+      </c>
+      <c r="N195" s="5" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="196" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A196" s="4" t="s">
+        <v>451</v>
+      </c>
+      <c r="C196" s="5" t="s">
+        <v>457</v>
+      </c>
+      <c r="D196" s="3" t="s">
+        <v>469</v>
+      </c>
+      <c r="E196" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="F196" s="5" t="s">
+        <v>386</v>
+      </c>
+      <c r="G196" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="H196" s="5">
+        <v>2003</v>
+      </c>
+      <c r="I196" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="J196" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="K196" s="7">
+        <v>782</v>
+      </c>
+      <c r="L196" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="M196" s="5">
+        <v>19</v>
+      </c>
+      <c r="N196" s="5" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="197" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A197" s="4" t="s">
+        <v>451</v>
+      </c>
+      <c r="C197" s="5" t="s">
+        <v>459</v>
+      </c>
+      <c r="D197" s="3" t="s">
+        <v>470</v>
+      </c>
+      <c r="E197" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="F197" s="5" t="s">
+        <v>447</v>
+      </c>
+      <c r="G197" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="H197" s="5">
+        <v>2003</v>
+      </c>
+      <c r="I197" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="J197" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="K197" s="7">
+        <v>782</v>
+      </c>
+      <c r="L197" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="M197" s="5">
+        <v>19</v>
+      </c>
+      <c r="N197" s="5" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="198" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A198" s="4" t="s">
+        <v>474</v>
+      </c>
+      <c r="B198" t="s">
+        <v>481</v>
+      </c>
+      <c r="C198" s="5" t="s">
+        <v>543</v>
+      </c>
+      <c r="D198" s="3" t="s">
+        <v>486</v>
+      </c>
+      <c r="E198" s="5" t="s">
+        <v>481</v>
+      </c>
+      <c r="F198" s="5" t="s">
+        <v>481</v>
+      </c>
+      <c r="G198" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="H198" s="5">
+        <v>1973</v>
+      </c>
+      <c r="I198" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="J198" s="5" t="s">
+        <v>387</v>
+      </c>
+      <c r="K198" t="s">
+        <v>471</v>
+      </c>
+      <c r="L198" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="M198" s="5">
+        <v>20</v>
+      </c>
+      <c r="N198" s="5" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="199" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A199" s="4" t="s">
+        <v>474</v>
+      </c>
+      <c r="B199" t="s">
+        <v>481</v>
+      </c>
+      <c r="C199" s="5" t="s">
+        <v>472</v>
+      </c>
+      <c r="D199" s="3" t="s">
+        <v>487</v>
+      </c>
+      <c r="E199" s="5" t="s">
+        <v>481</v>
+      </c>
+      <c r="F199" s="5" t="s">
+        <v>481</v>
+      </c>
+      <c r="G199" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="H199" s="5">
+        <v>1973</v>
+      </c>
+      <c r="I199" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="J199" s="5" t="s">
+        <v>387</v>
+      </c>
+      <c r="K199" t="s">
+        <v>471</v>
+      </c>
+      <c r="L199" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="M199" s="5">
+        <v>20</v>
+      </c>
+      <c r="N199" s="5" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="200" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A200" s="4" t="s">
+        <v>474</v>
+      </c>
+      <c r="B200" t="s">
+        <v>481</v>
+      </c>
+      <c r="C200" s="5" t="s">
+        <v>473</v>
+      </c>
+      <c r="D200" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="E200" s="5" t="s">
+        <v>481</v>
+      </c>
+      <c r="F200" s="5" t="s">
+        <v>484</v>
+      </c>
+      <c r="G200" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="H200" s="5">
+        <v>1973</v>
+      </c>
+      <c r="I200" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="J200" s="5" t="s">
+        <v>387</v>
+      </c>
+      <c r="K200" t="s">
+        <v>471</v>
+      </c>
+      <c r="L200" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="M200" s="5">
+        <v>20</v>
+      </c>
+      <c r="N200" s="5" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="201" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A201" s="4" t="s">
+        <v>474</v>
+      </c>
+      <c r="B201" t="s">
+        <v>481</v>
+      </c>
+      <c r="C201" s="5" t="s">
+        <v>474</v>
+      </c>
+      <c r="D201" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="E201" s="5" t="s">
+        <v>481</v>
+      </c>
+      <c r="F201" s="5" t="s">
+        <v>485</v>
+      </c>
+      <c r="G201" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="H201" s="5">
+        <v>1973</v>
+      </c>
+      <c r="I201" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="J201" s="5" t="s">
+        <v>387</v>
+      </c>
+      <c r="K201" t="s">
+        <v>471</v>
+      </c>
+      <c r="L201" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="M201" s="5">
+        <v>20</v>
+      </c>
+      <c r="N201" s="5" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="202" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A202" s="4" t="s">
+        <v>474</v>
+      </c>
+      <c r="B202" t="s">
+        <v>481</v>
+      </c>
+      <c r="C202" s="5" t="s">
+        <v>475</v>
+      </c>
+      <c r="D202" s="3" t="s">
+        <v>488</v>
+      </c>
+      <c r="E202" s="5" t="s">
+        <v>481</v>
+      </c>
+      <c r="F202" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="G202" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="H202" s="5">
+        <v>1973</v>
+      </c>
+      <c r="I202" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="J202" s="5" t="s">
+        <v>387</v>
+      </c>
+      <c r="K202" t="s">
+        <v>471</v>
+      </c>
+      <c r="L202" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="M202" s="5">
+        <v>20</v>
+      </c>
+      <c r="N202" s="5" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="203" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A203" s="4" t="s">
+        <v>474</v>
+      </c>
+      <c r="B203" t="s">
+        <v>481</v>
+      </c>
+      <c r="C203" s="5" t="s">
+        <v>480</v>
+      </c>
+      <c r="D203" s="3" t="s">
+        <v>489</v>
+      </c>
+      <c r="E203" s="5" t="s">
+        <v>481</v>
+      </c>
+      <c r="F203" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="G203" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="H203" s="5">
+        <v>1973</v>
+      </c>
+      <c r="I203" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="J203" s="5" t="s">
+        <v>387</v>
+      </c>
+      <c r="K203" t="s">
+        <v>471</v>
+      </c>
+      <c r="L203" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="M203" s="5">
+        <v>20</v>
+      </c>
+      <c r="N203" s="5" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="204" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A204" s="4" t="s">
+        <v>474</v>
+      </c>
+      <c r="B204" t="s">
+        <v>481</v>
+      </c>
+      <c r="C204" s="5" t="s">
+        <v>479</v>
+      </c>
+      <c r="D204" s="3" t="s">
+        <v>490</v>
+      </c>
+      <c r="E204" s="5" t="s">
+        <v>481</v>
+      </c>
+      <c r="F204" s="5" t="s">
+        <v>484</v>
+      </c>
+      <c r="G204" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="H204" s="5">
+        <v>1973</v>
+      </c>
+      <c r="I204" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="J204" s="5" t="s">
+        <v>387</v>
+      </c>
+      <c r="K204" t="s">
+        <v>471</v>
+      </c>
+      <c r="L204" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="M204" s="5">
+        <v>20</v>
+      </c>
+      <c r="N204" s="5" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="205" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A205" s="4" t="s">
+        <v>474</v>
+      </c>
+      <c r="B205" t="s">
+        <v>481</v>
+      </c>
+      <c r="C205" s="5" t="s">
+        <v>476</v>
+      </c>
+      <c r="D205" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="E205" s="5" t="s">
+        <v>481</v>
+      </c>
+      <c r="F205" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="G205" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="H205" s="5">
+        <v>1973</v>
+      </c>
+      <c r="I205" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="J205" s="5" t="s">
+        <v>387</v>
+      </c>
+      <c r="K205" t="s">
+        <v>471</v>
+      </c>
+      <c r="L205" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="M205" s="5">
+        <v>20</v>
+      </c>
+      <c r="N205" s="5" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="206" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A206" s="4" t="s">
+        <v>474</v>
+      </c>
+      <c r="B206" t="s">
+        <v>481</v>
+      </c>
+      <c r="C206" s="5" t="s">
+        <v>477</v>
+      </c>
+      <c r="D206" s="3" t="s">
+        <v>491</v>
+      </c>
+      <c r="E206" s="5" t="s">
+        <v>481</v>
+      </c>
+      <c r="F206" s="5" t="s">
+        <v>484</v>
+      </c>
+      <c r="G206" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="H206" s="5">
+        <v>1973</v>
+      </c>
+      <c r="I206" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="J206" s="5" t="s">
+        <v>387</v>
+      </c>
+      <c r="K206" t="s">
+        <v>471</v>
+      </c>
+      <c r="L206" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="M206" s="5">
+        <v>20</v>
+      </c>
+      <c r="N206" s="5" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="207" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A207" s="4" t="s">
+        <v>474</v>
+      </c>
+      <c r="B207" t="s">
+        <v>481</v>
+      </c>
+      <c r="C207" s="5" t="s">
+        <v>478</v>
+      </c>
+      <c r="D207" s="3" t="s">
+        <v>492</v>
+      </c>
+      <c r="E207" s="5" t="s">
+        <v>481</v>
+      </c>
+      <c r="F207" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="G207" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="H207" s="5">
+        <v>1973</v>
+      </c>
+      <c r="I207" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="J207" s="5" t="s">
+        <v>387</v>
+      </c>
+      <c r="K207" t="s">
+        <v>471</v>
+      </c>
+      <c r="L207" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="M207" s="5">
+        <v>20</v>
+      </c>
+      <c r="N207" s="5" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="208" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A208" s="4" t="s">
+        <v>494</v>
+      </c>
+      <c r="B208" t="s">
+        <v>481</v>
+      </c>
+      <c r="C208" s="5" t="s">
+        <v>495</v>
+      </c>
+      <c r="D208" s="3" t="s">
+        <v>509</v>
+      </c>
+      <c r="E208" s="5" t="s">
+        <v>481</v>
+      </c>
+      <c r="F208" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="G208" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="H208" s="5">
+        <v>1994</v>
+      </c>
+      <c r="I208" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="J208" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="K208" t="s">
+        <v>493</v>
+      </c>
+      <c r="L208" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="M208" s="5">
+        <v>21</v>
+      </c>
+      <c r="N208" s="5" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="209" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A209" s="4" t="s">
+        <v>494</v>
+      </c>
+      <c r="B209" t="s">
+        <v>481</v>
+      </c>
+      <c r="C209" s="5" t="s">
+        <v>496</v>
+      </c>
+      <c r="D209" s="3" t="s">
+        <v>488</v>
+      </c>
+      <c r="E209" s="5" t="s">
+        <v>481</v>
+      </c>
+      <c r="F209" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="G209" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="H209" s="5">
+        <v>1994</v>
+      </c>
+      <c r="I209" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="J209" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="K209" t="s">
+        <v>493</v>
+      </c>
+      <c r="L209" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="M209" s="5">
+        <v>21</v>
+      </c>
+      <c r="N209" s="5" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="210" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A210" s="4" t="s">
+        <v>494</v>
+      </c>
+      <c r="B210" t="s">
+        <v>481</v>
+      </c>
+      <c r="C210" s="5" t="s">
+        <v>497</v>
+      </c>
+      <c r="D210" s="3" t="s">
+        <v>510</v>
+      </c>
+      <c r="E210" s="5" t="s">
+        <v>481</v>
+      </c>
+      <c r="F210" s="5" t="s">
+        <v>516</v>
+      </c>
+      <c r="G210" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="H210" s="5">
+        <v>1994</v>
+      </c>
+      <c r="I210" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="J210" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="K210" t="s">
+        <v>493</v>
+      </c>
+      <c r="L210" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="M210" s="5">
+        <v>21</v>
+      </c>
+      <c r="N210" s="5" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="211" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A211" s="4" t="s">
+        <v>494</v>
+      </c>
+      <c r="B211" t="s">
+        <v>481</v>
+      </c>
+      <c r="C211" s="5" t="s">
+        <v>498</v>
+      </c>
+      <c r="D211" s="3" t="s">
+        <v>511</v>
+      </c>
+      <c r="E211" s="5" t="s">
+        <v>481</v>
+      </c>
+      <c r="F211" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="G211" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="H211" s="5">
+        <v>1994</v>
+      </c>
+      <c r="I211" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="J211" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="K211" t="s">
+        <v>493</v>
+      </c>
+      <c r="L211" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="M211" s="5">
+        <v>21</v>
+      </c>
+      <c r="N211" s="5" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="212" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A212" s="4" t="s">
+        <v>494</v>
+      </c>
+      <c r="B212" t="s">
+        <v>481</v>
+      </c>
+      <c r="C212" s="5" t="s">
+        <v>499</v>
+      </c>
+      <c r="D212" s="3" t="s">
+        <v>512</v>
+      </c>
+      <c r="E212" s="5" t="s">
+        <v>481</v>
+      </c>
+      <c r="F212" s="5" t="s">
+        <v>481</v>
+      </c>
+      <c r="G212" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="H212" s="5">
+        <v>1994</v>
+      </c>
+      <c r="I212" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="J212" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="K212" t="s">
+        <v>493</v>
+      </c>
+      <c r="L212" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="M212" s="5">
+        <v>21</v>
+      </c>
+      <c r="N212" s="5" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="213" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A213" s="4" t="s">
+        <v>494</v>
+      </c>
+      <c r="B213" t="s">
+        <v>481</v>
+      </c>
+      <c r="C213" s="5" t="s">
+        <v>520</v>
+      </c>
+      <c r="D213" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="E213" s="5" t="s">
+        <v>481</v>
+      </c>
+      <c r="F213" s="5" t="s">
+        <v>481</v>
+      </c>
+      <c r="G213" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="H213" s="5">
+        <v>1994</v>
+      </c>
+      <c r="I213" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="J213" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="K213" t="s">
+        <v>493</v>
+      </c>
+      <c r="L213" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="M213" s="5">
+        <v>21</v>
+      </c>
+      <c r="N213" s="5" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="214" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A214" s="4" t="s">
+        <v>494</v>
+      </c>
+      <c r="B214" t="s">
+        <v>481</v>
+      </c>
+      <c r="C214" s="5" t="s">
+        <v>500</v>
+      </c>
+      <c r="D214" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="E214" s="5" t="s">
+        <v>481</v>
+      </c>
+      <c r="F214" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="G214" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="H214" s="5">
+        <v>1994</v>
+      </c>
+      <c r="I214" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="J214" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="K214" t="s">
+        <v>493</v>
+      </c>
+      <c r="L214" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="M214" s="5">
+        <v>21</v>
+      </c>
+      <c r="N214" s="5" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="215" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A215" s="4" t="s">
+        <v>494</v>
+      </c>
+      <c r="B215" t="s">
+        <v>481</v>
+      </c>
+      <c r="C215" s="5" t="s">
+        <v>501</v>
+      </c>
+      <c r="D215" s="3" t="s">
+        <v>513</v>
+      </c>
+      <c r="E215" s="5" t="s">
+        <v>481</v>
+      </c>
+      <c r="F215" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="G215" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="H215" s="5">
+        <v>1994</v>
+      </c>
+      <c r="I215" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="J215" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="K215" t="s">
+        <v>493</v>
+      </c>
+      <c r="L215" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="M215" s="5">
+        <v>21</v>
+      </c>
+      <c r="N215" s="5" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="216" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A216" s="4" t="s">
+        <v>494</v>
+      </c>
+      <c r="B216" t="s">
+        <v>481</v>
+      </c>
+      <c r="C216" s="5" t="s">
+        <v>502</v>
+      </c>
+      <c r="D216" s="3" t="s">
+        <v>419</v>
+      </c>
+      <c r="E216" s="5" t="s">
+        <v>481</v>
+      </c>
+      <c r="F216" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="G216" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="H216" s="5">
+        <v>1994</v>
+      </c>
+      <c r="I216" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="J216" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="K216" t="s">
+        <v>493</v>
+      </c>
+      <c r="L216" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="M216" s="5">
+        <v>21</v>
+      </c>
+      <c r="N216" s="5" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="217" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A217" s="4" t="s">
+        <v>494</v>
+      </c>
+      <c r="B217" t="s">
+        <v>481</v>
+      </c>
+      <c r="C217" s="5" t="s">
+        <v>503</v>
+      </c>
+      <c r="D217" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="E217" s="5" t="s">
+        <v>481</v>
+      </c>
+      <c r="F217" s="5" t="s">
+        <v>516</v>
+      </c>
+      <c r="G217" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="H217" s="5">
+        <v>1994</v>
+      </c>
+      <c r="I217" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="J217" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="K217" t="s">
+        <v>493</v>
+      </c>
+      <c r="L217" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="M217" s="5">
+        <v>21</v>
+      </c>
+      <c r="N217" s="5" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="218" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A218" s="4" t="s">
+        <v>494</v>
+      </c>
+      <c r="B218" t="s">
+        <v>481</v>
+      </c>
+      <c r="C218" s="5" t="s">
+        <v>504</v>
+      </c>
+      <c r="D218" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="E218" s="5" t="s">
+        <v>481</v>
+      </c>
+      <c r="F218" s="5" t="s">
+        <v>442</v>
+      </c>
+      <c r="G218" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="H218" s="5">
+        <v>1994</v>
+      </c>
+      <c r="I218" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="J218" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="K218" t="s">
+        <v>493</v>
+      </c>
+      <c r="L218" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="M218" s="5">
+        <v>21</v>
+      </c>
+      <c r="N218" s="5" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="219" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A219" s="4" t="s">
+        <v>494</v>
+      </c>
+      <c r="B219" t="s">
+        <v>481</v>
+      </c>
+      <c r="C219" s="5" t="s">
+        <v>505</v>
+      </c>
+      <c r="D219" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="E219" s="5" t="s">
+        <v>481</v>
+      </c>
+      <c r="F219" s="5" t="s">
+        <v>517</v>
+      </c>
+      <c r="G219" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="H219" s="5">
+        <v>1994</v>
+      </c>
+      <c r="I219" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="J219" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="K219" t="s">
+        <v>493</v>
+      </c>
+      <c r="L219" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="M219" s="5">
+        <v>21</v>
+      </c>
+      <c r="N219" s="5" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="220" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A220" s="4" t="s">
+        <v>494</v>
+      </c>
+      <c r="B220" t="s">
+        <v>481</v>
+      </c>
+      <c r="C220" s="5" t="s">
+        <v>506</v>
+      </c>
+      <c r="D220" s="3" t="s">
+        <v>514</v>
+      </c>
+      <c r="E220" s="5" t="s">
+        <v>481</v>
+      </c>
+      <c r="F220" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="G220" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="H220" s="5">
+        <v>1994</v>
+      </c>
+      <c r="I220" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="J220" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="K220" t="s">
+        <v>493</v>
+      </c>
+      <c r="L220" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="M220" s="5">
+        <v>21</v>
+      </c>
+      <c r="N220" s="5" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="221" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A221" s="4" t="s">
+        <v>494</v>
+      </c>
+      <c r="B221" t="s">
+        <v>481</v>
+      </c>
+      <c r="C221" s="5" t="s">
+        <v>507</v>
+      </c>
+      <c r="D221" s="3" t="s">
+        <v>515</v>
+      </c>
+      <c r="E221" s="5" t="s">
+        <v>481</v>
+      </c>
+      <c r="F221" s="5" t="s">
+        <v>442</v>
+      </c>
+      <c r="G221" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="H221" s="5">
+        <v>1994</v>
+      </c>
+      <c r="I221" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="J221" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="K221" t="s">
+        <v>493</v>
+      </c>
+      <c r="L221" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="M221" s="5">
+        <v>21</v>
+      </c>
+      <c r="N221" s="5" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="222" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A222" s="4" t="s">
+        <v>494</v>
+      </c>
+      <c r="B222" t="s">
+        <v>481</v>
+      </c>
+      <c r="C222" s="5" t="s">
+        <v>508</v>
+      </c>
+      <c r="D222" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="E222" s="5" t="s">
+        <v>481</v>
+      </c>
+      <c r="F222" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="G222" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="H222" s="5">
+        <v>1994</v>
+      </c>
+      <c r="I222" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="J222" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="K222" t="s">
+        <v>493</v>
+      </c>
+      <c r="L222" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="M222" s="5">
+        <v>21</v>
+      </c>
+      <c r="N222" s="5" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="223" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A223" s="4" t="s">
+        <v>518</v>
+      </c>
+      <c r="B223" t="s">
+        <v>447</v>
+      </c>
+      <c r="C223" s="5" t="s">
+        <v>519</v>
+      </c>
+      <c r="D223" s="3" t="s">
+        <v>437</v>
+      </c>
+      <c r="E223" t="s">
+        <v>447</v>
+      </c>
+      <c r="F223" t="s">
+        <v>447</v>
+      </c>
+      <c r="G223" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="H223" s="5">
+        <v>1972</v>
+      </c>
+      <c r="I223" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="J223" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="K223" s="5" t="s">
+        <v>529</v>
+      </c>
+      <c r="L223" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="M223" s="5">
+        <v>22</v>
+      </c>
+      <c r="N223" s="5" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="224" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A224" s="4" t="s">
+        <v>518</v>
+      </c>
+      <c r="B224" t="s">
+        <v>447</v>
+      </c>
+      <c r="C224" s="5" t="s">
+        <v>521</v>
+      </c>
+      <c r="D224" s="3" t="s">
+        <v>437</v>
+      </c>
+      <c r="E224" t="s">
+        <v>447</v>
+      </c>
+      <c r="F224" t="s">
+        <v>447</v>
+      </c>
+      <c r="G224" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="H224" s="5">
+        <v>1972</v>
+      </c>
+      <c r="I224" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="J224" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="K224" s="5" t="s">
+        <v>529</v>
+      </c>
+      <c r="L224" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="M224" s="5">
+        <v>22</v>
+      </c>
+      <c r="N224" s="5" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="225" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A225" s="4" t="s">
+        <v>518</v>
+      </c>
+      <c r="B225" t="s">
+        <v>447</v>
+      </c>
+      <c r="C225" s="5" t="s">
+        <v>522</v>
+      </c>
+      <c r="D225" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="E225" t="s">
+        <v>447</v>
+      </c>
+      <c r="F225" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="G225" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="H225" s="5">
+        <v>1972</v>
+      </c>
+      <c r="I225" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="J225" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="K225" s="5" t="s">
+        <v>529</v>
+      </c>
+      <c r="L225" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="M225" s="5">
+        <v>22</v>
+      </c>
+      <c r="N225" s="5" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="226" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A226" s="4" t="s">
+        <v>518</v>
+      </c>
+      <c r="B226" t="s">
+        <v>447</v>
+      </c>
+      <c r="C226" s="5" t="s">
+        <v>523</v>
+      </c>
+      <c r="D226" s="3" t="s">
+        <v>531</v>
+      </c>
+      <c r="E226" t="s">
+        <v>447</v>
+      </c>
+      <c r="F226" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="G226" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="H226" s="5">
+        <v>1972</v>
+      </c>
+      <c r="I226" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="J226" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="K226" s="5" t="s">
+        <v>529</v>
+      </c>
+      <c r="L226" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="M226" s="5">
+        <v>22</v>
+      </c>
+      <c r="N226" s="5" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="227" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A227" s="4" t="s">
+        <v>518</v>
+      </c>
+      <c r="B227" t="s">
+        <v>447</v>
+      </c>
+      <c r="C227" s="5" t="s">
+        <v>524</v>
+      </c>
+      <c r="D227" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="E227" t="s">
+        <v>447</v>
+      </c>
+      <c r="F227" t="s">
+        <v>447</v>
+      </c>
+      <c r="G227" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="H227" s="5">
+        <v>1972</v>
+      </c>
+      <c r="I227" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="J227" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="K227" s="5" t="s">
+        <v>529</v>
+      </c>
+      <c r="L227" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="M227" s="5">
+        <v>22</v>
+      </c>
+      <c r="N227" s="5" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="228" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A228" s="4" t="s">
+        <v>518</v>
+      </c>
+      <c r="B228" t="s">
+        <v>447</v>
+      </c>
+      <c r="C228" s="5" t="s">
+        <v>525</v>
+      </c>
+      <c r="D228" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="E228" t="s">
+        <v>447</v>
+      </c>
+      <c r="F228" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="G228" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="H228" s="5">
+        <v>1972</v>
+      </c>
+      <c r="I228" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="J228" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="K228" s="5" t="s">
+        <v>529</v>
+      </c>
+      <c r="L228" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="M228" s="5">
+        <v>22</v>
+      </c>
+      <c r="N228" s="5" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="229" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A229" s="4" t="s">
+        <v>518</v>
+      </c>
+      <c r="B229" t="s">
+        <v>447</v>
+      </c>
+      <c r="C229" s="5" t="s">
+        <v>526</v>
+      </c>
+      <c r="D229" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="E229" t="s">
+        <v>447</v>
+      </c>
+      <c r="F229" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="G229" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="H229" s="5">
+        <v>1972</v>
+      </c>
+      <c r="I229" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="J229" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="K229" s="5" t="s">
+        <v>529</v>
+      </c>
+      <c r="L229" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="M229" s="5">
+        <v>22</v>
+      </c>
+      <c r="N229" s="5" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="230" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A230" s="4" t="s">
+        <v>518</v>
+      </c>
+      <c r="B230" t="s">
+        <v>447</v>
+      </c>
+      <c r="C230" s="5" t="s">
+        <v>527</v>
+      </c>
+      <c r="D230" s="3" t="s">
+        <v>490</v>
+      </c>
+      <c r="E230" t="s">
+        <v>447</v>
+      </c>
+      <c r="F230" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="G230" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="H230" s="5">
+        <v>1972</v>
+      </c>
+      <c r="I230" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="J230" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="K230" s="5" t="s">
+        <v>529</v>
+      </c>
+      <c r="L230" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="M230" s="5">
+        <v>22</v>
+      </c>
+      <c r="N230" s="5" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="231" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A231" s="4" t="s">
+        <v>518</v>
+      </c>
+      <c r="B231" t="s">
+        <v>447</v>
+      </c>
+      <c r="C231" s="5" t="s">
+        <v>528</v>
+      </c>
+      <c r="D231" s="3" t="s">
+        <v>488</v>
+      </c>
+      <c r="E231" t="s">
+        <v>447</v>
+      </c>
+      <c r="F231" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="G231" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="H231" s="5">
+        <v>1972</v>
+      </c>
+      <c r="I231" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="J231" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="K231" s="5" t="s">
+        <v>529</v>
+      </c>
+      <c r="L231" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="M231" s="5">
+        <v>22</v>
+      </c>
+      <c r="N231" s="5" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="232" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A232" s="4" t="s">
+        <v>544</v>
+      </c>
+      <c r="B232" t="s">
+        <v>532</v>
+      </c>
+      <c r="C232" s="5" t="s">
+        <v>533</v>
+      </c>
+      <c r="D232" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="E232" t="s">
+        <v>545</v>
+      </c>
+      <c r="F232" s="5" t="s">
+        <v>552</v>
+      </c>
+      <c r="G232" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="H232" s="5">
+        <v>1986</v>
+      </c>
+      <c r="I232" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="J232" s="5" t="s">
+        <v>546</v>
+      </c>
+      <c r="K232" s="5" t="s">
+        <v>547</v>
+      </c>
+      <c r="L232" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="M232" s="5">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="233" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A233" s="4" t="s">
+        <v>544</v>
+      </c>
+      <c r="B233" t="s">
+        <v>532</v>
+      </c>
+      <c r="C233" s="5" t="s">
+        <v>534</v>
+      </c>
+      <c r="D233" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="E233" t="s">
+        <v>545</v>
+      </c>
+      <c r="F233" s="5" t="s">
+        <v>553</v>
+      </c>
+      <c r="G233" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="H233" s="5">
+        <v>1986</v>
+      </c>
+      <c r="I233" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="J233" s="5" t="s">
+        <v>546</v>
+      </c>
+      <c r="K233" s="5" t="s">
+        <v>547</v>
+      </c>
+      <c r="L233" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="M233" s="5">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="234" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A234" s="4" t="s">
+        <v>544</v>
+      </c>
+      <c r="B234" t="s">
+        <v>532</v>
+      </c>
+      <c r="C234" s="5" t="s">
+        <v>535</v>
+      </c>
+      <c r="D234" s="3" t="s">
+        <v>548</v>
+      </c>
+      <c r="E234" t="s">
+        <v>545</v>
+      </c>
+      <c r="F234" s="5" t="s">
+        <v>552</v>
+      </c>
+      <c r="G234" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="H234" s="5">
+        <v>1986</v>
+      </c>
+      <c r="I234" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="J234" s="5" t="s">
+        <v>546</v>
+      </c>
+      <c r="K234" s="5" t="s">
+        <v>547</v>
+      </c>
+      <c r="L234" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="M234" s="5">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="235" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A235" s="4" t="s">
+        <v>544</v>
+      </c>
+      <c r="B235" t="s">
+        <v>532</v>
+      </c>
+      <c r="C235" s="5" t="s">
+        <v>536</v>
+      </c>
+      <c r="D235" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="E235" t="s">
+        <v>545</v>
+      </c>
+      <c r="F235" s="5" t="s">
+        <v>554</v>
+      </c>
+      <c r="G235" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="H235" s="5">
+        <v>1986</v>
+      </c>
+      <c r="I235" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="J235" s="5" t="s">
+        <v>546</v>
+      </c>
+      <c r="K235" s="5" t="s">
+        <v>547</v>
+      </c>
+      <c r="L235" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="M235" s="5">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="236" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A236" s="4" t="s">
+        <v>544</v>
+      </c>
+      <c r="B236" t="s">
+        <v>532</v>
+      </c>
+      <c r="C236" s="5" t="s">
+        <v>537</v>
+      </c>
+      <c r="D236" s="3" t="s">
+        <v>549</v>
+      </c>
+      <c r="E236" t="s">
+        <v>545</v>
+      </c>
+      <c r="F236" s="5" t="s">
+        <v>555</v>
+      </c>
+      <c r="G236" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="H236" s="5">
+        <v>1986</v>
+      </c>
+      <c r="I236" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="J236" s="5" t="s">
+        <v>546</v>
+      </c>
+      <c r="K236" s="5" t="s">
+        <v>547</v>
+      </c>
+      <c r="L236" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="M236" s="5">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="237" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A237" s="4" t="s">
+        <v>544</v>
+      </c>
+      <c r="B237" t="s">
+        <v>532</v>
+      </c>
+      <c r="C237" s="5" t="s">
+        <v>538</v>
+      </c>
+      <c r="D237" s="3" t="s">
+        <v>550</v>
+      </c>
+      <c r="E237" t="s">
+        <v>545</v>
+      </c>
+      <c r="F237" s="5" t="s">
+        <v>556</v>
+      </c>
+      <c r="G237" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="H237" s="5">
+        <v>1986</v>
+      </c>
+      <c r="I237" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="J237" s="5" t="s">
+        <v>546</v>
+      </c>
+      <c r="K237" s="5" t="s">
+        <v>547</v>
+      </c>
+      <c r="L237" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="M237" s="5">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="238" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A238" s="4" t="s">
+        <v>544</v>
+      </c>
+      <c r="B238" t="s">
+        <v>532</v>
+      </c>
+      <c r="C238" s="5" t="s">
+        <v>539</v>
+      </c>
+      <c r="D238" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="E238" t="s">
+        <v>545</v>
+      </c>
+      <c r="F238" s="5" t="s">
+        <v>557</v>
+      </c>
+      <c r="G238" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="H238" s="5">
+        <v>1986</v>
+      </c>
+      <c r="I238" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="J238" s="5" t="s">
+        <v>546</v>
+      </c>
+      <c r="K238" s="5" t="s">
+        <v>547</v>
+      </c>
+      <c r="L238" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="M238" s="5">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="239" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A239" s="4" t="s">
+        <v>544</v>
+      </c>
+      <c r="B239" t="s">
+        <v>532</v>
+      </c>
+      <c r="C239" s="5" t="s">
+        <v>540</v>
+      </c>
+      <c r="D239" s="3" t="s">
+        <v>551</v>
+      </c>
+      <c r="E239" t="s">
+        <v>545</v>
+      </c>
+      <c r="F239" s="5" t="s">
+        <v>552</v>
+      </c>
+      <c r="G239" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="H239" s="5">
+        <v>1986</v>
+      </c>
+      <c r="I239" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="J239" s="5" t="s">
+        <v>546</v>
+      </c>
+      <c r="K239" s="5" t="s">
+        <v>547</v>
+      </c>
+      <c r="L239" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="M239" s="5">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="240" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A240" s="4" t="s">
+        <v>544</v>
+      </c>
+      <c r="B240" t="s">
+        <v>532</v>
+      </c>
+      <c r="C240" s="5" t="s">
+        <v>541</v>
+      </c>
+      <c r="D240" s="3" t="s">
+        <v>467</v>
+      </c>
+      <c r="E240" t="s">
+        <v>545</v>
+      </c>
+      <c r="F240" s="5" t="s">
+        <v>558</v>
+      </c>
+      <c r="G240" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="H240" s="5">
+        <v>1986</v>
+      </c>
+      <c r="I240" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="J240" s="5" t="s">
+        <v>546</v>
+      </c>
+      <c r="K240" s="5" t="s">
+        <v>547</v>
+      </c>
+      <c r="L240" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="M240" s="5">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="241" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A241" s="4" t="s">
+        <v>544</v>
+      </c>
+      <c r="B241" t="s">
+        <v>532</v>
+      </c>
+      <c r="C241" s="5" t="s">
+        <v>542</v>
+      </c>
+      <c r="D241" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="E241" t="s">
+        <v>545</v>
+      </c>
+      <c r="F241" s="5" t="s">
+        <v>559</v>
+      </c>
+      <c r="G241" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="H241" s="5">
+        <v>1986</v>
+      </c>
+      <c r="I241" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="J241" s="5" t="s">
+        <v>546</v>
+      </c>
+      <c r="K241" s="5" t="s">
+        <v>547</v>
+      </c>
+      <c r="L241" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="M241" s="5">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="242" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A242" s="4" t="s">
+        <v>576</v>
+      </c>
+      <c r="B242" t="s">
+        <v>577</v>
+      </c>
+      <c r="C242" s="5" t="s">
+        <v>560</v>
+      </c>
+      <c r="D242" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="E242" t="s">
+        <v>545</v>
+      </c>
+      <c r="F242" s="5" t="s">
+        <v>569</v>
+      </c>
+      <c r="G242" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="H242" s="5">
+        <v>1978</v>
+      </c>
+      <c r="I242" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="J242" s="5" t="s">
+        <v>546</v>
+      </c>
+      <c r="K242" s="5" t="s">
+        <v>572</v>
+      </c>
+      <c r="L242" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="M242" s="5">
+        <v>24</v>
+      </c>
+      <c r="N242" s="5" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="243" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A243" s="4" t="s">
+        <v>576</v>
+      </c>
+      <c r="B243" t="s">
+        <v>578</v>
+      </c>
+      <c r="C243" s="5" t="s">
+        <v>561</v>
+      </c>
+      <c r="D243" s="3" t="s">
+        <v>574</v>
+      </c>
+      <c r="E243" t="s">
+        <v>545</v>
+      </c>
+      <c r="F243" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="G243" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="H243" s="5">
+        <v>1978</v>
+      </c>
+      <c r="I243" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="J243" s="5" t="s">
+        <v>546</v>
+      </c>
+      <c r="K243" s="5" t="s">
+        <v>572</v>
+      </c>
+      <c r="L243" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="M243" s="5">
+        <v>24</v>
+      </c>
+      <c r="N243" s="5" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="244" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A244" s="4" t="s">
+        <v>576</v>
+      </c>
+      <c r="B244" t="s">
+        <v>577</v>
+      </c>
+      <c r="C244" s="5" t="s">
+        <v>562</v>
+      </c>
+      <c r="D244" s="3" t="s">
+        <v>513</v>
+      </c>
+      <c r="E244" t="s">
+        <v>545</v>
+      </c>
+      <c r="F244" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="G244" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="H244" s="5">
+        <v>1978</v>
+      </c>
+      <c r="I244" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="J244" s="5" t="s">
+        <v>546</v>
+      </c>
+      <c r="K244" s="5" t="s">
+        <v>572</v>
+      </c>
+      <c r="L244" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="M244" s="5">
+        <v>24</v>
+      </c>
+      <c r="N244" s="5" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="245" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A245" s="4" t="s">
+        <v>576</v>
+      </c>
+      <c r="B245" t="s">
+        <v>431</v>
+      </c>
+      <c r="C245" s="5" t="s">
+        <v>567</v>
+      </c>
+      <c r="D245" s="3" t="s">
+        <v>575</v>
+      </c>
+      <c r="E245" t="s">
+        <v>545</v>
+      </c>
+      <c r="F245" s="5" t="s">
+        <v>568</v>
+      </c>
+      <c r="G245" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="H245" s="5">
+        <v>1978</v>
+      </c>
+      <c r="I245" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="J245" s="5" t="s">
+        <v>546</v>
+      </c>
+      <c r="K245" s="5" t="s">
+        <v>572</v>
+      </c>
+      <c r="L245" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="M245" s="5">
+        <v>24</v>
+      </c>
+      <c r="N245" s="5" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="246" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A246" s="4" t="s">
+        <v>576</v>
+      </c>
+      <c r="B246" t="s">
+        <v>578</v>
+      </c>
+      <c r="C246" s="5" t="s">
+        <v>563</v>
+      </c>
+      <c r="D246" s="3" t="s">
+        <v>579</v>
+      </c>
+      <c r="E246" t="s">
+        <v>545</v>
+      </c>
+      <c r="F246" s="5" t="s">
+        <v>570</v>
+      </c>
+      <c r="G246" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="H246" s="5">
+        <v>1978</v>
+      </c>
+      <c r="I246" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="J246" s="5" t="s">
+        <v>546</v>
+      </c>
+      <c r="K246" s="5" t="s">
+        <v>572</v>
+      </c>
+      <c r="L246" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="M246" s="5">
+        <v>24</v>
+      </c>
+      <c r="N246" s="5" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="247" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A247" s="4" t="s">
+        <v>576</v>
+      </c>
+      <c r="B247" t="s">
+        <v>577</v>
+      </c>
+      <c r="C247" s="5" t="s">
+        <v>564</v>
+      </c>
+      <c r="D247" s="3" t="s">
+        <v>580</v>
+      </c>
+      <c r="E247" t="s">
+        <v>545</v>
+      </c>
+      <c r="F247" s="5" t="s">
+        <v>571</v>
+      </c>
+      <c r="G247" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="H247" s="5">
+        <v>1978</v>
+      </c>
+      <c r="I247" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="J247" s="5" t="s">
+        <v>546</v>
+      </c>
+      <c r="K247" s="5" t="s">
+        <v>572</v>
+      </c>
+      <c r="L247" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="M247" s="5">
+        <v>24</v>
+      </c>
+      <c r="N247" s="5" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="248" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A248" s="4" t="s">
+        <v>576</v>
+      </c>
+      <c r="B248" t="s">
+        <v>578</v>
+      </c>
+      <c r="C248" s="5" t="s">
+        <v>565</v>
+      </c>
+      <c r="D248" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="E248" t="s">
+        <v>545</v>
+      </c>
+      <c r="F248" s="5" t="s">
+        <v>569</v>
+      </c>
+      <c r="G248" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="H248" s="5">
+        <v>1978</v>
+      </c>
+      <c r="I248" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="J248" s="5" t="s">
+        <v>546</v>
+      </c>
+      <c r="K248" s="5" t="s">
+        <v>572</v>
+      </c>
+      <c r="L248" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="M248" s="5">
+        <v>24</v>
+      </c>
+      <c r="N248" s="5" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="249" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A249" s="4" t="s">
+        <v>576</v>
+      </c>
+      <c r="B249" t="s">
+        <v>577</v>
+      </c>
+      <c r="C249" s="5" t="s">
+        <v>566</v>
+      </c>
+      <c r="D249" s="3" t="s">
+        <v>581</v>
+      </c>
+      <c r="E249" t="s">
+        <v>545</v>
+      </c>
+      <c r="F249" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="G249" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="H249" s="5">
+        <v>1978</v>
+      </c>
+      <c r="I249" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="J249" s="5" t="s">
+        <v>546</v>
+      </c>
+      <c r="K249" s="5" t="s">
+        <v>572</v>
+      </c>
+      <c r="L249" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="M249" s="5">
+        <v>24</v>
+      </c>
+      <c r="N249" s="5" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="250" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A250" s="4" t="s">
+        <v>545</v>
+      </c>
+      <c r="B250" t="s">
+        <v>577</v>
+      </c>
+      <c r="C250" s="5" t="s">
+        <v>596</v>
+      </c>
+      <c r="D250" s="3" t="s">
+        <v>582</v>
+      </c>
+      <c r="E250" t="s">
+        <v>545</v>
+      </c>
+      <c r="F250" s="5" t="s">
+        <v>598</v>
+      </c>
+      <c r="G250" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="H250" s="5">
+        <v>1980</v>
+      </c>
+      <c r="I250" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="J250" s="5" t="s">
+        <v>546</v>
+      </c>
+      <c r="K250" s="5" t="s">
+        <v>597</v>
+      </c>
+      <c r="L250" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="M250" s="5">
+        <v>25</v>
+      </c>
+      <c r="N250" s="5" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="251" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A251" s="4" t="s">
+        <v>545</v>
+      </c>
+      <c r="B251" t="s">
+        <v>578</v>
+      </c>
+      <c r="C251" s="5" t="s">
+        <v>583</v>
+      </c>
+      <c r="D251" s="3" t="s">
+        <v>584</v>
+      </c>
+      <c r="E251" t="s">
+        <v>545</v>
+      </c>
+      <c r="F251" s="5" t="s">
+        <v>599</v>
+      </c>
+      <c r="G251" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="H251" s="5">
+        <v>1980</v>
+      </c>
+      <c r="I251" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="J251" s="5" t="s">
+        <v>546</v>
+      </c>
+      <c r="K251" s="5" t="s">
+        <v>597</v>
+      </c>
+      <c r="L251" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="M251" s="5">
+        <v>25</v>
+      </c>
+      <c r="N251" s="5" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="252" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A252" s="4" t="s">
+        <v>545</v>
+      </c>
+      <c r="B252" t="s">
+        <v>577</v>
+      </c>
+      <c r="C252" s="5" t="s">
+        <v>585</v>
+      </c>
+      <c r="D252" s="3" t="s">
+        <v>586</v>
+      </c>
+      <c r="E252" t="s">
+        <v>545</v>
+      </c>
+      <c r="F252" s="5" t="s">
+        <v>600</v>
+      </c>
+      <c r="G252" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="H252" s="5">
+        <v>1980</v>
+      </c>
+      <c r="I252" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="J252" s="5" t="s">
+        <v>546</v>
+      </c>
+      <c r="K252" s="5" t="s">
+        <v>597</v>
+      </c>
+      <c r="L252" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="M252" s="5">
+        <v>25</v>
+      </c>
+      <c r="N252" s="5" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="253" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A253" s="4" t="s">
+        <v>545</v>
+      </c>
+      <c r="B253" t="s">
+        <v>578</v>
+      </c>
+      <c r="C253" s="5" t="s">
+        <v>587</v>
+      </c>
+      <c r="D253" s="3" t="s">
+        <v>588</v>
+      </c>
+      <c r="E253" t="s">
+        <v>545</v>
+      </c>
+      <c r="F253" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="G253" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="H253" s="5">
+        <v>1980</v>
+      </c>
+      <c r="I253" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="J253" s="5" t="s">
+        <v>546</v>
+      </c>
+      <c r="K253" s="5" t="s">
+        <v>597</v>
+      </c>
+      <c r="L253" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="M253" s="5">
+        <v>25</v>
+      </c>
+      <c r="N253" s="5" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="254" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A254" s="4" t="s">
+        <v>545</v>
+      </c>
+      <c r="B254" t="s">
+        <v>577</v>
+      </c>
+      <c r="C254" s="5" t="s">
+        <v>595</v>
+      </c>
+      <c r="D254" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="E254" t="s">
+        <v>545</v>
+      </c>
+      <c r="F254" s="5" t="s">
+        <v>569</v>
+      </c>
+      <c r="G254" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="H254" s="5">
+        <v>1980</v>
+      </c>
+      <c r="I254" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="J254" s="5" t="s">
+        <v>546</v>
+      </c>
+      <c r="K254" s="5" t="s">
+        <v>597</v>
+      </c>
+      <c r="L254" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="M254" s="5">
+        <v>25</v>
+      </c>
+      <c r="N254" s="5" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="255" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A255" s="4" t="s">
+        <v>545</v>
+      </c>
+      <c r="B255" t="s">
+        <v>578</v>
+      </c>
+      <c r="C255" s="5" t="s">
+        <v>589</v>
+      </c>
+      <c r="D255" s="3" t="s">
+        <v>590</v>
+      </c>
+      <c r="E255" t="s">
+        <v>545</v>
+      </c>
+      <c r="F255" s="5" t="s">
+        <v>602</v>
+      </c>
+      <c r="G255" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="H255" s="5">
+        <v>1980</v>
+      </c>
+      <c r="I255" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="J255" s="5" t="s">
+        <v>546</v>
+      </c>
+      <c r="K255" s="5" t="s">
+        <v>597</v>
+      </c>
+      <c r="L255" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="M255" s="5">
+        <v>25</v>
+      </c>
+      <c r="N255" s="5" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="256" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A256" s="4" t="s">
+        <v>545</v>
+      </c>
+      <c r="B256" t="s">
+        <v>577</v>
+      </c>
+      <c r="C256" s="5" t="s">
+        <v>591</v>
+      </c>
+      <c r="D256" s="3" t="s">
+        <v>592</v>
+      </c>
+      <c r="E256" t="s">
+        <v>545</v>
+      </c>
+      <c r="F256" s="5"/>
+      <c r="G256" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="H256" s="5">
+        <v>1980</v>
+      </c>
+      <c r="I256" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="J256" s="5" t="s">
+        <v>546</v>
+      </c>
+      <c r="K256" s="5" t="s">
+        <v>597</v>
+      </c>
+      <c r="L256" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="M256" s="5">
+        <v>25</v>
+      </c>
+      <c r="N256" s="5" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="257" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A257" s="4" t="s">
+        <v>545</v>
+      </c>
+      <c r="B257" t="s">
+        <v>578</v>
+      </c>
+      <c r="C257" s="5" t="s">
+        <v>593</v>
+      </c>
+      <c r="D257" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="E257" t="s">
+        <v>545</v>
+      </c>
+      <c r="F257" s="5" t="s">
+        <v>570</v>
+      </c>
+      <c r="G257" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="H257" s="5">
+        <v>1980</v>
+      </c>
+      <c r="I257" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="J257" s="5" t="s">
+        <v>546</v>
+      </c>
+      <c r="K257" s="5" t="s">
+        <v>597</v>
+      </c>
+      <c r="L257" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="M257" s="5">
+        <v>25</v>
+      </c>
+      <c r="N257" s="5" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="258" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A258" s="4" t="s">
+        <v>545</v>
+      </c>
+      <c r="B258" t="s">
+        <v>577</v>
+      </c>
+      <c r="C258" s="5" t="s">
+        <v>594</v>
+      </c>
+      <c r="D258" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="E258" t="s">
+        <v>545</v>
+      </c>
+      <c r="F258" s="5" t="s">
+        <v>601</v>
+      </c>
+      <c r="G258" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="H258" s="5">
+        <v>1980</v>
+      </c>
+      <c r="I258" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="J258" s="5" t="s">
+        <v>546</v>
+      </c>
+      <c r="K258" s="5" t="s">
+        <v>597</v>
+      </c>
+      <c r="L258" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="M258" s="5">
+        <v>25</v>
+      </c>
+      <c r="N258" s="5" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="259" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A259" s="4" t="s">
+        <v>617</v>
+      </c>
+      <c r="B259" t="s">
+        <v>577</v>
+      </c>
+      <c r="C259" s="5" t="s">
+        <v>603</v>
+      </c>
+      <c r="D259" s="3" t="s">
+        <v>604</v>
+      </c>
+      <c r="E259" t="s">
+        <v>545</v>
+      </c>
+      <c r="F259" s="5" t="s">
+        <v>620</v>
+      </c>
+      <c r="G259" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="H259" s="5">
+        <v>1980</v>
+      </c>
+      <c r="I259" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="J259" s="5" t="s">
+        <v>546</v>
+      </c>
+      <c r="K259" s="5" t="s">
+        <v>618</v>
+      </c>
+      <c r="L259" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="M259" s="5">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="260" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A260" s="4" t="s">
+        <v>617</v>
+      </c>
+      <c r="B260" t="s">
+        <v>622</v>
+      </c>
+      <c r="C260" s="5" t="s">
+        <v>605</v>
+      </c>
+      <c r="D260" s="3" t="s">
+        <v>606</v>
+      </c>
+      <c r="E260" t="s">
+        <v>545</v>
+      </c>
+      <c r="F260" s="5" t="s">
+        <v>621</v>
+      </c>
+      <c r="G260" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="H260" s="5">
+        <v>1980</v>
+      </c>
+      <c r="I260" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="J260" s="5" t="s">
+        <v>546</v>
+      </c>
+      <c r="K260" s="5" t="s">
+        <v>618</v>
+      </c>
+      <c r="L260" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="M260" s="5">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="261" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A261" s="4" t="s">
+        <v>617</v>
+      </c>
+      <c r="B261" t="s">
+        <v>578</v>
+      </c>
+      <c r="C261" s="5" t="s">
+        <v>607</v>
+      </c>
+      <c r="D261" s="3" t="s">
+        <v>427</v>
+      </c>
+      <c r="E261" t="s">
+        <v>545</v>
+      </c>
+      <c r="F261" s="5" t="s">
+        <v>620</v>
+      </c>
+      <c r="G261" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="H261" s="5">
+        <v>1980</v>
+      </c>
+      <c r="I261" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="J261" s="5" t="s">
+        <v>546</v>
+      </c>
+      <c r="K261" s="5" t="s">
+        <v>618</v>
+      </c>
+      <c r="L261" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="M261" s="5">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="262" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A262" s="4" t="s">
+        <v>617</v>
+      </c>
+      <c r="B262" t="s">
+        <v>622</v>
+      </c>
+      <c r="C262" s="5" t="s">
+        <v>608</v>
+      </c>
+      <c r="D262" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="E262" t="s">
+        <v>545</v>
+      </c>
+      <c r="F262" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="G262" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="H262" s="5">
+        <v>1980</v>
+      </c>
+      <c r="I262" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="J262" s="5" t="s">
+        <v>546</v>
+      </c>
+      <c r="K262" s="5" t="s">
+        <v>618</v>
+      </c>
+      <c r="L262" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="M262" s="5">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="263" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A263" s="4" t="s">
+        <v>617</v>
+      </c>
+      <c r="B263" t="s">
+        <v>577</v>
+      </c>
+      <c r="C263" s="5" t="s">
+        <v>609</v>
+      </c>
+      <c r="D263" s="3" t="s">
+        <v>610</v>
+      </c>
+      <c r="E263" t="s">
+        <v>545</v>
+      </c>
+      <c r="F263" t="s">
+        <v>619</v>
+      </c>
+      <c r="G263" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="H263" s="5">
+        <v>1980</v>
+      </c>
+      <c r="I263" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="J263" s="5" t="s">
+        <v>546</v>
+      </c>
+      <c r="K263" s="5" t="s">
+        <v>618</v>
+      </c>
+      <c r="L263" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="M263" s="5">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="264" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A264" s="4" t="s">
+        <v>617</v>
+      </c>
+      <c r="B264" t="s">
+        <v>578</v>
+      </c>
+      <c r="C264" s="5" t="s">
+        <v>611</v>
+      </c>
+      <c r="D264" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="E264" t="s">
+        <v>545</v>
+      </c>
+      <c r="F264" s="5" t="s">
+        <v>556</v>
+      </c>
+      <c r="G264" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="H264" s="5">
+        <v>1980</v>
+      </c>
+      <c r="I264" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="J264" s="5" t="s">
+        <v>546</v>
+      </c>
+      <c r="K264" s="5" t="s">
+        <v>618</v>
+      </c>
+      <c r="L264" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="M264" s="5">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="265" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A265" s="4" t="s">
+        <v>617</v>
+      </c>
+      <c r="B265" t="s">
+        <v>577</v>
+      </c>
+      <c r="C265" s="5" t="s">
+        <v>612</v>
+      </c>
+      <c r="D265" s="3" t="s">
+        <v>613</v>
+      </c>
+      <c r="E265" t="s">
+        <v>545</v>
+      </c>
+      <c r="F265" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="G265" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="H265" s="5">
+        <v>1980</v>
+      </c>
+      <c r="I265" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="J265" s="5" t="s">
+        <v>546</v>
+      </c>
+      <c r="K265" s="5" t="s">
+        <v>618</v>
+      </c>
+      <c r="L265" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="M265" s="5">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="266" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A266" s="4" t="s">
+        <v>617</v>
+      </c>
+      <c r="B266" t="s">
+        <v>578</v>
+      </c>
+      <c r="C266" s="5" t="s">
+        <v>614</v>
+      </c>
+      <c r="D266" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="E266" t="s">
+        <v>545</v>
+      </c>
+      <c r="F266" t="s">
+        <v>619</v>
+      </c>
+      <c r="G266" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="H266" s="5">
+        <v>1980</v>
+      </c>
+      <c r="I266" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="J266" s="5" t="s">
+        <v>546</v>
+      </c>
+      <c r="K266" s="5" t="s">
+        <v>618</v>
+      </c>
+      <c r="L266" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="M266" s="5">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="267" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A267" s="4" t="s">
+        <v>617</v>
+      </c>
+      <c r="B267" t="s">
+        <v>577</v>
+      </c>
+      <c r="C267" s="5" t="s">
+        <v>616</v>
+      </c>
+      <c r="D267" s="3" t="s">
+        <v>615</v>
+      </c>
+      <c r="E267" t="s">
+        <v>545</v>
+      </c>
+      <c r="F267" s="5" t="s">
+        <v>645</v>
+      </c>
+      <c r="G267" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="H267" s="5">
+        <v>1980</v>
+      </c>
+      <c r="I267" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="J267" s="5" t="s">
+        <v>546</v>
+      </c>
+      <c r="K267" s="5" t="s">
+        <v>618</v>
+      </c>
+      <c r="L267" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="M267" s="5">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="268" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A268" s="4" t="s">
+        <v>634</v>
+      </c>
+      <c r="B268" t="s">
+        <v>577</v>
+      </c>
+      <c r="C268" s="5" t="s">
+        <v>641</v>
+      </c>
+      <c r="D268" s="3" t="s">
+        <v>427</v>
+      </c>
+      <c r="E268" t="s">
+        <v>545</v>
+      </c>
+      <c r="F268" s="5" t="s">
+        <v>556</v>
+      </c>
+      <c r="G268" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="H268" s="5">
+        <v>1981</v>
+      </c>
+      <c r="I268" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="J268" s="5" t="s">
+        <v>546</v>
+      </c>
+      <c r="K268" s="5" t="s">
+        <v>633</v>
+      </c>
+      <c r="L268" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="M268" s="5">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="269" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A269" s="4" t="s">
+        <v>634</v>
+      </c>
+      <c r="B269" t="s">
+        <v>622</v>
+      </c>
+      <c r="C269" s="5" t="s">
+        <v>623</v>
+      </c>
+      <c r="D269" s="3" t="s">
+        <v>613</v>
+      </c>
+      <c r="E269" t="s">
+        <v>545</v>
+      </c>
+      <c r="F269" s="5" t="s">
+        <v>601</v>
+      </c>
+      <c r="G269" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="H269" s="5">
+        <v>1981</v>
+      </c>
+      <c r="I269" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="J269" s="5" t="s">
+        <v>546</v>
+      </c>
+      <c r="K269" s="5" t="s">
+        <v>633</v>
+      </c>
+      <c r="L269" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="M269" s="5">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="270" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A270" s="4" t="s">
+        <v>634</v>
+      </c>
+      <c r="B270" t="s">
+        <v>578</v>
+      </c>
+      <c r="C270" s="5" t="s">
+        <v>624</v>
+      </c>
+      <c r="D270" s="3" t="s">
+        <v>631</v>
+      </c>
+      <c r="E270" t="s">
+        <v>545</v>
+      </c>
+      <c r="F270" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="G270" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="H270" s="5">
+        <v>1981</v>
+      </c>
+      <c r="I270" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="J270" s="5" t="s">
+        <v>546</v>
+      </c>
+      <c r="K270" s="5" t="s">
+        <v>633</v>
+      </c>
+      <c r="L270" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="M270" s="5">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="271" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A271" s="4" t="s">
+        <v>634</v>
+      </c>
+      <c r="B271" t="s">
+        <v>577</v>
+      </c>
+      <c r="C271" s="5" t="s">
+        <v>625</v>
+      </c>
+      <c r="D271" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="E271" t="s">
+        <v>545</v>
+      </c>
+      <c r="F271" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="G271" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="H271" s="5">
+        <v>1981</v>
+      </c>
+      <c r="I271" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="J271" s="5" t="s">
+        <v>546</v>
+      </c>
+      <c r="K271" s="5" t="s">
+        <v>633</v>
+      </c>
+      <c r="L271" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="M271" s="5">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="272" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A272" s="4" t="s">
+        <v>634</v>
+      </c>
+      <c r="B272" t="s">
+        <v>578</v>
+      </c>
+      <c r="C272" s="5" t="s">
+        <v>626</v>
+      </c>
+      <c r="D272" s="3" t="s">
+        <v>488</v>
+      </c>
+      <c r="E272" t="s">
+        <v>545</v>
+      </c>
+      <c r="F272" s="5" t="s">
+        <v>635</v>
+      </c>
+      <c r="G272" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="H272" s="5">
+        <v>1981</v>
+      </c>
+      <c r="I272" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="J272" s="5" t="s">
+        <v>546</v>
+      </c>
+      <c r="K272" s="5" t="s">
+        <v>633</v>
+      </c>
+      <c r="L272" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="M272" s="5">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="273" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A273" s="4" t="s">
+        <v>634</v>
+      </c>
+      <c r="B273" t="s">
+        <v>577</v>
+      </c>
+      <c r="C273" s="5" t="s">
+        <v>627</v>
+      </c>
+      <c r="D273" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="E273" t="s">
+        <v>545</v>
+      </c>
+      <c r="F273" s="5" t="s">
+        <v>601</v>
+      </c>
+      <c r="G273" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="H273" s="5">
+        <v>1981</v>
+      </c>
+      <c r="I273" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="J273" s="5" t="s">
+        <v>546</v>
+      </c>
+      <c r="K273" s="5" t="s">
+        <v>633</v>
+      </c>
+      <c r="L273" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="M273" s="5">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="274" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A274" s="4" t="s">
+        <v>634</v>
+      </c>
+      <c r="B274" t="s">
+        <v>578</v>
+      </c>
+      <c r="C274" s="5" t="s">
+        <v>628</v>
+      </c>
+      <c r="D274" s="3" t="s">
+        <v>632</v>
+      </c>
+      <c r="E274" t="s">
+        <v>545</v>
+      </c>
+      <c r="F274" s="5" t="s">
+        <v>601</v>
+      </c>
+      <c r="G274" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="H274" s="5">
+        <v>1981</v>
+      </c>
+      <c r="I274" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="J274" s="5" t="s">
+        <v>546</v>
+      </c>
+      <c r="K274" s="5" t="s">
+        <v>633</v>
+      </c>
+      <c r="L274" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="M274" s="5">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="275" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A275" s="4" t="s">
+        <v>634</v>
+      </c>
+      <c r="B275" t="s">
+        <v>622</v>
+      </c>
+      <c r="C275" s="5" t="s">
+        <v>629</v>
+      </c>
+      <c r="D275" s="3" t="s">
+        <v>606</v>
+      </c>
+      <c r="E275" t="s">
+        <v>545</v>
+      </c>
+      <c r="F275" s="5" t="s">
+        <v>601</v>
+      </c>
+      <c r="G275" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="H275" s="5">
+        <v>1981</v>
+      </c>
+      <c r="I275" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="J275" s="5" t="s">
+        <v>546</v>
+      </c>
+      <c r="K275" s="5" t="s">
+        <v>633</v>
+      </c>
+      <c r="L275" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="M275" s="5">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="276" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A276" s="4" t="s">
+        <v>634</v>
+      </c>
+      <c r="C276" s="5" t="s">
+        <v>630</v>
+      </c>
+      <c r="D276" s="3" t="s">
+        <v>586</v>
+      </c>
+      <c r="E276" t="s">
+        <v>545</v>
+      </c>
+      <c r="G276" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="H276" s="5">
+        <v>1981</v>
+      </c>
+      <c r="I276" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="J276" s="5" t="s">
+        <v>546</v>
+      </c>
+      <c r="K276" s="5" t="s">
+        <v>633</v>
+      </c>
+      <c r="L276" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="M276" s="5">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="277" spans="1:13" ht="29" x14ac:dyDescent="0.35">
+      <c r="A277" s="4" t="s">
+        <v>636</v>
+      </c>
+      <c r="B277" t="s">
+        <v>577</v>
+      </c>
+      <c r="C277" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="E277" s="5" t="s">
+        <v>545</v>
+      </c>
+      <c r="G277" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="H277" s="5">
+        <v>1997</v>
+      </c>
+      <c r="I277" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="J277" s="5" t="s">
+        <v>546</v>
+      </c>
+      <c r="K277" s="5" t="s">
+        <v>642</v>
+      </c>
+      <c r="L277" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="M277" s="5">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="278" spans="1:13" ht="29" x14ac:dyDescent="0.35">
+      <c r="A278" s="4" t="s">
+        <v>636</v>
+      </c>
+      <c r="B278" t="s">
+        <v>577</v>
+      </c>
+      <c r="C278" s="5" t="s">
+        <v>616</v>
+      </c>
+      <c r="E278" s="5" t="s">
+        <v>545</v>
+      </c>
+      <c r="F278" s="5" t="s">
+        <v>645</v>
+      </c>
+      <c r="G278" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="H278" s="5">
+        <v>1997</v>
+      </c>
+      <c r="I278" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="J278" s="5" t="s">
+        <v>546</v>
+      </c>
+      <c r="K278" s="5" t="s">
+        <v>642</v>
+      </c>
+      <c r="L278" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="M278" s="5">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="279" spans="1:13" ht="29" x14ac:dyDescent="0.35">
+      <c r="A279" s="4" t="s">
+        <v>636</v>
+      </c>
+      <c r="B279" t="s">
+        <v>577</v>
+      </c>
+      <c r="C279" s="5" t="s">
+        <v>637</v>
+      </c>
+      <c r="E279" s="5" t="s">
+        <v>545</v>
+      </c>
+      <c r="F279" s="5" t="s">
+        <v>601</v>
+      </c>
+      <c r="G279" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="H279" s="5">
+        <v>1997</v>
+      </c>
+      <c r="I279" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="J279" s="5" t="s">
+        <v>546</v>
+      </c>
+      <c r="K279" s="5" t="s">
+        <v>642</v>
+      </c>
+      <c r="L279" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="M279" s="5">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="280" spans="1:13" ht="29" x14ac:dyDescent="0.35">
+      <c r="A280" s="4" t="s">
+        <v>636</v>
+      </c>
+      <c r="B280" t="s">
+        <v>577</v>
+      </c>
+      <c r="C280" s="5" t="s">
+        <v>638</v>
+      </c>
+      <c r="E280" s="5" t="s">
+        <v>545</v>
+      </c>
+      <c r="F280" s="5" t="s">
+        <v>644</v>
+      </c>
+      <c r="G280" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="H280" s="5">
+        <v>1997</v>
+      </c>
+      <c r="I280" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="J280" s="5" t="s">
+        <v>546</v>
+      </c>
+      <c r="K280" s="5" t="s">
+        <v>642</v>
+      </c>
+      <c r="L280" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="M280" s="5">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="281" spans="1:13" ht="29" x14ac:dyDescent="0.35">
+      <c r="A281" s="4" t="s">
+        <v>636</v>
+      </c>
+      <c r="B281" t="s">
+        <v>577</v>
+      </c>
+      <c r="C281" s="5" t="s">
+        <v>639</v>
+      </c>
+      <c r="E281" s="5" t="s">
+        <v>545</v>
+      </c>
+      <c r="F281" s="5" t="s">
+        <v>643</v>
+      </c>
+      <c r="G281" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="H281" s="5">
+        <v>1997</v>
+      </c>
+      <c r="I281" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="J281" s="5" t="s">
+        <v>546</v>
+      </c>
+      <c r="K281" s="5" t="s">
+        <v>642</v>
+      </c>
+      <c r="L281" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="M281" s="5">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="282" spans="1:13" ht="29" x14ac:dyDescent="0.35">
+      <c r="A282" s="4" t="s">
+        <v>636</v>
+      </c>
+      <c r="B282" t="s">
+        <v>577</v>
+      </c>
+      <c r="C282" s="5" t="s">
+        <v>640</v>
+      </c>
+      <c r="E282" s="5" t="s">
+        <v>545</v>
+      </c>
+      <c r="F282" s="5" t="s">
+        <v>571</v>
+      </c>
+      <c r="G282" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="H282" s="5">
+        <v>1997</v>
+      </c>
+      <c r="I282" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="J282" s="5" t="s">
+        <v>546</v>
+      </c>
+      <c r="K282" s="5" t="s">
+        <v>642</v>
+      </c>
+      <c r="L282" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="M282" s="5">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="283" spans="1:13" ht="29" x14ac:dyDescent="0.35">
+      <c r="A283" s="4" t="s">
+        <v>636</v>
+      </c>
+      <c r="B283" t="s">
+        <v>577</v>
+      </c>
+      <c r="C283" s="5" t="s">
+        <v>591</v>
+      </c>
+      <c r="E283" s="5" t="s">
+        <v>545</v>
+      </c>
+      <c r="G283" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="H283" s="5">
+        <v>1997</v>
+      </c>
+      <c r="I283" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="J283" s="5" t="s">
+        <v>546</v>
+      </c>
+      <c r="K283" s="5" t="s">
+        <v>642</v>
+      </c>
+      <c r="L283" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="M283" s="5">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="284" spans="1:13" ht="29" x14ac:dyDescent="0.35">
+      <c r="A284" s="4" t="s">
+        <v>636</v>
+      </c>
+      <c r="B284" t="s">
+        <v>577</v>
+      </c>
+      <c r="C284" s="5" t="s">
+        <v>609</v>
+      </c>
+      <c r="E284" s="5" t="s">
+        <v>545</v>
+      </c>
+      <c r="F284" s="5" t="s">
+        <v>619</v>
+      </c>
+      <c r="G284" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="H284" s="5">
+        <v>1997</v>
+      </c>
+      <c r="I284" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="J284" s="5" t="s">
+        <v>546</v>
+      </c>
+      <c r="K284" s="5" t="s">
+        <v>642</v>
+      </c>
+      <c r="L284" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="M284" s="5">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="285" spans="1:13" ht="29" x14ac:dyDescent="0.35">
+      <c r="A285" s="4" t="s">
+        <v>636</v>
+      </c>
+      <c r="B285" t="s">
+        <v>577</v>
+      </c>
+      <c r="C285" s="5" t="s">
+        <v>641</v>
+      </c>
+      <c r="E285" s="5" t="s">
+        <v>545</v>
+      </c>
+      <c r="F285" s="5" t="s">
+        <v>556</v>
+      </c>
+      <c r="G285" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="H285" s="5">
+        <v>1997</v>
+      </c>
+      <c r="I285" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="J285" s="5" t="s">
+        <v>546</v>
+      </c>
+      <c r="K285" s="5" t="s">
+        <v>642</v>
+      </c>
+      <c r="L285" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="M285" s="5">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="286" spans="1:13" ht="29" x14ac:dyDescent="0.35">
+      <c r="A286" s="4" t="s">
+        <v>636</v>
+      </c>
+      <c r="B286" t="s">
+        <v>577</v>
+      </c>
+      <c r="C286" s="5" t="s">
+        <v>566</v>
+      </c>
+      <c r="E286" s="5" t="s">
+        <v>545</v>
+      </c>
+      <c r="G286" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="H286" s="5">
+        <v>1997</v>
+      </c>
+      <c r="I286" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="J286" s="5" t="s">
+        <v>546</v>
+      </c>
+      <c r="K286" s="5" t="s">
+        <v>642</v>
+      </c>
+      <c r="L286" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="M286" s="5">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="287" spans="1:13" ht="29" x14ac:dyDescent="0.35">
+      <c r="A287" s="4" t="s">
+        <v>636</v>
+      </c>
+      <c r="B287" t="s">
+        <v>577</v>
+      </c>
+      <c r="C287" s="5" t="s">
+        <v>560</v>
+      </c>
+      <c r="E287" s="5" t="s">
+        <v>545</v>
+      </c>
+      <c r="F287" s="5" t="s">
+        <v>569</v>
+      </c>
+      <c r="G287" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="H287" s="5">
+        <v>1997</v>
+      </c>
+      <c r="I287" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="J287" s="5" t="s">
+        <v>546</v>
+      </c>
+      <c r="K287" s="5" t="s">
+        <v>642</v>
+      </c>
+      <c r="L287" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="M287" s="5">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="288" spans="1:13" ht="29" x14ac:dyDescent="0.35">
+      <c r="A288" s="4" t="s">
+        <v>636</v>
+      </c>
+      <c r="B288" t="s">
+        <v>577</v>
+      </c>
+      <c r="C288" s="5" t="s">
+        <v>603</v>
+      </c>
+      <c r="E288" s="5" t="s">
+        <v>545</v>
+      </c>
+      <c r="F288" s="5" t="s">
+        <v>620</v>
+      </c>
+      <c r="G288" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="H288" s="5">
+        <v>1997</v>
+      </c>
+      <c r="I288" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="J288" s="5" t="s">
+        <v>546</v>
+      </c>
+      <c r="K288" s="5" t="s">
+        <v>642</v>
+      </c>
+      <c r="L288" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="M288" s="5">
+        <v>28</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
